--- a/Matlab_Main/Perfusion_data_XL.xlsx
+++ b/Matlab_Main/Perfusion_data_XL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="2340">
   <si>
     <t>set1_1</t>
   </si>
@@ -1633,6 +1633,2706 @@
   </si>
   <si>
     <t>set60_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
+  </si>
+  <si>
+    <t>set1_1</t>
+  </si>
+  <si>
+    <t>set1_2</t>
+  </si>
+  <si>
+    <t>set2_1</t>
+  </si>
+  <si>
+    <t>set2_2</t>
+  </si>
+  <si>
+    <t>set3_1</t>
+  </si>
+  <si>
+    <t>set3_2</t>
+  </si>
+  <si>
+    <t>set4_1</t>
+  </si>
+  <si>
+    <t>set4_2</t>
+  </si>
+  <si>
+    <t>set5_1</t>
+  </si>
+  <si>
+    <t>set5_2</t>
+  </si>
+  <si>
+    <t>set6_1</t>
+  </si>
+  <si>
+    <t>set6_2</t>
+  </si>
+  <si>
+    <t>set7_1</t>
+  </si>
+  <si>
+    <t>set7_2</t>
+  </si>
+  <si>
+    <t>set8_1</t>
+  </si>
+  <si>
+    <t>set8_2</t>
+  </si>
+  <si>
+    <t>set9_1</t>
+  </si>
+  <si>
+    <t>set9_2</t>
+  </si>
+  <si>
+    <t>set10_1</t>
+  </si>
+  <si>
+    <t>set10_2</t>
+  </si>
+  <si>
+    <t>set11_1</t>
+  </si>
+  <si>
+    <t>set11_2</t>
+  </si>
+  <si>
+    <t>set12_1</t>
+  </si>
+  <si>
+    <t>set12_2</t>
+  </si>
+  <si>
+    <t>set13_1</t>
+  </si>
+  <si>
+    <t>set13_2</t>
+  </si>
+  <si>
+    <t>set14_1</t>
+  </si>
+  <si>
+    <t>set14_2</t>
+  </si>
+  <si>
+    <t>set15_1</t>
+  </si>
+  <si>
+    <t>set15_2</t>
+  </si>
+  <si>
+    <t>set16_1</t>
+  </si>
+  <si>
+    <t>set16_2</t>
+  </si>
+  <si>
+    <t>set17_1</t>
+  </si>
+  <si>
+    <t>set17_2</t>
+  </si>
+  <si>
+    <t>set18_1</t>
+  </si>
+  <si>
+    <t>set18_2</t>
+  </si>
+  <si>
+    <t>set19_1</t>
+  </si>
+  <si>
+    <t>set19_2</t>
+  </si>
+  <si>
+    <t>set20_1</t>
+  </si>
+  <si>
+    <t>set20_2</t>
+  </si>
+  <si>
+    <t>set21_1</t>
+  </si>
+  <si>
+    <t>set21_2</t>
+  </si>
+  <si>
+    <t>set22_1</t>
+  </si>
+  <si>
+    <t>set22_2</t>
+  </si>
+  <si>
+    <t>set23_1</t>
+  </si>
+  <si>
+    <t>set23_2</t>
+  </si>
+  <si>
+    <t>set24_1</t>
+  </si>
+  <si>
+    <t>set24_2</t>
+  </si>
+  <si>
+    <t>set25_1</t>
+  </si>
+  <si>
+    <t>set25_2</t>
+  </si>
+  <si>
+    <t>set26_1</t>
+  </si>
+  <si>
+    <t>set26_2</t>
+  </si>
+  <si>
+    <t>set27_1</t>
+  </si>
+  <si>
+    <t>set27_2</t>
+  </si>
+  <si>
+    <t>set28_1</t>
+  </si>
+  <si>
+    <t>set28_2</t>
+  </si>
+  <si>
+    <t>set29_1</t>
+  </si>
+  <si>
+    <t>set29_2</t>
+  </si>
+  <si>
+    <t>set30_1</t>
+  </si>
+  <si>
+    <t>set30_2</t>
   </si>
   <si>
     <t>set1_1</t>
@@ -4381,65 +7081,65 @@
   <dimension ref="A1:DP24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="14.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="14.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="14.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="14.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="14.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="14.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="14.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="14.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="14.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="14.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
-    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="14.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
-    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="14.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="14.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
-    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="14.7109375" customWidth="true"/>
     <col min="44" max="44" width="11.7109375" customWidth="true"/>
-    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="14.7109375" customWidth="true"/>
     <col min="46" max="46" width="11.7109375" customWidth="true"/>
-    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="14.7109375" customWidth="true"/>
     <col min="48" max="48" width="11.7109375" customWidth="true"/>
-    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="14.7109375" customWidth="true"/>
     <col min="50" max="50" width="11.7109375" customWidth="true"/>
-    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="14.7109375" customWidth="true"/>
     <col min="52" max="52" width="11.7109375" customWidth="true"/>
-    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="14.7109375" customWidth="true"/>
     <col min="54" max="54" width="11.7109375" customWidth="true"/>
-    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="14.7109375" customWidth="true"/>
     <col min="56" max="56" width="11.7109375" customWidth="true"/>
-    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="14.7109375" customWidth="true"/>
     <col min="58" max="58" width="11.7109375" customWidth="true"/>
-    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="14.7109375" customWidth="true"/>
     <col min="60" max="60" width="11.7109375" customWidth="true"/>
     <col min="61" max="61" width="13.7109375" customWidth="true"/>
     <col min="62" max="62" width="11.7109375" customWidth="true"/>
@@ -4505,184 +7205,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1380</v>
+        <v>2280</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1381</v>
+        <v>2281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1382</v>
+        <v>2282</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1383</v>
+        <v>2283</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1384</v>
+        <v>2284</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1385</v>
+        <v>2285</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1386</v>
+        <v>2286</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1387</v>
+        <v>2287</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1388</v>
+        <v>2288</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1389</v>
+        <v>2289</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1390</v>
+        <v>2290</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1391</v>
+        <v>2291</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1392</v>
+        <v>2292</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1393</v>
+        <v>2293</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1394</v>
+        <v>2294</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1395</v>
+        <v>2295</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1396</v>
+        <v>2296</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1397</v>
+        <v>2297</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1398</v>
+        <v>2298</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1399</v>
+        <v>2299</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1401</v>
+        <v>2301</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1402</v>
+        <v>2302</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1403</v>
+        <v>2303</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1404</v>
+        <v>2304</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1405</v>
+        <v>2305</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1406</v>
+        <v>2306</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1407</v>
+        <v>2307</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1408</v>
+        <v>2308</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1409</v>
+        <v>2309</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1411</v>
+        <v>2311</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1412</v>
+        <v>2312</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1413</v>
+        <v>2313</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>1414</v>
+        <v>2314</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1415</v>
+        <v>2315</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1416</v>
+        <v>2316</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>1417</v>
+        <v>2317</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1418</v>
+        <v>2318</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1419</v>
+        <v>2319</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1420</v>
+        <v>2320</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>1421</v>
+        <v>2321</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1422</v>
+        <v>2322</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1423</v>
+        <v>2323</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1424</v>
+        <v>2324</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1425</v>
+        <v>2325</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1426</v>
+        <v>2326</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1427</v>
+        <v>2327</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1428</v>
+        <v>2328</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1429</v>
+        <v>2329</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1430</v>
+        <v>2330</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1431</v>
+        <v>2331</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1432</v>
+        <v>2332</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1433</v>
+        <v>2333</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>1434</v>
+        <v>2334</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>1435</v>
+        <v>2335</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>1436</v>
+        <v>2336</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>1437</v>
+        <v>2337</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>1438</v>
+        <v>2338</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>1439</v>
+        <v>2339</v>
       </c>
       <c r="BI1" s="0" t="s">
         <v>480</v>
@@ -4867,181 +7567,181 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.12961959838867188</v>
+        <v>0.0028533935546875</v>
       </c>
       <c r="B2" s="0">
         <v>0.043478260869565216</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10283660888671875</v>
+        <v>0.00286865234375</v>
       </c>
       <c r="D2" s="0">
         <v>1.0434782608695652</v>
       </c>
       <c r="E2" s="0">
-        <v>0.10597991943359375</v>
+        <v>0.00281524658203125</v>
       </c>
       <c r="F2" s="0">
         <v>2.0434782608695654</v>
       </c>
       <c r="G2" s="0">
-        <v>0.10480117797851563</v>
+        <v>0.002910614013671875</v>
       </c>
       <c r="H2" s="0">
         <v>3.0434782608695654</v>
       </c>
       <c r="I2" s="0">
-        <v>0.10293960571289063</v>
+        <v>0.00292205810546875</v>
       </c>
       <c r="J2" s="0">
         <v>4.0434782608695654</v>
       </c>
       <c r="K2" s="0">
-        <v>0.10754776000976563</v>
+        <v>0.0028533935546875</v>
       </c>
       <c r="L2" s="0">
         <v>5.0434782608695654</v>
       </c>
       <c r="M2" s="0">
-        <v>0.10605239868164063</v>
+        <v>0.00283050537109375</v>
       </c>
       <c r="N2" s="0">
         <v>6.0434782608695654</v>
       </c>
       <c r="O2" s="0">
-        <v>0.10538101196289063</v>
+        <v>0.002838134765625</v>
       </c>
       <c r="P2" s="0">
         <v>7.0434782608695654</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.10653305053710938</v>
+        <v>0.00286865234375</v>
       </c>
       <c r="R2" s="0">
         <v>8.0434782608695645</v>
       </c>
       <c r="S2" s="0">
-        <v>0.106353759765625</v>
+        <v>0.00287628173828125</v>
       </c>
       <c r="T2" s="0">
         <v>9.0434782608695645</v>
       </c>
       <c r="U2" s="0">
-        <v>0.10528564453125</v>
+        <v>0.00284576416015625</v>
       </c>
       <c r="V2" s="0">
         <v>10.043478260869565</v>
       </c>
       <c r="W2" s="0">
-        <v>0.10787582397460938</v>
+        <v>0.002849578857421875</v>
       </c>
       <c r="X2" s="0">
         <v>11.043478260869565</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.10659027099609375</v>
+        <v>0.00284576416015625</v>
       </c>
       <c r="Z2" s="0">
         <v>12.043478260869565</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.105682373046875</v>
+        <v>0.0028839111328125</v>
       </c>
       <c r="AB2" s="0">
         <v>13.043478260869565</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.10746002197265625</v>
+        <v>0.002887725830078125</v>
       </c>
       <c r="AD2" s="0">
         <v>14.043478260869565</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.1068878173828125</v>
+        <v>0.002899169921875</v>
       </c>
       <c r="AF2" s="0">
         <v>15.043478260869565</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.10725021362304688</v>
+        <v>0.00292205810546875</v>
       </c>
       <c r="AH2" s="0">
         <v>16.043478260869566</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.10834884643554688</v>
+        <v>0.002895355224609375</v>
       </c>
       <c r="AJ2" s="0">
         <v>17.043478260869566</v>
       </c>
       <c r="AK2" s="0">
-        <v>0.1074676513671875</v>
+        <v>0.00286865234375</v>
       </c>
       <c r="AL2" s="0">
         <v>18.043478260869566</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.10559463500976563</v>
+        <v>0.002838134765625</v>
       </c>
       <c r="AN2" s="0">
         <v>19.043478260869566</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.10648727416992188</v>
+        <v>0.002880096435546875</v>
       </c>
       <c r="AP2" s="0">
         <v>20.043478260869566</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0.10623550415039063</v>
+        <v>0.0029296875</v>
       </c>
       <c r="AR2" s="0">
         <v>21.043478260869566</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.104644775390625</v>
+        <v>0.002902984619140625</v>
       </c>
       <c r="AT2" s="0">
         <v>22.043478260869566</v>
       </c>
       <c r="AU2" s="0">
-        <v>0.13179397583007813</v>
+        <v>0.0028839111328125</v>
       </c>
       <c r="AV2" s="0">
         <v>23.043478260869566</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.13019180297851563</v>
+        <v>0.0029144287109375</v>
       </c>
       <c r="AX2" s="0">
         <v>24.043478260869566</v>
       </c>
       <c r="AY2" s="0">
-        <v>0.13566207885742188</v>
+        <v>0.00293731689453125</v>
       </c>
       <c r="AZ2" s="0">
         <v>25.043478260869566</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.130523681640625</v>
+        <v>0.00286102294921875</v>
       </c>
       <c r="BB2" s="0">
         <v>26.043478260869566</v>
       </c>
       <c r="BC2" s="0">
-        <v>0.13177871704101563</v>
+        <v>0.002902984619140625</v>
       </c>
       <c r="BD2" s="0">
         <v>27.043478260869566</v>
       </c>
       <c r="BE2" s="0">
-        <v>0.13384628295898438</v>
+        <v>0.00290679931640625</v>
       </c>
       <c r="BF2" s="0">
         <v>28.043478260869566</v>
       </c>
       <c r="BG2" s="0">
-        <v>0.13067626953125</v>
+        <v>0.002948760986328125</v>
       </c>
       <c r="BH2" s="0">
         <v>29.043478260869566</v>
@@ -5229,181 +7929,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.127685546875</v>
+        <v>0.002964019775390625</v>
       </c>
       <c r="B3" s="0">
         <v>0.086956521739130432</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10461807250976563</v>
+        <v>0.002986907958984375</v>
       </c>
       <c r="D3" s="0">
         <v>1.0869565217391304</v>
       </c>
       <c r="E3" s="0">
-        <v>0.10596847534179688</v>
+        <v>0.00295257568359375</v>
       </c>
       <c r="F3" s="0">
         <v>2.0869565217391304</v>
       </c>
       <c r="G3" s="0">
-        <v>0.10565567016601563</v>
+        <v>0.002971649169921875</v>
       </c>
       <c r="H3" s="0">
         <v>3.0869565217391304</v>
       </c>
       <c r="I3" s="0">
-        <v>0.10720062255859375</v>
+        <v>0.002941131591796875</v>
       </c>
       <c r="J3" s="0">
         <v>4.0869565217391308</v>
       </c>
       <c r="K3" s="0">
-        <v>0.1067657470703125</v>
+        <v>0.0029754638671875</v>
       </c>
       <c r="L3" s="0">
         <v>5.0869565217391308</v>
       </c>
       <c r="M3" s="0">
-        <v>0.1066741943359375</v>
+        <v>0.00295257568359375</v>
       </c>
       <c r="N3" s="0">
         <v>6.0869565217391308</v>
       </c>
       <c r="O3" s="0">
-        <v>0.10570144653320313</v>
+        <v>0.002941131591796875</v>
       </c>
       <c r="P3" s="0">
         <v>7.0869565217391308</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.10819625854492188</v>
+        <v>0.002941131591796875</v>
       </c>
       <c r="R3" s="0">
         <v>8.0869565217391308</v>
       </c>
       <c r="S3" s="0">
-        <v>0.11005783081054688</v>
+        <v>0.002887725830078125</v>
       </c>
       <c r="T3" s="0">
         <v>9.0869565217391308</v>
       </c>
       <c r="U3" s="0">
-        <v>0.10750198364257813</v>
+        <v>0.002887725830078125</v>
       </c>
       <c r="V3" s="0">
         <v>10.086956521739131</v>
       </c>
       <c r="W3" s="0">
-        <v>0.1074066162109375</v>
+        <v>0.00290679931640625</v>
       </c>
       <c r="X3" s="0">
         <v>11.086956521739131</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.10503005981445313</v>
+        <v>0.00292205810546875</v>
       </c>
       <c r="Z3" s="0">
         <v>12.086956521739131</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.10591888427734375</v>
+        <v>0.0029754638671875</v>
       </c>
       <c r="AB3" s="0">
         <v>13.086956521739131</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.10651016235351563</v>
+        <v>0.002964019775390625</v>
       </c>
       <c r="AD3" s="0">
         <v>14.086956521739131</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.1059112548828125</v>
+        <v>0.0029296875</v>
       </c>
       <c r="AF3" s="0">
         <v>15.086956521739131</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.10708236694335938</v>
+        <v>0.0029296875</v>
       </c>
       <c r="AH3" s="0">
         <v>16.086956521739129</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.10701370239257813</v>
+        <v>0.002933502197265625</v>
       </c>
       <c r="AJ3" s="0">
         <v>17.086956521739129</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.10662841796875</v>
+        <v>0.002918243408203125</v>
       </c>
       <c r="AL3" s="0">
         <v>18.086956521739129</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.1054840087890625</v>
+        <v>0.002948760986328125</v>
       </c>
       <c r="AN3" s="0">
         <v>19.086956521739129</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.10613250732421875</v>
+        <v>0.00295257568359375</v>
       </c>
       <c r="AP3" s="0">
         <v>20.086956521739129</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0.10823822021484375</v>
+        <v>0.002933502197265625</v>
       </c>
       <c r="AR3" s="0">
         <v>21.086956521739129</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.10396194458007813</v>
+        <v>0.002910614013671875</v>
       </c>
       <c r="AT3" s="0">
         <v>22.086956521739129</v>
       </c>
       <c r="AU3" s="0">
-        <v>0.12116241455078125</v>
+        <v>0.00298309326171875</v>
       </c>
       <c r="AV3" s="0">
         <v>23.086956521739129</v>
       </c>
       <c r="AW3" s="0">
-        <v>0.12432861328125</v>
+        <v>0.00295257568359375</v>
       </c>
       <c r="AX3" s="0">
         <v>24.086956521739129</v>
       </c>
       <c r="AY3" s="0">
-        <v>0.12623977661132813</v>
+        <v>0.002971649169921875</v>
       </c>
       <c r="AZ3" s="0">
         <v>25.086956521739129</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.12026214599609375</v>
+        <v>0.0029144287109375</v>
       </c>
       <c r="BB3" s="0">
         <v>26.086956521739129</v>
       </c>
       <c r="BC3" s="0">
-        <v>0.125885009765625</v>
+        <v>0.002933502197265625</v>
       </c>
       <c r="BD3" s="0">
         <v>27.086956521739129</v>
       </c>
       <c r="BE3" s="0">
-        <v>0.12618255615234375</v>
+        <v>0.002956390380859375</v>
       </c>
       <c r="BF3" s="0">
         <v>28.086956521739129</v>
       </c>
       <c r="BG3" s="0">
-        <v>0.11980819702148438</v>
+        <v>0.00295257568359375</v>
       </c>
       <c r="BH3" s="0">
         <v>29.086956521739129</v>
@@ -5591,181 +8291,181 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12403106689453125</v>
+        <v>0.002346038818359375</v>
       </c>
       <c r="B4" s="0">
         <v>0.13043478260869565</v>
       </c>
       <c r="C4" s="0">
-        <v>0.10915756225585938</v>
+        <v>0.00229644775390625</v>
       </c>
       <c r="D4" s="0">
         <v>1.1304347826086956</v>
       </c>
       <c r="E4" s="0">
-        <v>0.10821151733398438</v>
+        <v>0.002300262451171875</v>
       </c>
       <c r="F4" s="0">
         <v>2.1304347826086958</v>
       </c>
       <c r="G4" s="0">
-        <v>0.10906982421875</v>
+        <v>0.002288818359375</v>
       </c>
       <c r="H4" s="0">
         <v>3.1304347826086958</v>
       </c>
       <c r="I4" s="0">
-        <v>0.11180877685546875</v>
+        <v>0.0023193359375</v>
       </c>
       <c r="J4" s="0">
         <v>4.1304347826086953</v>
       </c>
       <c r="K4" s="0">
-        <v>0.10972213745117188</v>
+        <v>0.0022430419921875</v>
       </c>
       <c r="L4" s="0">
         <v>5.1304347826086953</v>
       </c>
       <c r="M4" s="0">
-        <v>0.10807037353515625</v>
+        <v>0.002227783203125</v>
       </c>
       <c r="N4" s="0">
         <v>6.1304347826086953</v>
       </c>
       <c r="O4" s="0">
-        <v>0.10984039306640625</v>
+        <v>0.00226593017578125</v>
       </c>
       <c r="P4" s="0">
         <v>7.1304347826086953</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.10916519165039063</v>
+        <v>0.002384185791015625</v>
       </c>
       <c r="R4" s="0">
         <v>8.1304347826086953</v>
       </c>
       <c r="S4" s="0">
-        <v>0.11138534545898438</v>
+        <v>0.002330780029296875</v>
       </c>
       <c r="T4" s="0">
         <v>9.1304347826086953</v>
       </c>
       <c r="U4" s="0">
-        <v>0.111724853515625</v>
+        <v>0.00235748291015625</v>
       </c>
       <c r="V4" s="0">
         <v>10.130434782608695</v>
       </c>
       <c r="W4" s="0">
-        <v>0.10877227783203125</v>
+        <v>0.002330780029296875</v>
       </c>
       <c r="X4" s="0">
         <v>11.130434782608695</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.10739898681640625</v>
+        <v>0.002300262451171875</v>
       </c>
       <c r="Z4" s="0">
         <v>12.130434782608695</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.108734130859375</v>
+        <v>0.00228118896484375</v>
       </c>
       <c r="AB4" s="0">
         <v>13.130434782608695</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.10722732543945313</v>
+        <v>0.002277374267578125</v>
       </c>
       <c r="AD4" s="0">
         <v>14.130434782608695</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.110137939453125</v>
+        <v>0.002285003662109375</v>
       </c>
       <c r="AF4" s="0">
         <v>15.130434782608695</v>
       </c>
       <c r="AG4" s="0">
-        <v>0.10920333862304688</v>
+        <v>0.002216339111328125</v>
       </c>
       <c r="AH4" s="0">
         <v>16.130434782608695</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.11001205444335938</v>
+        <v>0.002292633056640625</v>
       </c>
       <c r="AJ4" s="0">
         <v>17.130434782608695</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.1068267822265625</v>
+        <v>0.00232696533203125</v>
       </c>
       <c r="AL4" s="0">
         <v>18.130434782608695</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.11040878295898438</v>
+        <v>0.0023193359375</v>
       </c>
       <c r="AN4" s="0">
         <v>19.130434782608695</v>
       </c>
       <c r="AO4" s="0">
-        <v>0.10811996459960938</v>
+        <v>0.002300262451171875</v>
       </c>
       <c r="AP4" s="0">
         <v>20.130434782608695</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0.10892868041992188</v>
+        <v>0.002368927001953125</v>
       </c>
       <c r="AR4" s="0">
         <v>21.130434782608695</v>
       </c>
       <c r="AS4" s="0">
-        <v>0.10809707641601563</v>
+        <v>0.002285003662109375</v>
       </c>
       <c r="AT4" s="0">
         <v>22.130434782608695</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.11708450317382813</v>
+        <v>0.002399444580078125</v>
       </c>
       <c r="AV4" s="0">
         <v>23.130434782608695</v>
       </c>
       <c r="AW4" s="0">
-        <v>0.12307357788085938</v>
+        <v>0.002262115478515625</v>
       </c>
       <c r="AX4" s="0">
         <v>24.130434782608695</v>
       </c>
       <c r="AY4" s="0">
-        <v>0.11875152587890625</v>
+        <v>0.002338409423828125</v>
       </c>
       <c r="AZ4" s="0">
         <v>25.130434782608695</v>
       </c>
       <c r="BA4" s="0">
-        <v>0.11856460571289063</v>
+        <v>0.002384185791015625</v>
       </c>
       <c r="BB4" s="0">
         <v>26.130434782608695</v>
       </c>
       <c r="BC4" s="0">
-        <v>0.12091445922851563</v>
+        <v>0.002376556396484375</v>
       </c>
       <c r="BD4" s="0">
         <v>27.130434782608695</v>
       </c>
       <c r="BE4" s="0">
-        <v>0.11658477783203125</v>
+        <v>0.002262115478515625</v>
       </c>
       <c r="BF4" s="0">
         <v>28.130434782608695</v>
       </c>
       <c r="BG4" s="0">
-        <v>0.1171112060546875</v>
+        <v>0.002410888671875</v>
       </c>
       <c r="BH4" s="0">
         <v>29.130434782608695</v>
@@ -5953,181 +8653,181 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1231689453125</v>
+        <v>0.00262451171875</v>
       </c>
       <c r="B5" s="0">
         <v>0.17391304347826086</v>
       </c>
       <c r="C5" s="0">
-        <v>0.11386489868164063</v>
+        <v>0.00244903564453125</v>
       </c>
       <c r="D5" s="0">
         <v>1.1739130434782608</v>
       </c>
       <c r="E5" s="0">
-        <v>0.11219406127929688</v>
+        <v>0.00237274169921875</v>
       </c>
       <c r="F5" s="0">
         <v>2.1739130434782608</v>
       </c>
       <c r="G5" s="0">
-        <v>0.11152267456054688</v>
+        <v>0.002460479736328125</v>
       </c>
       <c r="H5" s="0">
         <v>3.1739130434782608</v>
       </c>
       <c r="I5" s="0">
-        <v>0.11304092407226563</v>
+        <v>0.002391815185546875</v>
       </c>
       <c r="J5" s="0">
         <v>4.1739130434782608</v>
       </c>
       <c r="K5" s="0">
-        <v>0.11220932006835938</v>
+        <v>0.002391815185546875</v>
       </c>
       <c r="L5" s="0">
         <v>5.1739130434782608</v>
       </c>
       <c r="M5" s="0">
-        <v>0.11161041259765625</v>
+        <v>0.002384185791015625</v>
       </c>
       <c r="N5" s="0">
         <v>6.1739130434782608</v>
       </c>
       <c r="O5" s="0">
-        <v>0.11367034912109375</v>
+        <v>0.00243377685546875</v>
       </c>
       <c r="P5" s="0">
         <v>7.1739130434782608</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.11160659790039063</v>
+        <v>0.002468109130859375</v>
       </c>
       <c r="R5" s="0">
         <v>8.1739130434782616</v>
       </c>
       <c r="S5" s="0">
-        <v>0.11090087890625</v>
+        <v>0.002452850341796875</v>
       </c>
       <c r="T5" s="0">
         <v>9.1739130434782616</v>
       </c>
       <c r="U5" s="0">
-        <v>0.110198974609375</v>
+        <v>0.002353668212890625</v>
       </c>
       <c r="V5" s="0">
         <v>10.173913043478262</v>
       </c>
       <c r="W5" s="0">
-        <v>0.11302566528320313</v>
+        <v>0.002567291259765625</v>
       </c>
       <c r="X5" s="0">
         <v>11.173913043478262</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.11127090454101563</v>
+        <v>0.0023651123046875</v>
       </c>
       <c r="Z5" s="0">
         <v>12.173913043478262</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.11142730712890625</v>
+        <v>0.002346038818359375</v>
       </c>
       <c r="AB5" s="0">
         <v>13.173913043478262</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.110137939453125</v>
+        <v>0.002361297607421875</v>
       </c>
       <c r="AD5" s="0">
         <v>14.173913043478262</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.10931777954101563</v>
+        <v>0.002178192138671875</v>
       </c>
       <c r="AF5" s="0">
         <v>15.173913043478262</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.11022186279296875</v>
+        <v>0.002452850341796875</v>
       </c>
       <c r="AH5" s="0">
         <v>16.173913043478262</v>
       </c>
       <c r="AI5" s="0">
-        <v>0.110565185546875</v>
+        <v>0.00243377685546875</v>
       </c>
       <c r="AJ5" s="0">
         <v>17.173913043478262</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.11087799072265625</v>
+        <v>0.002353668212890625</v>
       </c>
       <c r="AL5" s="0">
         <v>18.173913043478262</v>
       </c>
       <c r="AM5" s="0">
-        <v>0.11309432983398438</v>
+        <v>0.002410888671875</v>
       </c>
       <c r="AN5" s="0">
         <v>19.173913043478262</v>
       </c>
       <c r="AO5" s="0">
-        <v>0.11140060424804688</v>
+        <v>0.00244903564453125</v>
       </c>
       <c r="AP5" s="0">
         <v>20.173913043478262</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.11027145385742188</v>
+        <v>0.00238037109375</v>
       </c>
       <c r="AR5" s="0">
         <v>21.173913043478262</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.11377334594726563</v>
+        <v>0.002246856689453125</v>
       </c>
       <c r="AT5" s="0">
         <v>22.173913043478262</v>
       </c>
       <c r="AU5" s="0">
-        <v>0.11826324462890625</v>
+        <v>0.002376556396484375</v>
       </c>
       <c r="AV5" s="0">
         <v>23.173913043478262</v>
       </c>
       <c r="AW5" s="0">
-        <v>0.11927413940429688</v>
+        <v>0.002353668212890625</v>
       </c>
       <c r="AX5" s="0">
         <v>24.173913043478262</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.11887359619140625</v>
+        <v>0.00243377685546875</v>
       </c>
       <c r="AZ5" s="0">
         <v>25.173913043478262</v>
       </c>
       <c r="BA5" s="0">
-        <v>0.118865966796875</v>
+        <v>0.002445220947265625</v>
       </c>
       <c r="BB5" s="0">
         <v>26.173913043478262</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.12059402465820313</v>
+        <v>0.00235748291015625</v>
       </c>
       <c r="BD5" s="0">
         <v>27.173913043478262</v>
       </c>
       <c r="BE5" s="0">
-        <v>0.11670303344726563</v>
+        <v>0.002483367919921875</v>
       </c>
       <c r="BF5" s="0">
         <v>28.173913043478262</v>
       </c>
       <c r="BG5" s="0">
-        <v>0.11805343627929688</v>
+        <v>0.0024566650390625</v>
       </c>
       <c r="BH5" s="0">
         <v>29.173913043478262</v>
@@ -6315,181 +9015,181 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12842559814453125</v>
+        <v>0.0025482177734375</v>
       </c>
       <c r="B6" s="0">
         <v>0.21739130434782608</v>
       </c>
       <c r="C6" s="0">
-        <v>0.12062454223632813</v>
+        <v>0.002544403076171875</v>
       </c>
       <c r="D6" s="0">
         <v>1.2173913043478262</v>
       </c>
       <c r="E6" s="0">
-        <v>0.12279510498046875</v>
+        <v>0.002552032470703125</v>
       </c>
       <c r="F6" s="0">
         <v>2.2173913043478262</v>
       </c>
       <c r="G6" s="0">
-        <v>0.12022781372070313</v>
+        <v>0.002597808837890625</v>
       </c>
       <c r="H6" s="0">
         <v>3.2173913043478262</v>
       </c>
       <c r="I6" s="0">
-        <v>0.12040328979492188</v>
+        <v>0.002429962158203125</v>
       </c>
       <c r="J6" s="0">
         <v>4.2173913043478262</v>
       </c>
       <c r="K6" s="0">
-        <v>0.12158584594726563</v>
+        <v>0.002349853515625</v>
       </c>
       <c r="L6" s="0">
         <v>5.2173913043478262</v>
       </c>
       <c r="M6" s="0">
-        <v>0.1211090087890625</v>
+        <v>0.002460479736328125</v>
       </c>
       <c r="N6" s="0">
         <v>6.2173913043478262</v>
       </c>
       <c r="O6" s="0">
-        <v>0.11960601806640625</v>
+        <v>0.002452850341796875</v>
       </c>
       <c r="P6" s="0">
         <v>7.2173913043478262</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.12058258056640625</v>
+        <v>0.002513885498046875</v>
       </c>
       <c r="R6" s="0">
         <v>8.2173913043478262</v>
       </c>
       <c r="S6" s="0">
-        <v>0.1199798583984375</v>
+        <v>0.00244903564453125</v>
       </c>
       <c r="T6" s="0">
         <v>9.2173913043478262</v>
       </c>
       <c r="U6" s="0">
-        <v>0.11925125122070313</v>
+        <v>0.00249481201171875</v>
       </c>
       <c r="V6" s="0">
         <v>10.217391304347826</v>
       </c>
       <c r="W6" s="0">
-        <v>0.12208175659179688</v>
+        <v>0.002452850341796875</v>
       </c>
       <c r="X6" s="0">
         <v>11.217391304347826</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.11962127685546875</v>
+        <v>0.0025634765625</v>
       </c>
       <c r="Z6" s="0">
         <v>12.217391304347826</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.11932754516601563</v>
+        <v>0.00252532958984375</v>
       </c>
       <c r="AB6" s="0">
         <v>13.217391304347826</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.12091445922851563</v>
+        <v>0.00255584716796875</v>
       </c>
       <c r="AD6" s="0">
         <v>14.217391304347826</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.12100982666015625</v>
+        <v>0.0024566650390625</v>
       </c>
       <c r="AF6" s="0">
         <v>15.217391304347826</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.1199951171875</v>
+        <v>0.00262451171875</v>
       </c>
       <c r="AH6" s="0">
         <v>16.217391304347824</v>
       </c>
       <c r="AI6" s="0">
-        <v>0.120849609375</v>
+        <v>0.002483367919921875</v>
       </c>
       <c r="AJ6" s="0">
         <v>17.217391304347824</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.120513916015625</v>
+        <v>0.002513885498046875</v>
       </c>
       <c r="AL6" s="0">
         <v>18.217391304347824</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.12165451049804688</v>
+        <v>0.00258636474609375</v>
       </c>
       <c r="AN6" s="0">
         <v>19.217391304347824</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.12166595458984375</v>
+        <v>0.00266265869140625</v>
       </c>
       <c r="AP6" s="0">
         <v>20.217391304347824</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.12140655517578125</v>
+        <v>0.00255584716796875</v>
       </c>
       <c r="AR6" s="0">
         <v>21.217391304347824</v>
       </c>
       <c r="AS6" s="0">
-        <v>0.12073516845703125</v>
+        <v>0.00254058837890625</v>
       </c>
       <c r="AT6" s="0">
         <v>22.217391304347824</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.1245269775390625</v>
+        <v>0.0024871826171875</v>
       </c>
       <c r="AV6" s="0">
         <v>23.217391304347824</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.12401199340820313</v>
+        <v>0.002422332763671875</v>
       </c>
       <c r="AX6" s="0">
         <v>24.217391304347824</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.12502670288085938</v>
+        <v>0.002422332763671875</v>
       </c>
       <c r="AZ6" s="0">
         <v>25.217391304347824</v>
       </c>
       <c r="BA6" s="0">
-        <v>0.12312698364257813</v>
+        <v>0.002532958984375</v>
       </c>
       <c r="BB6" s="0">
         <v>26.217391304347824</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.1234130859375</v>
+        <v>0.0025177001953125</v>
       </c>
       <c r="BD6" s="0">
         <v>27.217391304347824</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.126312255859375</v>
+        <v>0.0025177001953125</v>
       </c>
       <c r="BF6" s="0">
         <v>28.217391304347824</v>
       </c>
       <c r="BG6" s="0">
-        <v>0.1249237060546875</v>
+        <v>0.00246429443359375</v>
       </c>
       <c r="BH6" s="0">
         <v>29.217391304347824</v>
@@ -6677,181 +9377,181 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.13234329223632813</v>
+        <v>0.002490997314453125</v>
       </c>
       <c r="B7" s="0">
         <v>0.2608695652173913</v>
       </c>
       <c r="C7" s="0">
-        <v>0.12733078002929688</v>
+        <v>0.00237274169921875</v>
       </c>
       <c r="D7" s="0">
         <v>1.2608695652173914</v>
       </c>
       <c r="E7" s="0">
-        <v>0.1291046142578125</v>
+        <v>0.00244903564453125</v>
       </c>
       <c r="F7" s="0">
         <v>2.2608695652173911</v>
       </c>
       <c r="G7" s="0">
-        <v>0.12813568115234375</v>
+        <v>0.002590179443359375</v>
       </c>
       <c r="H7" s="0">
         <v>3.2608695652173911</v>
       </c>
       <c r="I7" s="0">
-        <v>0.12929916381835938</v>
+        <v>0.00250244140625</v>
       </c>
       <c r="J7" s="0">
         <v>4.2608695652173916</v>
       </c>
       <c r="K7" s="0">
-        <v>0.12771987915039063</v>
+        <v>0.002239227294921875</v>
       </c>
       <c r="L7" s="0">
         <v>5.2608695652173916</v>
       </c>
       <c r="M7" s="0">
-        <v>0.12948226928710938</v>
+        <v>0.002399444580078125</v>
       </c>
       <c r="N7" s="0">
         <v>6.2608695652173916</v>
       </c>
       <c r="O7" s="0">
-        <v>0.12714767456054688</v>
+        <v>0.002300262451171875</v>
       </c>
       <c r="P7" s="0">
         <v>7.2608695652173916</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.12845993041992188</v>
+        <v>0.0023956298828125</v>
       </c>
       <c r="R7" s="0">
         <v>8.2608695652173907</v>
       </c>
       <c r="S7" s="0">
-        <v>0.12900543212890625</v>
+        <v>0.0023956298828125</v>
       </c>
       <c r="T7" s="0">
         <v>9.2608695652173907</v>
       </c>
       <c r="U7" s="0">
-        <v>0.12755203247070313</v>
+        <v>0.00232696533203125</v>
       </c>
       <c r="V7" s="0">
         <v>10.260869565217391</v>
       </c>
       <c r="W7" s="0">
-        <v>0.13024139404296875</v>
+        <v>0.002529144287109375</v>
       </c>
       <c r="X7" s="0">
         <v>11.260869565217391</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.12778091430664063</v>
+        <v>0.0024261474609375</v>
       </c>
       <c r="Z7" s="0">
         <v>12.260869565217391</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.1271820068359375</v>
+        <v>0.002532958984375</v>
       </c>
       <c r="AB7" s="0">
         <v>13.260869565217391</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.12896347045898438</v>
+        <v>0.002475738525390625</v>
       </c>
       <c r="AD7" s="0">
         <v>14.260869565217391</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.13116455078125</v>
+        <v>0.002422332763671875</v>
       </c>
       <c r="AF7" s="0">
         <v>15.260869565217391</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.129486083984375</v>
+        <v>0.0023956298828125</v>
       </c>
       <c r="AH7" s="0">
         <v>16.260869565217391</v>
       </c>
       <c r="AI7" s="0">
-        <v>0.12783432006835938</v>
+        <v>0.002410888671875</v>
       </c>
       <c r="AJ7" s="0">
         <v>17.260869565217391</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.12969207763671875</v>
+        <v>0.002597808837890625</v>
       </c>
       <c r="AL7" s="0">
         <v>18.260869565217391</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.1287384033203125</v>
+        <v>0.00249481201171875</v>
       </c>
       <c r="AN7" s="0">
         <v>19.260869565217391</v>
       </c>
       <c r="AO7" s="0">
-        <v>0.13048934936523438</v>
+        <v>0.002506256103515625</v>
       </c>
       <c r="AP7" s="0">
         <v>20.260869565217391</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.12958908081054688</v>
+        <v>0.002593994140625</v>
       </c>
       <c r="AR7" s="0">
         <v>21.260869565217391</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.12821197509765625</v>
+        <v>0.0023345947265625</v>
       </c>
       <c r="AT7" s="0">
         <v>22.260869565217391</v>
       </c>
       <c r="AU7" s="0">
-        <v>0.13090896606445313</v>
+        <v>0.002292633056640625</v>
       </c>
       <c r="AV7" s="0">
         <v>23.260869565217391</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.1303558349609375</v>
+        <v>0.002422332763671875</v>
       </c>
       <c r="AX7" s="0">
         <v>24.260869565217391</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.13245773315429688</v>
+        <v>0.002422332763671875</v>
       </c>
       <c r="AZ7" s="0">
         <v>25.260869565217391</v>
       </c>
       <c r="BA7" s="0">
-        <v>0.13212966918945313</v>
+        <v>0.002529144287109375</v>
       </c>
       <c r="BB7" s="0">
         <v>26.260869565217391</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.13364791870117188</v>
+        <v>0.002574920654296875</v>
       </c>
       <c r="BD7" s="0">
         <v>27.260869565217391</v>
       </c>
       <c r="BE7" s="0">
-        <v>0.13471603393554688</v>
+        <v>0.0023651123046875</v>
       </c>
       <c r="BF7" s="0">
         <v>28.260869565217391</v>
       </c>
       <c r="BG7" s="0">
-        <v>0.13213729858398438</v>
+        <v>0.002506256103515625</v>
       </c>
       <c r="BH7" s="0">
         <v>29.260869565217391</v>
@@ -7039,181 +9739,181 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.13735580444335938</v>
+        <v>0.0027313232421875</v>
       </c>
       <c r="B8" s="0">
         <v>0.30434782608695654</v>
       </c>
       <c r="C8" s="0">
-        <v>0.1348724365234375</v>
+        <v>0.002704620361328125</v>
       </c>
       <c r="D8" s="0">
         <v>1.3043478260869565</v>
       </c>
       <c r="E8" s="0">
-        <v>0.134796142578125</v>
+        <v>0.00262451171875</v>
       </c>
       <c r="F8" s="0">
         <v>2.3043478260869565</v>
       </c>
       <c r="G8" s="0">
-        <v>0.13411331176757813</v>
+        <v>0.002704620361328125</v>
       </c>
       <c r="H8" s="0">
         <v>3.3043478260869565</v>
       </c>
       <c r="I8" s="0">
-        <v>0.13680267333984375</v>
+        <v>0.002750396728515625</v>
       </c>
       <c r="J8" s="0">
         <v>4.304347826086957</v>
       </c>
       <c r="K8" s="0">
-        <v>0.13404464721679688</v>
+        <v>0.00286865234375</v>
       </c>
       <c r="L8" s="0">
         <v>5.304347826086957</v>
       </c>
       <c r="M8" s="0">
-        <v>0.13446807861328125</v>
+        <v>0.0026092529296875</v>
       </c>
       <c r="N8" s="0">
         <v>6.304347826086957</v>
       </c>
       <c r="O8" s="0">
-        <v>0.13527679443359375</v>
+        <v>0.002620697021484375</v>
       </c>
       <c r="P8" s="0">
         <v>7.304347826086957</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.13312530517578125</v>
+        <v>0.00267791748046875</v>
       </c>
       <c r="R8" s="0">
         <v>8.304347826086957</v>
       </c>
       <c r="S8" s="0">
-        <v>0.13285064697265625</v>
+        <v>0.002590179443359375</v>
       </c>
       <c r="T8" s="0">
         <v>9.304347826086957</v>
       </c>
       <c r="U8" s="0">
-        <v>0.1340179443359375</v>
+        <v>0.002521514892578125</v>
       </c>
       <c r="V8" s="0">
         <v>10.304347826086957</v>
       </c>
       <c r="W8" s="0">
-        <v>0.13087081909179688</v>
+        <v>0.00269317626953125</v>
       </c>
       <c r="X8" s="0">
         <v>11.304347826086957</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.13235855102539063</v>
+        <v>0.0026092529296875</v>
       </c>
       <c r="Z8" s="0">
         <v>12.304347826086957</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.133087158203125</v>
+        <v>0.002593994140625</v>
       </c>
       <c r="AB8" s="0">
         <v>13.304347826086957</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.13375473022460938</v>
+        <v>0.00262451171875</v>
       </c>
       <c r="AD8" s="0">
         <v>14.304347826086957</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.13383865356445313</v>
+        <v>0.002635955810546875</v>
       </c>
       <c r="AF8" s="0">
         <v>15.304347826086957</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.13743209838867188</v>
+        <v>0.0027618408203125</v>
       </c>
       <c r="AH8" s="0">
         <v>16.304347826086957</v>
       </c>
       <c r="AI8" s="0">
-        <v>0.13336944580078125</v>
+        <v>0.002735137939453125</v>
       </c>
       <c r="AJ8" s="0">
         <v>17.304347826086957</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.13423919677734375</v>
+        <v>0.0026092529296875</v>
       </c>
       <c r="AL8" s="0">
         <v>18.304347826086957</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.13486099243164063</v>
+        <v>0.002658843994140625</v>
       </c>
       <c r="AN8" s="0">
         <v>19.304347826086957</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.13330841064453125</v>
+        <v>0.002727508544921875</v>
       </c>
       <c r="AP8" s="0">
         <v>20.304347826086957</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.13277816772460938</v>
+        <v>0.002643585205078125</v>
       </c>
       <c r="AR8" s="0">
         <v>21.304347826086957</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.13504409790039063</v>
+        <v>0.002696990966796875</v>
       </c>
       <c r="AT8" s="0">
         <v>22.304347826086957</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.13731765747070313</v>
+        <v>0.0027618408203125</v>
       </c>
       <c r="AV8" s="0">
         <v>23.304347826086957</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.13668441772460938</v>
+        <v>0.002689361572265625</v>
       </c>
       <c r="AX8" s="0">
         <v>24.304347826086957</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.13553619384765625</v>
+        <v>0.002742767333984375</v>
       </c>
       <c r="AZ8" s="0">
         <v>25.304347826086957</v>
       </c>
       <c r="BA8" s="0">
-        <v>0.135650634765625</v>
+        <v>0.00281524658203125</v>
       </c>
       <c r="BB8" s="0">
         <v>26.304347826086957</v>
       </c>
       <c r="BC8" s="0">
-        <v>0.13613510131835938</v>
+        <v>0.002727508544921875</v>
       </c>
       <c r="BD8" s="0">
         <v>27.304347826086957</v>
       </c>
       <c r="BE8" s="0">
-        <v>0.13590621948242188</v>
+        <v>0.002613067626953125</v>
       </c>
       <c r="BF8" s="0">
         <v>28.304347826086957</v>
       </c>
       <c r="BG8" s="0">
-        <v>0.136077880859375</v>
+        <v>0.0027008056640625</v>
       </c>
       <c r="BH8" s="0">
         <v>29.304347826086957</v>
@@ -7401,181 +10101,181 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14316940307617188</v>
+        <v>0.00286865234375</v>
       </c>
       <c r="B9" s="0">
         <v>0.34782608695652173</v>
       </c>
       <c r="C9" s="0">
-        <v>0.14031219482421875</v>
+        <v>0.00273895263671875</v>
       </c>
       <c r="D9" s="0">
         <v>1.3478260869565217</v>
       </c>
       <c r="E9" s="0">
-        <v>0.13852310180664063</v>
+        <v>0.002819061279296875</v>
       </c>
       <c r="F9" s="0">
         <v>2.3478260869565215</v>
       </c>
       <c r="G9" s="0">
-        <v>0.13929367065429688</v>
+        <v>0.00264739990234375</v>
       </c>
       <c r="H9" s="0">
         <v>3.3478260869565215</v>
       </c>
       <c r="I9" s="0">
-        <v>0.13838958740234375</v>
+        <v>0.002826690673828125</v>
       </c>
       <c r="J9" s="0">
         <v>4.3478260869565215</v>
       </c>
       <c r="K9" s="0">
-        <v>0.13920211791992188</v>
+        <v>0.002750396728515625</v>
       </c>
       <c r="L9" s="0">
         <v>5.3478260869565215</v>
       </c>
       <c r="M9" s="0">
-        <v>0.13932418823242188</v>
+        <v>0.002956390380859375</v>
       </c>
       <c r="N9" s="0">
         <v>6.3478260869565215</v>
       </c>
       <c r="O9" s="0">
-        <v>0.13840103149414063</v>
+        <v>0.002979278564453125</v>
       </c>
       <c r="P9" s="0">
         <v>7.3478260869565215</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.1358795166015625</v>
+        <v>0.002986907958984375</v>
       </c>
       <c r="R9" s="0">
         <v>8.3478260869565215</v>
       </c>
       <c r="S9" s="0">
-        <v>0.136871337890625</v>
+        <v>0.003002166748046875</v>
       </c>
       <c r="T9" s="0">
         <v>9.3478260869565215</v>
       </c>
       <c r="U9" s="0">
-        <v>0.13796234130859375</v>
+        <v>0.002635955810546875</v>
       </c>
       <c r="V9" s="0">
         <v>10.347826086956522</v>
       </c>
       <c r="W9" s="0">
-        <v>0.13740921020507813</v>
+        <v>0.002719879150390625</v>
       </c>
       <c r="X9" s="0">
         <v>11.347826086956522</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.13740158081054688</v>
+        <v>0.002651214599609375</v>
       </c>
       <c r="Z9" s="0">
         <v>12.347826086956522</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.14159774780273438</v>
+        <v>0.0027008056640625</v>
       </c>
       <c r="AB9" s="0">
         <v>13.347826086956522</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.1405792236328125</v>
+        <v>0.002796173095703125</v>
       </c>
       <c r="AD9" s="0">
         <v>14.347826086956522</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.13975143432617188</v>
+        <v>0.002651214599609375</v>
       </c>
       <c r="AF9" s="0">
         <v>15.347826086956522</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.14043426513671875</v>
+        <v>0.002788543701171875</v>
       </c>
       <c r="AH9" s="0">
         <v>16.347826086956523</v>
       </c>
       <c r="AI9" s="0">
-        <v>0.14050674438476563</v>
+        <v>0.002826690673828125</v>
       </c>
       <c r="AJ9" s="0">
         <v>17.347826086956523</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.1427459716796875</v>
+        <v>0.00270843505859375</v>
       </c>
       <c r="AL9" s="0">
         <v>18.347826086956523</v>
       </c>
       <c r="AM9" s="0">
-        <v>0.14086532592773438</v>
+        <v>0.0028228759765625</v>
       </c>
       <c r="AN9" s="0">
         <v>19.347826086956523</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.13835906982421875</v>
+        <v>0.002704620361328125</v>
       </c>
       <c r="AP9" s="0">
         <v>20.347826086956523</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.13862991333007813</v>
+        <v>0.002994537353515625</v>
       </c>
       <c r="AR9" s="0">
         <v>21.347826086956523</v>
       </c>
       <c r="AS9" s="0">
-        <v>0.14215850830078125</v>
+        <v>0.00269317626953125</v>
       </c>
       <c r="AT9" s="0">
         <v>22.347826086956523</v>
       </c>
       <c r="AU9" s="0">
-        <v>0.1435546875</v>
+        <v>0.002902984619140625</v>
       </c>
       <c r="AV9" s="0">
         <v>23.347826086956523</v>
       </c>
       <c r="AW9" s="0">
-        <v>0.13978195190429688</v>
+        <v>0.00269317626953125</v>
       </c>
       <c r="AX9" s="0">
         <v>24.347826086956523</v>
       </c>
       <c r="AY9" s="0">
-        <v>0.14094924926757813</v>
+        <v>0.0030364990234375</v>
       </c>
       <c r="AZ9" s="0">
         <v>25.347826086956523</v>
       </c>
       <c r="BA9" s="0">
-        <v>0.14223480224609375</v>
+        <v>0.00286102294921875</v>
       </c>
       <c r="BB9" s="0">
         <v>26.347826086956523</v>
       </c>
       <c r="BC9" s="0">
-        <v>0.14068603515625</v>
+        <v>0.00269317626953125</v>
       </c>
       <c r="BD9" s="0">
         <v>27.347826086956523</v>
       </c>
       <c r="BE9" s="0">
-        <v>0.14131546020507813</v>
+        <v>0.0028076171875</v>
       </c>
       <c r="BF9" s="0">
         <v>28.347826086956523</v>
       </c>
       <c r="BG9" s="0">
-        <v>0.14184951782226563</v>
+        <v>0.002635955810546875</v>
       </c>
       <c r="BH9" s="0">
         <v>29.347826086956523</v>
@@ -7763,181 +10463,181 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.13882827758789063</v>
+        <v>0.002964019775390625</v>
       </c>
       <c r="B10" s="0">
         <v>0.39130434782608692</v>
       </c>
       <c r="C10" s="0">
-        <v>0.1399383544921875</v>
+        <v>0.003047943115234375</v>
       </c>
       <c r="D10" s="0">
         <v>1.3913043478260869</v>
       </c>
       <c r="E10" s="0">
-        <v>0.13817214965820313</v>
+        <v>0.0030059814453125</v>
       </c>
       <c r="F10" s="0">
         <v>2.3913043478260869</v>
       </c>
       <c r="G10" s="0">
-        <v>0.1374969482421875</v>
+        <v>0.003131866455078125</v>
       </c>
       <c r="H10" s="0">
         <v>3.3913043478260869</v>
       </c>
       <c r="I10" s="0">
-        <v>0.13772964477539063</v>
+        <v>0.002925872802734375</v>
       </c>
       <c r="J10" s="0">
         <v>4.3913043478260869</v>
       </c>
       <c r="K10" s="0">
-        <v>0.13787841796875</v>
+        <v>0.002964019775390625</v>
       </c>
       <c r="L10" s="0">
         <v>5.3913043478260869</v>
       </c>
       <c r="M10" s="0">
-        <v>0.13890457153320313</v>
+        <v>0.00292205810546875</v>
       </c>
       <c r="N10" s="0">
         <v>6.3913043478260869</v>
       </c>
       <c r="O10" s="0">
-        <v>0.13501739501953125</v>
+        <v>0.002910614013671875</v>
       </c>
       <c r="P10" s="0">
         <v>7.3913043478260869</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.135498046875</v>
+        <v>0.00299072265625</v>
       </c>
       <c r="R10" s="0">
         <v>8.391304347826086</v>
       </c>
       <c r="S10" s="0">
-        <v>0.13372802734375</v>
+        <v>0.003002166748046875</v>
       </c>
       <c r="T10" s="0">
         <v>9.391304347826086</v>
       </c>
       <c r="U10" s="0">
-        <v>0.13426971435546875</v>
+        <v>0.002979278564453125</v>
       </c>
       <c r="V10" s="0">
         <v>10.391304347826086</v>
       </c>
       <c r="W10" s="0">
-        <v>0.139007568359375</v>
+        <v>0.00296783447265625</v>
       </c>
       <c r="X10" s="0">
         <v>11.391304347826086</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.13824844360351563</v>
+        <v>0.00319671630859375</v>
       </c>
       <c r="Z10" s="0">
         <v>12.391304347826086</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.13985824584960938</v>
+        <v>0.003208160400390625</v>
       </c>
       <c r="AB10" s="0">
         <v>13.391304347826086</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.138702392578125</v>
+        <v>0.00307464599609375</v>
       </c>
       <c r="AD10" s="0">
         <v>14.391304347826086</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.137847900390625</v>
+        <v>0.0029449462890625</v>
       </c>
       <c r="AF10" s="0">
         <v>15.391304347826086</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.14067459106445313</v>
+        <v>0.003139495849609375</v>
       </c>
       <c r="AH10" s="0">
         <v>16.391304347826086</v>
       </c>
       <c r="AI10" s="0">
-        <v>0.14039993286132813</v>
+        <v>0.003101348876953125</v>
       </c>
       <c r="AJ10" s="0">
         <v>17.391304347826086</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.14081573486328125</v>
+        <v>0.003101348876953125</v>
       </c>
       <c r="AL10" s="0">
         <v>18.391304347826086</v>
       </c>
       <c r="AM10" s="0">
-        <v>0.13947677612304688</v>
+        <v>0.00313568115234375</v>
       </c>
       <c r="AN10" s="0">
         <v>19.391304347826086</v>
       </c>
       <c r="AO10" s="0">
-        <v>0.13885116577148438</v>
+        <v>0.0029144287109375</v>
       </c>
       <c r="AP10" s="0">
         <v>20.391304347826086</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.13819503784179688</v>
+        <v>0.00302886962890625</v>
       </c>
       <c r="AR10" s="0">
         <v>21.391304347826086</v>
       </c>
       <c r="AS10" s="0">
-        <v>0.13826751708984375</v>
+        <v>0.003009796142578125</v>
       </c>
       <c r="AT10" s="0">
         <v>22.391304347826086</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.14134979248046875</v>
+        <v>0.00296783447265625</v>
       </c>
       <c r="AV10" s="0">
         <v>23.391304347826086</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.1390228271484375</v>
+        <v>0.003124237060546875</v>
       </c>
       <c r="AX10" s="0">
         <v>24.391304347826086</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.14062118530273438</v>
+        <v>0.002902984619140625</v>
       </c>
       <c r="AZ10" s="0">
         <v>25.391304347826086</v>
       </c>
       <c r="BA10" s="0">
-        <v>0.13996124267578125</v>
+        <v>0.0030670166015625</v>
       </c>
       <c r="BB10" s="0">
         <v>26.391304347826086</v>
       </c>
       <c r="BC10" s="0">
-        <v>0.13837051391601563</v>
+        <v>0.00312042236328125</v>
       </c>
       <c r="BD10" s="0">
         <v>27.391304347826086</v>
       </c>
       <c r="BE10" s="0">
-        <v>0.14091110229492188</v>
+        <v>0.00308990478515625</v>
       </c>
       <c r="BF10" s="0">
         <v>28.391304347826086</v>
       </c>
       <c r="BG10" s="0">
-        <v>0.140899658203125</v>
+        <v>0.00299072265625</v>
       </c>
       <c r="BH10" s="0">
         <v>29.391304347826086</v>
@@ -8125,181 +10825,181 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.14908218383789063</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="B11" s="0">
         <v>0.43478260869565216</v>
       </c>
       <c r="C11" s="0">
-        <v>0.14839935302734375</v>
+        <v>0.003948211669921875</v>
       </c>
       <c r="D11" s="0">
         <v>1.4347826086956521</v>
       </c>
       <c r="E11" s="0">
-        <v>0.14836502075195313</v>
+        <v>0.003719329833984375</v>
       </c>
       <c r="F11" s="0">
         <v>2.4347826086956523</v>
       </c>
       <c r="G11" s="0">
-        <v>0.14751434326171875</v>
+        <v>0.003681182861328125</v>
       </c>
       <c r="H11" s="0">
         <v>3.4347826086956523</v>
       </c>
       <c r="I11" s="0">
-        <v>0.14691162109375</v>
+        <v>0.0035858154296875</v>
       </c>
       <c r="J11" s="0">
         <v>4.4347826086956523</v>
       </c>
       <c r="K11" s="0">
-        <v>0.14841842651367188</v>
+        <v>0.0032501220703125</v>
       </c>
       <c r="L11" s="0">
         <v>5.4347826086956523</v>
       </c>
       <c r="M11" s="0">
-        <v>0.1446685791015625</v>
+        <v>0.003082275390625</v>
       </c>
       <c r="N11" s="0">
         <v>6.4347826086956523</v>
       </c>
       <c r="O11" s="0">
-        <v>0.1420440673828125</v>
+        <v>0.0030059814453125</v>
       </c>
       <c r="P11" s="0">
         <v>7.4347826086956523</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.1446075439453125</v>
+        <v>0.0030059814453125</v>
       </c>
       <c r="R11" s="0">
         <v>8.4347826086956523</v>
       </c>
       <c r="S11" s="0">
-        <v>0.14341354370117188</v>
+        <v>0.003108978271484375</v>
       </c>
       <c r="T11" s="0">
         <v>9.4347826086956523</v>
       </c>
       <c r="U11" s="0">
-        <v>0.1426849365234375</v>
+        <v>0.003276824951171875</v>
       </c>
       <c r="V11" s="0">
         <v>10.434782608695652</v>
       </c>
       <c r="W11" s="0">
-        <v>0.14625930786132813</v>
+        <v>0.003513336181640625</v>
       </c>
       <c r="X11" s="0">
         <v>11.434782608695652</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.14380645751953125</v>
+        <v>0.00356292724609375</v>
       </c>
       <c r="Z11" s="0">
         <v>12.434782608695652</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.14533233642578125</v>
+        <v>0.003742218017578125</v>
       </c>
       <c r="AB11" s="0">
         <v>13.434782608695652</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.14682388305664063</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="AD11" s="0">
         <v>14.434782608695652</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.1486663818359375</v>
+        <v>0.003711700439453125</v>
       </c>
       <c r="AF11" s="0">
         <v>15.434782608695652</v>
       </c>
       <c r="AG11" s="0">
-        <v>0.14625930786132813</v>
+        <v>0.0036468505859375</v>
       </c>
       <c r="AH11" s="0">
         <v>16.434782608695652</v>
       </c>
       <c r="AI11" s="0">
-        <v>0.14511489868164063</v>
+        <v>0.003734588623046875</v>
       </c>
       <c r="AJ11" s="0">
         <v>17.434782608695652</v>
       </c>
       <c r="AK11" s="0">
-        <v>0.14557266235351563</v>
+        <v>0.003688812255859375</v>
       </c>
       <c r="AL11" s="0">
         <v>18.434782608695652</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.14654159545898438</v>
+        <v>0.003635406494140625</v>
       </c>
       <c r="AN11" s="0">
         <v>19.434782608695652</v>
       </c>
       <c r="AO11" s="0">
-        <v>0.14880752563476563</v>
+        <v>0.003818511962890625</v>
       </c>
       <c r="AP11" s="0">
         <v>20.434782608695652</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.14863204956054688</v>
+        <v>0.003650665283203125</v>
       </c>
       <c r="AR11" s="0">
         <v>21.434782608695652</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.14690399169921875</v>
+        <v>0.003704071044921875</v>
       </c>
       <c r="AT11" s="0">
         <v>22.434782608695652</v>
       </c>
       <c r="AU11" s="0">
-        <v>0.14818191528320313</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="AV11" s="0">
         <v>23.434782608695652</v>
       </c>
       <c r="AW11" s="0">
-        <v>0.14725875854492188</v>
+        <v>0.00374603271484375</v>
       </c>
       <c r="AX11" s="0">
         <v>24.434782608695652</v>
       </c>
       <c r="AY11" s="0">
-        <v>0.14806365966796875</v>
+        <v>0.003635406494140625</v>
       </c>
       <c r="AZ11" s="0">
         <v>25.434782608695652</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.14663314819335938</v>
+        <v>0.00374603271484375</v>
       </c>
       <c r="BB11" s="0">
         <v>26.434782608695652</v>
       </c>
       <c r="BC11" s="0">
-        <v>0.14458847045898438</v>
+        <v>0.003673553466796875</v>
       </c>
       <c r="BD11" s="0">
         <v>27.434782608695652</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.14878463745117188</v>
+        <v>0.003749847412109375</v>
       </c>
       <c r="BF11" s="0">
         <v>28.434782608695652</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.147918701171875</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="BH11" s="0">
         <v>29.434782608695652</v>
@@ -8487,181 +11187,181 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1505279541015625</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="B12" s="0">
         <v>0.47826086956521741</v>
       </c>
       <c r="C12" s="0">
-        <v>0.15106201171875</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="D12" s="0">
         <v>1.4782608695652173</v>
       </c>
       <c r="E12" s="0">
-        <v>0.15079498291015625</v>
+        <v>0.00397491455078125</v>
       </c>
       <c r="F12" s="0">
         <v>2.4782608695652173</v>
       </c>
       <c r="G12" s="0">
-        <v>0.15035629272460938</v>
+        <v>0.003814697265625</v>
       </c>
       <c r="H12" s="0">
         <v>3.4782608695652173</v>
       </c>
       <c r="I12" s="0">
-        <v>0.1510162353515625</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="J12" s="0">
         <v>4.4782608695652177</v>
       </c>
       <c r="K12" s="0">
-        <v>0.14834213256835938</v>
+        <v>0.0039215087890625</v>
       </c>
       <c r="L12" s="0">
         <v>5.4782608695652177</v>
       </c>
       <c r="M12" s="0">
-        <v>0.14583206176757813</v>
+        <v>0.00347137451171875</v>
       </c>
       <c r="N12" s="0">
         <v>6.4782608695652177</v>
       </c>
       <c r="O12" s="0">
-        <v>0.14701080322265625</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="P12" s="0">
         <v>7.4782608695652177</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.14646530151367188</v>
+        <v>0.00351715087890625</v>
       </c>
       <c r="R12" s="0">
         <v>8.4782608695652169</v>
       </c>
       <c r="S12" s="0">
-        <v>0.1470184326171875</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="T12" s="0">
         <v>9.4782608695652169</v>
       </c>
       <c r="U12" s="0">
-        <v>0.1461334228515625</v>
+        <v>0.003665924072265625</v>
       </c>
       <c r="V12" s="0">
         <v>10.478260869565217</v>
       </c>
       <c r="W12" s="0">
-        <v>0.14691162109375</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="X12" s="0">
         <v>11.478260869565217</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.14760589599609375</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="Z12" s="0">
         <v>12.478260869565217</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.14972686767578125</v>
+        <v>0.00389862060546875</v>
       </c>
       <c r="AB12" s="0">
         <v>13.478260869565217</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.15030288696289063</v>
+        <v>0.00382232666015625</v>
       </c>
       <c r="AD12" s="0">
         <v>14.478260869565217</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.15128326416015625</v>
+        <v>0.003936767578125</v>
       </c>
       <c r="AF12" s="0">
         <v>15.478260869565217</v>
       </c>
       <c r="AG12" s="0">
-        <v>0.14984893798828125</v>
+        <v>0.003932952880859375</v>
       </c>
       <c r="AH12" s="0">
         <v>16.478260869565219</v>
       </c>
       <c r="AI12" s="0">
-        <v>0.148773193359375</v>
+        <v>0.00389862060546875</v>
       </c>
       <c r="AJ12" s="0">
         <v>17.478260869565219</v>
       </c>
       <c r="AK12" s="0">
-        <v>0.1492156982421875</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="AL12" s="0">
         <v>18.478260869565219</v>
       </c>
       <c r="AM12" s="0">
-        <v>0.14945220947265625</v>
+        <v>0.003978729248046875</v>
       </c>
       <c r="AN12" s="0">
         <v>19.478260869565219</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.14917373657226563</v>
+        <v>0.00392913818359375</v>
       </c>
       <c r="AP12" s="0">
         <v>20.478260869565219</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0.15156936645507813</v>
+        <v>0.004093170166015625</v>
       </c>
       <c r="AR12" s="0">
         <v>21.478260869565219</v>
       </c>
       <c r="AS12" s="0">
-        <v>0.1505584716796875</v>
+        <v>0.003871917724609375</v>
       </c>
       <c r="AT12" s="0">
         <v>22.478260869565219</v>
       </c>
       <c r="AU12" s="0">
-        <v>0.1506195068359375</v>
+        <v>0.003879547119140625</v>
       </c>
       <c r="AV12" s="0">
         <v>23.478260869565219</v>
       </c>
       <c r="AW12" s="0">
-        <v>0.15250015258789063</v>
+        <v>0.003856658935546875</v>
       </c>
       <c r="AX12" s="0">
         <v>24.478260869565219</v>
       </c>
       <c r="AY12" s="0">
-        <v>0.153411865234375</v>
+        <v>0.00386810302734375</v>
       </c>
       <c r="AZ12" s="0">
         <v>25.478260869565219</v>
       </c>
       <c r="BA12" s="0">
-        <v>0.1487884521484375</v>
+        <v>0.003902435302734375</v>
       </c>
       <c r="BB12" s="0">
         <v>26.478260869565219</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.15090179443359375</v>
+        <v>0.003932952880859375</v>
       </c>
       <c r="BD12" s="0">
         <v>27.478260869565219</v>
       </c>
       <c r="BE12" s="0">
-        <v>0.15178298950195313</v>
+        <v>0.00374603271484375</v>
       </c>
       <c r="BF12" s="0">
         <v>28.478260869565219</v>
       </c>
       <c r="BG12" s="0">
-        <v>0.14864349365234375</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="BH12" s="0">
         <v>29.478260869565219</v>
@@ -8849,181 +11549,181 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1573638916015625</v>
+        <v>0.004016876220703125</v>
       </c>
       <c r="B13" s="0">
         <v>0.52173913043478259</v>
       </c>
       <c r="C13" s="0">
-        <v>0.15429306030273438</v>
+        <v>0.0040283203125</v>
       </c>
       <c r="D13" s="0">
         <v>1.5217391304347827</v>
       </c>
       <c r="E13" s="0">
-        <v>0.15365219116210938</v>
+        <v>0.003963470458984375</v>
       </c>
       <c r="F13" s="0">
         <v>2.5217391304347827</v>
       </c>
       <c r="G13" s="0">
-        <v>0.15697479248046875</v>
+        <v>0.00402069091796875</v>
       </c>
       <c r="H13" s="0">
         <v>3.5217391304347827</v>
       </c>
       <c r="I13" s="0">
-        <v>0.15422439575195313</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="J13" s="0">
         <v>4.5217391304347823</v>
       </c>
       <c r="K13" s="0">
-        <v>0.149444580078125</v>
+        <v>0.0037689208984375</v>
       </c>
       <c r="L13" s="0">
         <v>5.5217391304347823</v>
       </c>
       <c r="M13" s="0">
-        <v>0.1518096923828125</v>
+        <v>0.003650665283203125</v>
       </c>
       <c r="N13" s="0">
         <v>6.5217391304347823</v>
       </c>
       <c r="O13" s="0">
-        <v>0.15079498291015625</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="P13" s="0">
         <v>7.5217391304347823</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.14737701416015625</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="R13" s="0">
         <v>8.5217391304347831</v>
       </c>
       <c r="S13" s="0">
-        <v>0.14896011352539063</v>
+        <v>0.00362396240234375</v>
       </c>
       <c r="T13" s="0">
         <v>9.5217391304347831</v>
       </c>
       <c r="U13" s="0">
-        <v>0.1500244140625</v>
+        <v>0.003650665283203125</v>
       </c>
       <c r="V13" s="0">
         <v>10.521739130434783</v>
       </c>
       <c r="W13" s="0">
-        <v>0.15177154541015625</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="X13" s="0">
         <v>11.521739130434783</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.15157318115234375</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="Z13" s="0">
         <v>12.521739130434783</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.15660476684570313</v>
+        <v>0.00397491455078125</v>
       </c>
       <c r="AB13" s="0">
         <v>13.521739130434783</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.15596389770507813</v>
+        <v>0.004001617431640625</v>
       </c>
       <c r="AD13" s="0">
         <v>14.521739130434783</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.1548919677734375</v>
+        <v>0.004001617431640625</v>
       </c>
       <c r="AF13" s="0">
         <v>15.521739130434783</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.15536880493164063</v>
+        <v>0.00384521484375</v>
       </c>
       <c r="AH13" s="0">
         <v>16.521739130434781</v>
       </c>
       <c r="AI13" s="0">
-        <v>0.15407943725585938</v>
+        <v>0.00399017333984375</v>
       </c>
       <c r="AJ13" s="0">
         <v>17.521739130434781</v>
       </c>
       <c r="AK13" s="0">
-        <v>0.15399169921875</v>
+        <v>0.003814697265625</v>
       </c>
       <c r="AL13" s="0">
         <v>18.521739130434781</v>
       </c>
       <c r="AM13" s="0">
-        <v>0.15618133544921875</v>
+        <v>0.00405120849609375</v>
       </c>
       <c r="AN13" s="0">
         <v>19.521739130434781</v>
       </c>
       <c r="AO13" s="0">
-        <v>0.15467071533203125</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="AP13" s="0">
         <v>20.521739130434781</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0.1537017822265625</v>
+        <v>0.003986358642578125</v>
       </c>
       <c r="AR13" s="0">
         <v>21.521739130434781</v>
       </c>
       <c r="AS13" s="0">
-        <v>0.15793609619140625</v>
+        <v>0.0040740966796875</v>
       </c>
       <c r="AT13" s="0">
         <v>22.521739130434781</v>
       </c>
       <c r="AU13" s="0">
-        <v>0.15533447265625</v>
+        <v>0.003810882568359375</v>
       </c>
       <c r="AV13" s="0">
         <v>23.521739130434781</v>
       </c>
       <c r="AW13" s="0">
-        <v>0.15827560424804688</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="AX13" s="0">
         <v>24.521739130434781</v>
       </c>
       <c r="AY13" s="0">
-        <v>0.15577316284179688</v>
+        <v>0.00394439697265625</v>
       </c>
       <c r="AZ13" s="0">
         <v>25.521739130434781</v>
       </c>
       <c r="BA13" s="0">
-        <v>0.15345382690429688</v>
+        <v>0.003833770751953125</v>
       </c>
       <c r="BB13" s="0">
         <v>26.521739130434781</v>
       </c>
       <c r="BC13" s="0">
-        <v>0.15549468994140625</v>
+        <v>0.00408172607421875</v>
       </c>
       <c r="BD13" s="0">
         <v>27.521739130434781</v>
       </c>
       <c r="BE13" s="0">
-        <v>0.15420150756835938</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="BF13" s="0">
         <v>28.521739130434781</v>
       </c>
       <c r="BG13" s="0">
-        <v>0.15340042114257813</v>
+        <v>0.004024505615234375</v>
       </c>
       <c r="BH13" s="0">
         <v>29.521739130434781</v>
@@ -9211,181 +11911,181 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1600341796875</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="B14" s="0">
         <v>0.56521739130434778</v>
       </c>
       <c r="C14" s="0">
-        <v>0.15721893310546875</v>
+        <v>0.003986358642578125</v>
       </c>
       <c r="D14" s="0">
         <v>1.5652173913043477</v>
       </c>
       <c r="E14" s="0">
-        <v>0.15547561645507813</v>
+        <v>0.003910064697265625</v>
       </c>
       <c r="F14" s="0">
         <v>2.5652173913043477</v>
       </c>
       <c r="G14" s="0">
-        <v>0.1558685302734375</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="H14" s="0">
         <v>3.5652173913043477</v>
       </c>
       <c r="I14" s="0">
-        <v>0.1558380126953125</v>
+        <v>0.003688812255859375</v>
       </c>
       <c r="J14" s="0">
         <v>4.5652173913043477</v>
       </c>
       <c r="K14" s="0">
-        <v>0.15425872802734375</v>
+        <v>0.003814697265625</v>
       </c>
       <c r="L14" s="0">
         <v>5.5652173913043477</v>
       </c>
       <c r="M14" s="0">
-        <v>0.15420150756835938</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="N14" s="0">
         <v>6.5652173913043477</v>
       </c>
       <c r="O14" s="0">
-        <v>0.15226364135742188</v>
+        <v>0.00360870361328125</v>
       </c>
       <c r="P14" s="0">
         <v>7.5652173913043477</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.147369384765625</v>
+        <v>0.003459930419921875</v>
       </c>
       <c r="R14" s="0">
         <v>8.5652173913043477</v>
       </c>
       <c r="S14" s="0">
-        <v>0.14825439453125</v>
+        <v>0.00351715087890625</v>
       </c>
       <c r="T14" s="0">
         <v>9.5652173913043477</v>
       </c>
       <c r="U14" s="0">
-        <v>0.150787353515625</v>
+        <v>0.00342559814453125</v>
       </c>
       <c r="V14" s="0">
         <v>10.565217391304348</v>
       </c>
       <c r="W14" s="0">
-        <v>0.15193557739257813</v>
+        <v>0.0035400390625</v>
       </c>
       <c r="X14" s="0">
         <v>11.565217391304348</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.15330123901367188</v>
+        <v>0.0035858154296875</v>
       </c>
       <c r="Z14" s="0">
         <v>12.565217391304348</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.15500640869140625</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="AB14" s="0">
         <v>13.565217391304348</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.15440750122070313</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="AD14" s="0">
         <v>14.565217391304348</v>
       </c>
       <c r="AE14" s="0">
-        <v>0.15402603149414063</v>
+        <v>0.003719329833984375</v>
       </c>
       <c r="AF14" s="0">
         <v>15.565217391304348</v>
       </c>
       <c r="AG14" s="0">
-        <v>0.15628814697265625</v>
+        <v>0.003726959228515625</v>
       </c>
       <c r="AH14" s="0">
         <v>16.565217391304348</v>
       </c>
       <c r="AI14" s="0">
-        <v>0.15547943115234375</v>
+        <v>0.003726959228515625</v>
       </c>
       <c r="AJ14" s="0">
         <v>17.565217391304348</v>
       </c>
       <c r="AK14" s="0">
-        <v>0.15613555908203125</v>
+        <v>0.0038909912109375</v>
       </c>
       <c r="AL14" s="0">
         <v>18.565217391304348</v>
       </c>
       <c r="AM14" s="0">
-        <v>0.15282058715820313</v>
+        <v>0.0039825439453125</v>
       </c>
       <c r="AN14" s="0">
         <v>19.565217391304348</v>
       </c>
       <c r="AO14" s="0">
-        <v>0.15389251708984375</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="AP14" s="0">
         <v>20.565217391304348</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0.15413284301757813</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="AR14" s="0">
         <v>21.565217391304348</v>
       </c>
       <c r="AS14" s="0">
-        <v>0.158111572265625</v>
+        <v>0.003841400146484375</v>
       </c>
       <c r="AT14" s="0">
         <v>22.565217391304348</v>
       </c>
       <c r="AU14" s="0">
-        <v>0.15736007690429688</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="AV14" s="0">
         <v>23.565217391304348</v>
       </c>
       <c r="AW14" s="0">
-        <v>0.15760040283203125</v>
+        <v>0.00386810302734375</v>
       </c>
       <c r="AX14" s="0">
         <v>24.565217391304348</v>
       </c>
       <c r="AY14" s="0">
-        <v>0.1558074951171875</v>
+        <v>0.003787994384765625</v>
       </c>
       <c r="AZ14" s="0">
         <v>25.565217391304348</v>
       </c>
       <c r="BA14" s="0">
-        <v>0.15499114990234375</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="BB14" s="0">
         <v>26.565217391304348</v>
       </c>
       <c r="BC14" s="0">
-        <v>0.15423583984375</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="BD14" s="0">
         <v>27.565217391304348</v>
       </c>
       <c r="BE14" s="0">
-        <v>0.15383529663085938</v>
+        <v>0.003871917724609375</v>
       </c>
       <c r="BF14" s="0">
         <v>28.565217391304348</v>
       </c>
       <c r="BG14" s="0">
-        <v>0.15764236450195313</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="BH14" s="0">
         <v>29.565217391304348</v>
@@ -9573,181 +12273,181 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.15926361083984375</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="B15" s="0">
         <v>0.60869565217391308</v>
       </c>
       <c r="C15" s="0">
-        <v>0.15700149536132813</v>
+        <v>0.003818511962890625</v>
       </c>
       <c r="D15" s="0">
         <v>1.6086956521739131</v>
       </c>
       <c r="E15" s="0">
-        <v>0.15526580810546875</v>
+        <v>0.003742218017578125</v>
       </c>
       <c r="F15" s="0">
         <v>2.6086956521739131</v>
       </c>
       <c r="G15" s="0">
-        <v>0.15355300903320313</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="H15" s="0">
         <v>3.6086956521739131</v>
       </c>
       <c r="I15" s="0">
-        <v>0.15289306640625</v>
+        <v>0.003635406494140625</v>
       </c>
       <c r="J15" s="0">
         <v>4.6086956521739131</v>
       </c>
       <c r="K15" s="0">
-        <v>0.15707778930664063</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="L15" s="0">
         <v>5.6086956521739131</v>
       </c>
       <c r="M15" s="0">
-        <v>0.15184402465820313</v>
+        <v>0.003787994384765625</v>
       </c>
       <c r="N15" s="0">
         <v>6.6086956521739131</v>
       </c>
       <c r="O15" s="0">
-        <v>0.1520538330078125</v>
+        <v>0.00351715087890625</v>
       </c>
       <c r="P15" s="0">
         <v>7.6086956521739131</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.14936447143554688</v>
+        <v>0.003543853759765625</v>
       </c>
       <c r="R15" s="0">
         <v>8.608695652173914</v>
       </c>
       <c r="S15" s="0">
-        <v>0.14953994750976563</v>
+        <v>0.0033721923828125</v>
       </c>
       <c r="T15" s="0">
         <v>9.608695652173914</v>
       </c>
       <c r="U15" s="0">
-        <v>0.15105056762695313</v>
+        <v>0.003299713134765625</v>
       </c>
       <c r="V15" s="0">
         <v>10.608695652173914</v>
       </c>
       <c r="W15" s="0">
-        <v>0.15277862548828125</v>
+        <v>0.003406524658203125</v>
       </c>
       <c r="X15" s="0">
         <v>11.608695652173914</v>
       </c>
       <c r="Y15" s="0">
-        <v>0.1521148681640625</v>
+        <v>0.003448486328125</v>
       </c>
       <c r="Z15" s="0">
         <v>12.608695652173914</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.15311431884765625</v>
+        <v>0.0034332275390625</v>
       </c>
       <c r="AB15" s="0">
         <v>13.608695652173914</v>
       </c>
       <c r="AC15" s="0">
-        <v>0.1550445556640625</v>
+        <v>0.0036468505859375</v>
       </c>
       <c r="AD15" s="0">
         <v>14.608695652173914</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.15623855590820313</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="AF15" s="0">
         <v>15.608695652173914</v>
       </c>
       <c r="AG15" s="0">
-        <v>0.15282058715820313</v>
+        <v>0.00354766845703125</v>
       </c>
       <c r="AH15" s="0">
         <v>16.608695652173914</v>
       </c>
       <c r="AI15" s="0">
-        <v>0.15892410278320313</v>
+        <v>0.0036773681640625</v>
       </c>
       <c r="AJ15" s="0">
         <v>17.608695652173914</v>
       </c>
       <c r="AK15" s="0">
-        <v>0.15709686279296875</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="AL15" s="0">
         <v>18.608695652173914</v>
       </c>
       <c r="AM15" s="0">
-        <v>0.15375137329101563</v>
+        <v>0.003704071044921875</v>
       </c>
       <c r="AN15" s="0">
         <v>19.608695652173914</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.1543731689453125</v>
+        <v>0.003551483154296875</v>
       </c>
       <c r="AP15" s="0">
         <v>20.608695652173914</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0.15478897094726563</v>
+        <v>0.003589630126953125</v>
       </c>
       <c r="AR15" s="0">
         <v>21.608695652173914</v>
       </c>
       <c r="AS15" s="0">
-        <v>0.15516281127929688</v>
+        <v>0.003650665283203125</v>
       </c>
       <c r="AT15" s="0">
         <v>22.608695652173914</v>
       </c>
       <c r="AU15" s="0">
-        <v>0.15555572509765625</v>
+        <v>0.003696441650390625</v>
       </c>
       <c r="AV15" s="0">
         <v>23.608695652173914</v>
       </c>
       <c r="AW15" s="0">
-        <v>0.15623092651367188</v>
+        <v>0.00380706787109375</v>
       </c>
       <c r="AX15" s="0">
         <v>24.608695652173914</v>
       </c>
       <c r="AY15" s="0">
-        <v>0.1560516357421875</v>
+        <v>0.0037841796875</v>
       </c>
       <c r="AZ15" s="0">
         <v>25.608695652173914</v>
       </c>
       <c r="BA15" s="0">
-        <v>0.15557479858398438</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="BB15" s="0">
         <v>26.608695652173914</v>
       </c>
       <c r="BC15" s="0">
-        <v>0.15497207641601563</v>
+        <v>0.00374603271484375</v>
       </c>
       <c r="BD15" s="0">
         <v>27.608695652173914</v>
       </c>
       <c r="BE15" s="0">
-        <v>0.15528488159179688</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="BF15" s="0">
         <v>28.608695652173914</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.1563873291015625</v>
+        <v>0.003787994384765625</v>
       </c>
       <c r="BH15" s="0">
         <v>29.608695652173914</v>
@@ -9935,181 +12635,181 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.15789413452148438</v>
+        <v>0.003662109375</v>
       </c>
       <c r="B16" s="0">
         <v>0.65217391304347827</v>
       </c>
       <c r="C16" s="0">
-        <v>0.15665054321289063</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="D16" s="0">
         <v>1.6521739130434783</v>
       </c>
       <c r="E16" s="0">
-        <v>0.15644073486328125</v>
+        <v>0.00380706787109375</v>
       </c>
       <c r="F16" s="0">
         <v>2.6521739130434785</v>
       </c>
       <c r="G16" s="0">
-        <v>0.15501022338867188</v>
+        <v>0.00359344482421875</v>
       </c>
       <c r="H16" s="0">
         <v>3.6521739130434785</v>
       </c>
       <c r="I16" s="0">
-        <v>0.15603256225585938</v>
+        <v>0.0037689208984375</v>
       </c>
       <c r="J16" s="0">
         <v>4.6521739130434785</v>
       </c>
       <c r="K16" s="0">
-        <v>0.15441513061523438</v>
+        <v>0.003726959228515625</v>
       </c>
       <c r="L16" s="0">
         <v>5.6521739130434785</v>
       </c>
       <c r="M16" s="0">
-        <v>0.1523284912109375</v>
+        <v>0.003658294677734375</v>
       </c>
       <c r="N16" s="0">
         <v>6.6521739130434785</v>
       </c>
       <c r="O16" s="0">
-        <v>0.1500244140625</v>
+        <v>0.0034637451171875</v>
       </c>
       <c r="P16" s="0">
         <v>7.6521739130434785</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.1505584716796875</v>
+        <v>0.003475189208984375</v>
       </c>
       <c r="R16" s="0">
         <v>8.6521739130434785</v>
       </c>
       <c r="S16" s="0">
-        <v>0.14910507202148438</v>
+        <v>0.00341033935546875</v>
       </c>
       <c r="T16" s="0">
         <v>9.6521739130434785</v>
       </c>
       <c r="U16" s="0">
-        <v>0.15106201171875</v>
+        <v>0.0034332275390625</v>
       </c>
       <c r="V16" s="0">
         <v>10.652173913043478</v>
       </c>
       <c r="W16" s="0">
-        <v>0.15108871459960938</v>
+        <v>0.003452301025390625</v>
       </c>
       <c r="X16" s="0">
         <v>11.652173913043478</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.154541015625</v>
+        <v>0.003459930419921875</v>
       </c>
       <c r="Z16" s="0">
         <v>12.652173913043478</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.153289794921875</v>
+        <v>0.00344085693359375</v>
       </c>
       <c r="AB16" s="0">
         <v>13.652173913043478</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.1563568115234375</v>
+        <v>0.00360107421875</v>
       </c>
       <c r="AD16" s="0">
         <v>14.652173913043478</v>
       </c>
       <c r="AE16" s="0">
-        <v>0.1527252197265625</v>
+        <v>0.0036773681640625</v>
       </c>
       <c r="AF16" s="0">
         <v>15.652173913043478</v>
       </c>
       <c r="AG16" s="0">
-        <v>0.15457916259765625</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="AH16" s="0">
         <v>16.652173913043477</v>
       </c>
       <c r="AI16" s="0">
-        <v>0.15385055541992188</v>
+        <v>0.003658294677734375</v>
       </c>
       <c r="AJ16" s="0">
         <v>17.652173913043477</v>
       </c>
       <c r="AK16" s="0">
-        <v>0.1564788818359375</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="AL16" s="0">
         <v>18.652173913043477</v>
       </c>
       <c r="AM16" s="0">
-        <v>0.1523590087890625</v>
+        <v>0.003627777099609375</v>
       </c>
       <c r="AN16" s="0">
         <v>19.652173913043477</v>
       </c>
       <c r="AO16" s="0">
-        <v>0.15366363525390625</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="AP16" s="0">
         <v>20.652173913043477</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0.15421676635742188</v>
+        <v>0.0036468505859375</v>
       </c>
       <c r="AR16" s="0">
         <v>21.652173913043477</v>
       </c>
       <c r="AS16" s="0">
-        <v>0.15247344970703125</v>
+        <v>0.0036163330078125</v>
       </c>
       <c r="AT16" s="0">
         <v>22.652173913043477</v>
       </c>
       <c r="AU16" s="0">
-        <v>0.15539932250976563</v>
+        <v>0.00388336181640625</v>
       </c>
       <c r="AV16" s="0">
         <v>23.652173913043477</v>
       </c>
       <c r="AW16" s="0">
-        <v>0.15730667114257813</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="AX16" s="0">
         <v>24.652173913043477</v>
       </c>
       <c r="AY16" s="0">
-        <v>0.15531158447265625</v>
+        <v>0.003963470458984375</v>
       </c>
       <c r="AZ16" s="0">
         <v>25.652173913043477</v>
       </c>
       <c r="BA16" s="0">
-        <v>0.156219482421875</v>
+        <v>0.003772735595703125</v>
       </c>
       <c r="BB16" s="0">
         <v>26.652173913043477</v>
       </c>
       <c r="BC16" s="0">
-        <v>0.15365219116210938</v>
+        <v>0.00372314453125</v>
       </c>
       <c r="BD16" s="0">
         <v>27.652173913043477</v>
       </c>
       <c r="BE16" s="0">
-        <v>0.1561126708984375</v>
+        <v>0.00377655029296875</v>
       </c>
       <c r="BF16" s="0">
         <v>28.652173913043477</v>
       </c>
       <c r="BG16" s="0">
-        <v>0.15435791015625</v>
+        <v>0.00359344482421875</v>
       </c>
       <c r="BH16" s="0">
         <v>29.652173913043477</v>
@@ -10297,181 +12997,181 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.15765380859375</v>
+        <v>0.0038909912109375</v>
       </c>
       <c r="B17" s="0">
         <v>0.69565217391304346</v>
       </c>
       <c r="C17" s="0">
-        <v>0.15496826171875</v>
+        <v>0.0037994384765625</v>
       </c>
       <c r="D17" s="0">
         <v>1.6956521739130435</v>
       </c>
       <c r="E17" s="0">
-        <v>0.15559005737304688</v>
+        <v>0.003772735595703125</v>
       </c>
       <c r="F17" s="0">
         <v>2.6956521739130435</v>
       </c>
       <c r="G17" s="0">
-        <v>0.15555572509765625</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="H17" s="0">
         <v>3.6956521739130435</v>
       </c>
       <c r="I17" s="0">
-        <v>0.15709686279296875</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="J17" s="0">
         <v>4.695652173913043</v>
       </c>
       <c r="K17" s="0">
-        <v>0.15367889404296875</v>
+        <v>0.0035552978515625</v>
       </c>
       <c r="L17" s="0">
         <v>5.695652173913043</v>
       </c>
       <c r="M17" s="0">
-        <v>0.15102767944335938</v>
+        <v>0.003597259521484375</v>
       </c>
       <c r="N17" s="0">
         <v>6.695652173913043</v>
       </c>
       <c r="O17" s="0">
-        <v>0.15188217163085938</v>
+        <v>0.00365447998046875</v>
       </c>
       <c r="P17" s="0">
         <v>7.695652173913043</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.14954376220703125</v>
+        <v>0.003650665283203125</v>
       </c>
       <c r="R17" s="0">
         <v>8.695652173913043</v>
       </c>
       <c r="S17" s="0">
-        <v>0.1497955322265625</v>
+        <v>0.003448486328125</v>
       </c>
       <c r="T17" s="0">
         <v>9.695652173913043</v>
       </c>
       <c r="U17" s="0">
-        <v>0.15139007568359375</v>
+        <v>0.003360748291015625</v>
       </c>
       <c r="V17" s="0">
         <v>10.695652173913043</v>
       </c>
       <c r="W17" s="0">
-        <v>0.15196990966796875</v>
+        <v>0.003330230712890625</v>
       </c>
       <c r="X17" s="0">
         <v>11.695652173913043</v>
       </c>
       <c r="Y17" s="0">
-        <v>0.15209197998046875</v>
+        <v>0.003490447998046875</v>
       </c>
       <c r="Z17" s="0">
         <v>12.695652173913043</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.15294265747070313</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="AB17" s="0">
         <v>13.695652173913043</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.15538406372070313</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="AD17" s="0">
         <v>14.695652173913043</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.15459060668945313</v>
+        <v>0.003841400146484375</v>
       </c>
       <c r="AF17" s="0">
         <v>15.695652173913043</v>
       </c>
       <c r="AG17" s="0">
-        <v>0.15470123291015625</v>
+        <v>0.0037689208984375</v>
       </c>
       <c r="AH17" s="0">
         <v>16.695652173913043</v>
       </c>
       <c r="AI17" s="0">
-        <v>0.15453720092773438</v>
+        <v>0.0035552978515625</v>
       </c>
       <c r="AJ17" s="0">
         <v>17.695652173913043</v>
       </c>
       <c r="AK17" s="0">
-        <v>0.15514755249023438</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="AL17" s="0">
         <v>18.695652173913043</v>
       </c>
       <c r="AM17" s="0">
-        <v>0.15538787841796875</v>
+        <v>0.0037841796875</v>
       </c>
       <c r="AN17" s="0">
         <v>19.695652173913043</v>
       </c>
       <c r="AO17" s="0">
-        <v>0.15462875366210938</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="AP17" s="0">
         <v>20.695652173913043</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.15469741821289063</v>
+        <v>0.0037994384765625</v>
       </c>
       <c r="AR17" s="0">
         <v>21.695652173913043</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.15273666381835938</v>
+        <v>0.0037384033203125</v>
       </c>
       <c r="AT17" s="0">
         <v>22.695652173913043</v>
       </c>
       <c r="AU17" s="0">
-        <v>0.15348052978515625</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="AV17" s="0">
         <v>23.695652173913043</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.15732955932617188</v>
+        <v>0.0037841796875</v>
       </c>
       <c r="AX17" s="0">
         <v>24.695652173913043</v>
       </c>
       <c r="AY17" s="0">
-        <v>0.15543365478515625</v>
+        <v>0.0037841796875</v>
       </c>
       <c r="AZ17" s="0">
         <v>25.695652173913043</v>
       </c>
       <c r="BA17" s="0">
-        <v>0.157012939453125</v>
+        <v>0.00379180908203125</v>
       </c>
       <c r="BB17" s="0">
         <v>26.695652173913043</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.15748977661132813</v>
+        <v>0.00383758544921875</v>
       </c>
       <c r="BD17" s="0">
         <v>27.695652173913043</v>
       </c>
       <c r="BE17" s="0">
-        <v>0.158782958984375</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="BF17" s="0">
         <v>28.695652173913043</v>
       </c>
       <c r="BG17" s="0">
-        <v>0.15571212768554688</v>
+        <v>0.003749847412109375</v>
       </c>
       <c r="BH17" s="0">
         <v>29.695652173913043</v>
@@ -10659,181 +13359,181 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1533355712890625</v>
+        <v>0.00399017333984375</v>
       </c>
       <c r="B18" s="0">
         <v>0.73913043478260865</v>
       </c>
       <c r="C18" s="0">
-        <v>0.15165328979492188</v>
+        <v>0.003833770751953125</v>
       </c>
       <c r="D18" s="0">
         <v>1.7391304347826086</v>
       </c>
       <c r="E18" s="0">
-        <v>0.15005111694335938</v>
+        <v>0.00377655029296875</v>
       </c>
       <c r="F18" s="0">
         <v>2.7391304347826084</v>
       </c>
       <c r="G18" s="0">
-        <v>0.15225601196289063</v>
+        <v>0.0037994384765625</v>
       </c>
       <c r="H18" s="0">
         <v>3.7391304347826084</v>
       </c>
       <c r="I18" s="0">
-        <v>0.15444183349609375</v>
+        <v>0.003871917724609375</v>
       </c>
       <c r="J18" s="0">
         <v>4.7391304347826084</v>
       </c>
       <c r="K18" s="0">
-        <v>0.15121078491210938</v>
+        <v>0.003742218017578125</v>
       </c>
       <c r="L18" s="0">
         <v>5.7391304347826084</v>
       </c>
       <c r="M18" s="0">
-        <v>0.14966964721679688</v>
+        <v>0.003711700439453125</v>
       </c>
       <c r="N18" s="0">
         <v>6.7391304347826084</v>
       </c>
       <c r="O18" s="0">
-        <v>0.14716339111328125</v>
+        <v>0.003597259521484375</v>
       </c>
       <c r="P18" s="0">
         <v>7.7391304347826084</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.14662933349609375</v>
+        <v>0.00334930419921875</v>
       </c>
       <c r="R18" s="0">
         <v>8.7391304347826093</v>
       </c>
       <c r="S18" s="0">
-        <v>0.14692306518554688</v>
+        <v>0.003582000732421875</v>
       </c>
       <c r="T18" s="0">
         <v>9.7391304347826093</v>
       </c>
       <c r="U18" s="0">
-        <v>0.14899063110351563</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="V18" s="0">
         <v>10.739130434782609</v>
       </c>
       <c r="W18" s="0">
-        <v>0.14699172973632813</v>
+        <v>0.003543853759765625</v>
       </c>
       <c r="X18" s="0">
         <v>11.739130434782609</v>
       </c>
       <c r="Y18" s="0">
-        <v>0.14848709106445313</v>
+        <v>0.003570556640625</v>
       </c>
       <c r="Z18" s="0">
         <v>12.739130434782609</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.15287399291992188</v>
+        <v>0.0037078857421875</v>
       </c>
       <c r="AB18" s="0">
         <v>13.739130434782609</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.15211868286132813</v>
+        <v>0.00392913818359375</v>
       </c>
       <c r="AD18" s="0">
         <v>14.739130434782609</v>
       </c>
       <c r="AE18" s="0">
-        <v>0.15188217163085938</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="AF18" s="0">
         <v>15.739130434782609</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.15122604370117188</v>
+        <v>0.003871917724609375</v>
       </c>
       <c r="AH18" s="0">
         <v>16.739130434782609</v>
       </c>
       <c r="AI18" s="0">
-        <v>0.15253067016601563</v>
+        <v>0.00376129150390625</v>
       </c>
       <c r="AJ18" s="0">
         <v>17.739130434782609</v>
       </c>
       <c r="AK18" s="0">
-        <v>0.15218734741210938</v>
+        <v>0.003787994384765625</v>
       </c>
       <c r="AL18" s="0">
         <v>18.739130434782609</v>
       </c>
       <c r="AM18" s="0">
-        <v>0.15398788452148438</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="AN18" s="0">
         <v>19.739130434782609</v>
       </c>
       <c r="AO18" s="0">
-        <v>0.15141677856445313</v>
+        <v>0.00376129150390625</v>
       </c>
       <c r="AP18" s="0">
         <v>20.739130434782609</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0.15248489379882813</v>
+        <v>0.003879547119140625</v>
       </c>
       <c r="AR18" s="0">
         <v>21.739130434782609</v>
       </c>
       <c r="AS18" s="0">
-        <v>0.15203475952148438</v>
+        <v>0.003658294677734375</v>
       </c>
       <c r="AT18" s="0">
         <v>22.739130434782609</v>
       </c>
       <c r="AU18" s="0">
-        <v>0.15338516235351563</v>
+        <v>0.003833770751953125</v>
       </c>
       <c r="AV18" s="0">
         <v>23.739130434782609</v>
       </c>
       <c r="AW18" s="0">
-        <v>0.1577606201171875</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="AX18" s="0">
         <v>24.739130434782609</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.15612030029296875</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="AZ18" s="0">
         <v>25.739130434782609</v>
       </c>
       <c r="BA18" s="0">
-        <v>0.15534591674804688</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="BB18" s="0">
         <v>26.739130434782609</v>
       </c>
       <c r="BC18" s="0">
-        <v>0.15890121459960938</v>
+        <v>0.00406646728515625</v>
       </c>
       <c r="BD18" s="0">
         <v>27.739130434782609</v>
       </c>
       <c r="BE18" s="0">
-        <v>0.15676498413085938</v>
+        <v>0.00380706787109375</v>
       </c>
       <c r="BF18" s="0">
         <v>28.739130434782609</v>
       </c>
       <c r="BG18" s="0">
-        <v>0.15538406372070313</v>
+        <v>0.00376129150390625</v>
       </c>
       <c r="BH18" s="0">
         <v>29.739130434782609</v>
@@ -11021,181 +13721,181 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.14861679077148438</v>
+        <v>0.003986358642578125</v>
       </c>
       <c r="B19" s="0">
         <v>0.78260869565217384</v>
       </c>
       <c r="C19" s="0">
-        <v>0.14551544189453125</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="D19" s="0">
         <v>1.7826086956521738</v>
       </c>
       <c r="E19" s="0">
-        <v>0.14558029174804688</v>
+        <v>0.00382232666015625</v>
       </c>
       <c r="F19" s="0">
         <v>2.7826086956521738</v>
       </c>
       <c r="G19" s="0">
-        <v>0.146942138671875</v>
+        <v>0.004016876220703125</v>
       </c>
       <c r="H19" s="0">
         <v>3.7826086956521738</v>
       </c>
       <c r="I19" s="0">
-        <v>0.14730072021484375</v>
+        <v>0.003841400146484375</v>
       </c>
       <c r="J19" s="0">
         <v>4.7826086956521738</v>
       </c>
       <c r="K19" s="0">
-        <v>0.14608383178710938</v>
+        <v>0.00360107421875</v>
       </c>
       <c r="L19" s="0">
         <v>5.7826086956521738</v>
       </c>
       <c r="M19" s="0">
-        <v>0.14527130126953125</v>
+        <v>0.00380706787109375</v>
       </c>
       <c r="N19" s="0">
         <v>6.7826086956521738</v>
       </c>
       <c r="O19" s="0">
-        <v>0.1444854736328125</v>
+        <v>0.0037689208984375</v>
       </c>
       <c r="P19" s="0">
         <v>7.7826086956521738</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.1398468017578125</v>
+        <v>0.003528594970703125</v>
       </c>
       <c r="R19" s="0">
         <v>8.7826086956521738</v>
       </c>
       <c r="S19" s="0">
-        <v>0.14202499389648438</v>
+        <v>0.00347137451171875</v>
       </c>
       <c r="T19" s="0">
         <v>9.7826086956521738</v>
       </c>
       <c r="U19" s="0">
-        <v>0.14449310302734375</v>
+        <v>0.00360870361328125</v>
       </c>
       <c r="V19" s="0">
         <v>10.782608695652174</v>
       </c>
       <c r="W19" s="0">
-        <v>0.142913818359375</v>
+        <v>0.00359344482421875</v>
       </c>
       <c r="X19" s="0">
         <v>11.782608695652174</v>
       </c>
       <c r="Y19" s="0">
-        <v>0.1460723876953125</v>
+        <v>0.003662109375</v>
       </c>
       <c r="Z19" s="0">
         <v>12.782608695652174</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.14655685424804688</v>
+        <v>0.003749847412109375</v>
       </c>
       <c r="AB19" s="0">
         <v>13.782608695652174</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.1452178955078125</v>
+        <v>0.003875732421875</v>
       </c>
       <c r="AD19" s="0">
         <v>14.782608695652174</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.14456558227539063</v>
+        <v>0.00394439697265625</v>
       </c>
       <c r="AF19" s="0">
         <v>15.782608695652174</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.1454315185546875</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="AH19" s="0">
         <v>16.782608695652172</v>
       </c>
       <c r="AI19" s="0">
-        <v>0.14677810668945313</v>
+        <v>0.003963470458984375</v>
       </c>
       <c r="AJ19" s="0">
         <v>17.782608695652172</v>
       </c>
       <c r="AK19" s="0">
-        <v>0.14673995971679688</v>
+        <v>0.003696441650390625</v>
       </c>
       <c r="AL19" s="0">
         <v>18.782608695652172</v>
       </c>
       <c r="AM19" s="0">
-        <v>0.144561767578125</v>
+        <v>0.003833770751953125</v>
       </c>
       <c r="AN19" s="0">
         <v>19.782608695652172</v>
       </c>
       <c r="AO19" s="0">
-        <v>0.14695358276367188</v>
+        <v>0.003879547119140625</v>
       </c>
       <c r="AP19" s="0">
         <v>20.782608695652172</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0.146026611328125</v>
+        <v>0.003932952880859375</v>
       </c>
       <c r="AR19" s="0">
         <v>21.782608695652172</v>
       </c>
       <c r="AS19" s="0">
-        <v>0.14548110961914063</v>
+        <v>0.0036468505859375</v>
       </c>
       <c r="AT19" s="0">
         <v>22.782608695652172</v>
       </c>
       <c r="AU19" s="0">
-        <v>0.14886474609375</v>
+        <v>0.0038604736328125</v>
       </c>
       <c r="AV19" s="0">
         <v>23.782608695652172</v>
       </c>
       <c r="AW19" s="0">
-        <v>0.150238037109375</v>
+        <v>0.004077911376953125</v>
       </c>
       <c r="AX19" s="0">
         <v>24.782608695652172</v>
       </c>
       <c r="AY19" s="0">
-        <v>0.152984619140625</v>
+        <v>0.00396728515625</v>
       </c>
       <c r="AZ19" s="0">
         <v>25.782608695652172</v>
       </c>
       <c r="BA19" s="0">
-        <v>0.15116500854492188</v>
+        <v>0.004032135009765625</v>
       </c>
       <c r="BB19" s="0">
         <v>26.782608695652172</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.15131759643554688</v>
+        <v>0.0039520263671875</v>
       </c>
       <c r="BD19" s="0">
         <v>27.782608695652172</v>
       </c>
       <c r="BE19" s="0">
-        <v>0.15225982666015625</v>
+        <v>0.00392913818359375</v>
       </c>
       <c r="BF19" s="0">
         <v>28.782608695652172</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.15329742431640625</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="BH19" s="0">
         <v>29.782608695652172</v>
@@ -11383,181 +14083,181 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.14572906494140625</v>
+        <v>0.004116058349609375</v>
       </c>
       <c r="B20" s="0">
         <v>0.82608695652173914</v>
       </c>
       <c r="C20" s="0">
-        <v>0.14471435546875</v>
+        <v>0.00409698486328125</v>
       </c>
       <c r="D20" s="0">
         <v>1.8260869565217392</v>
       </c>
       <c r="E20" s="0">
-        <v>0.14473724365234375</v>
+        <v>0.00390625</v>
       </c>
       <c r="F20" s="0">
         <v>2.8260869565217392</v>
       </c>
       <c r="G20" s="0">
-        <v>0.14543914794921875</v>
+        <v>0.003803253173828125</v>
       </c>
       <c r="H20" s="0">
         <v>3.8260869565217392</v>
       </c>
       <c r="I20" s="0">
-        <v>0.14421844482421875</v>
+        <v>0.003787994384765625</v>
       </c>
       <c r="J20" s="0">
         <v>4.8260869565217392</v>
       </c>
       <c r="K20" s="0">
-        <v>0.14416122436523438</v>
+        <v>0.003803253173828125</v>
       </c>
       <c r="L20" s="0">
         <v>5.8260869565217392</v>
       </c>
       <c r="M20" s="0">
-        <v>0.14337921142578125</v>
+        <v>0.003612518310546875</v>
       </c>
       <c r="N20" s="0">
         <v>6.8260869565217392</v>
       </c>
       <c r="O20" s="0">
-        <v>0.14353561401367188</v>
+        <v>0.00354766845703125</v>
       </c>
       <c r="P20" s="0">
         <v>7.8260869565217392</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.14063262939453125</v>
+        <v>0.003429412841796875</v>
       </c>
       <c r="R20" s="0">
         <v>8.8260869565217384</v>
       </c>
       <c r="S20" s="0">
-        <v>0.1404876708984375</v>
+        <v>0.003383636474609375</v>
       </c>
       <c r="T20" s="0">
         <v>9.8260869565217384</v>
       </c>
       <c r="U20" s="0">
-        <v>0.14180374145507813</v>
+        <v>0.003574371337890625</v>
       </c>
       <c r="V20" s="0">
         <v>10.826086956521738</v>
       </c>
       <c r="W20" s="0">
-        <v>0.14250946044921875</v>
+        <v>0.003574371337890625</v>
       </c>
       <c r="X20" s="0">
         <v>11.826086956521738</v>
       </c>
       <c r="Y20" s="0">
-        <v>0.1474456787109375</v>
+        <v>0.00388336181640625</v>
       </c>
       <c r="Z20" s="0">
         <v>12.826086956521738</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.14475250244140625</v>
+        <v>0.0038909912109375</v>
       </c>
       <c r="AB20" s="0">
         <v>13.826086956521738</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.14537429809570313</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="AD20" s="0">
         <v>14.826086956521738</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.14684295654296875</v>
+        <v>0.003856658935546875</v>
       </c>
       <c r="AF20" s="0">
         <v>15.826086956521738</v>
       </c>
       <c r="AG20" s="0">
-        <v>0.14336395263671875</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="AH20" s="0">
         <v>16.826086956521738</v>
       </c>
       <c r="AI20" s="0">
-        <v>0.14457321166992188</v>
+        <v>0.0038299560546875</v>
       </c>
       <c r="AJ20" s="0">
         <v>17.826086956521738</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.14821243286132813</v>
+        <v>0.003875732421875</v>
       </c>
       <c r="AL20" s="0">
         <v>18.826086956521738</v>
       </c>
       <c r="AM20" s="0">
-        <v>0.14416122436523438</v>
+        <v>0.003570556640625</v>
       </c>
       <c r="AN20" s="0">
         <v>19.826086956521738</v>
       </c>
       <c r="AO20" s="0">
-        <v>0.14772415161132813</v>
+        <v>0.003704071044921875</v>
       </c>
       <c r="AP20" s="0">
         <v>20.826086956521738</v>
       </c>
       <c r="AQ20" s="0">
-        <v>0.14627456665039063</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="AR20" s="0">
         <v>21.826086956521738</v>
       </c>
       <c r="AS20" s="0">
-        <v>0.14307785034179688</v>
+        <v>0.003875732421875</v>
       </c>
       <c r="AT20" s="0">
         <v>22.826086956521738</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.14761734008789063</v>
+        <v>0.003936767578125</v>
       </c>
       <c r="AV20" s="0">
         <v>23.826086956521738</v>
       </c>
       <c r="AW20" s="0">
-        <v>0.15116500854492188</v>
+        <v>0.00397491455078125</v>
       </c>
       <c r="AX20" s="0">
         <v>24.826086956521738</v>
       </c>
       <c r="AY20" s="0">
-        <v>0.15148544311523438</v>
+        <v>0.003814697265625</v>
       </c>
       <c r="AZ20" s="0">
         <v>25.826086956521738</v>
       </c>
       <c r="BA20" s="0">
-        <v>0.15121078491210938</v>
+        <v>0.004161834716796875</v>
       </c>
       <c r="BB20" s="0">
         <v>26.826086956521738</v>
       </c>
       <c r="BC20" s="0">
-        <v>0.15093612670898438</v>
+        <v>0.00383758544921875</v>
       </c>
       <c r="BD20" s="0">
         <v>27.826086956521738</v>
       </c>
       <c r="BE20" s="0">
-        <v>0.15219497680664063</v>
+        <v>0.003986358642578125</v>
       </c>
       <c r="BF20" s="0">
         <v>28.826086956521738</v>
       </c>
       <c r="BG20" s="0">
-        <v>0.153778076171875</v>
+        <v>0.00400543212890625</v>
       </c>
       <c r="BH20" s="0">
         <v>29.826086956521738</v>
@@ -11745,181 +14445,181 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.14113998413085938</v>
+        <v>0.0037689208984375</v>
       </c>
       <c r="B21" s="0">
         <v>0.86956521739130432</v>
       </c>
       <c r="C21" s="0">
-        <v>0.14079666137695313</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="D21" s="0">
         <v>1.8695652173913042</v>
       </c>
       <c r="E21" s="0">
-        <v>0.141357421875</v>
+        <v>0.0038299560546875</v>
       </c>
       <c r="F21" s="0">
         <v>2.8695652173913042</v>
       </c>
       <c r="G21" s="0">
-        <v>0.1430206298828125</v>
+        <v>0.0037994384765625</v>
       </c>
       <c r="H21" s="0">
         <v>3.8695652173913042</v>
       </c>
       <c r="I21" s="0">
-        <v>0.14072418212890625</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="J21" s="0">
         <v>4.8695652173913047</v>
       </c>
       <c r="K21" s="0">
-        <v>0.1404266357421875</v>
+        <v>0.003665924072265625</v>
       </c>
       <c r="L21" s="0">
         <v>5.8695652173913047</v>
       </c>
       <c r="M21" s="0">
-        <v>0.13892745971679688</v>
+        <v>0.00360107421875</v>
       </c>
       <c r="N21" s="0">
         <v>6.8695652173913047</v>
       </c>
       <c r="O21" s="0">
-        <v>0.13875579833984375</v>
+        <v>0.003566741943359375</v>
       </c>
       <c r="P21" s="0">
         <v>7.8695652173913047</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.13605880737304688</v>
+        <v>0.003604888916015625</v>
       </c>
       <c r="R21" s="0">
         <v>8.8695652173913047</v>
       </c>
       <c r="S21" s="0">
-        <v>0.13626861572265625</v>
+        <v>0.0034332275390625</v>
       </c>
       <c r="T21" s="0">
         <v>9.8695652173913047</v>
       </c>
       <c r="U21" s="0">
-        <v>0.13834381103515625</v>
+        <v>0.003704071044921875</v>
       </c>
       <c r="V21" s="0">
         <v>10.869565217391305</v>
       </c>
       <c r="W21" s="0">
-        <v>0.13824462890625</v>
+        <v>0.003635406494140625</v>
       </c>
       <c r="X21" s="0">
         <v>11.869565217391305</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.14234161376953125</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="Z21" s="0">
         <v>12.869565217391305</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.14191055297851563</v>
+        <v>0.0038299560546875</v>
       </c>
       <c r="AB21" s="0">
         <v>13.869565217391305</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.1414031982421875</v>
+        <v>0.003803253173828125</v>
       </c>
       <c r="AD21" s="0">
         <v>14.869565217391305</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.14250564575195313</v>
+        <v>0.003936767578125</v>
       </c>
       <c r="AF21" s="0">
         <v>15.869565217391305</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.14098358154296875</v>
+        <v>0.00383758544921875</v>
       </c>
       <c r="AH21" s="0">
         <v>16.869565217391305</v>
       </c>
       <c r="AI21" s="0">
-        <v>0.1433258056640625</v>
+        <v>0.003894805908203125</v>
       </c>
       <c r="AJ21" s="0">
         <v>17.869565217391305</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.14142990112304688</v>
+        <v>0.003875732421875</v>
       </c>
       <c r="AL21" s="0">
         <v>18.869565217391305</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.13973236083984375</v>
+        <v>0.00372314453125</v>
       </c>
       <c r="AN21" s="0">
         <v>19.869565217391305</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.14432525634765625</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="AP21" s="0">
         <v>20.869565217391305</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0.14260101318359375</v>
+        <v>0.003948211669921875</v>
       </c>
       <c r="AR21" s="0">
         <v>21.869565217391305</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.14141464233398438</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="AT21" s="0">
         <v>22.869565217391305</v>
       </c>
       <c r="AU21" s="0">
-        <v>0.1422119140625</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="AV21" s="0">
         <v>23.869565217391305</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.1512298583984375</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="AX21" s="0">
         <v>24.869565217391305</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.15047836303710938</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="AZ21" s="0">
         <v>25.869565217391305</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.15134048461914063</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="BB21" s="0">
         <v>26.869565217391305</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.15228652954101563</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="BD21" s="0">
         <v>27.869565217391305</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.14975357055664063</v>
+        <v>0.00383758544921875</v>
       </c>
       <c r="BF21" s="0">
         <v>28.869565217391305</v>
       </c>
       <c r="BG21" s="0">
-        <v>0.15153884887695313</v>
+        <v>0.00391387939453125</v>
       </c>
       <c r="BH21" s="0">
         <v>29.869565217391305</v>
@@ -12107,181 +14807,181 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.14632797241210938</v>
+        <v>0.003772735595703125</v>
       </c>
       <c r="B22" s="0">
         <v>0.91304347826086951</v>
       </c>
       <c r="C22" s="0">
-        <v>0.1473236083984375</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="D22" s="0">
         <v>1.9130434782608696</v>
       </c>
       <c r="E22" s="0">
-        <v>0.14749908447265625</v>
+        <v>0.00389862060546875</v>
       </c>
       <c r="F22" s="0">
         <v>2.9130434782608696</v>
       </c>
       <c r="G22" s="0">
-        <v>0.1461334228515625</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="H22" s="0">
         <v>3.9130434782608696</v>
       </c>
       <c r="I22" s="0">
-        <v>0.14561080932617188</v>
+        <v>0.003814697265625</v>
       </c>
       <c r="J22" s="0">
         <v>4.9130434782608692</v>
       </c>
       <c r="K22" s="0">
-        <v>0.1452789306640625</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="L22" s="0">
         <v>5.9130434782608692</v>
       </c>
       <c r="M22" s="0">
-        <v>0.14234161376953125</v>
+        <v>0.0035858154296875</v>
       </c>
       <c r="N22" s="0">
         <v>6.9130434782608692</v>
       </c>
       <c r="O22" s="0">
-        <v>0.14196395874023438</v>
+        <v>0.00342559814453125</v>
       </c>
       <c r="P22" s="0">
         <v>7.9130434782608692</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.14186859130859375</v>
+        <v>0.003387451171875</v>
       </c>
       <c r="R22" s="0">
         <v>8.9130434782608692</v>
       </c>
       <c r="S22" s="0">
-        <v>0.14151382446289063</v>
+        <v>0.0035247802734375</v>
       </c>
       <c r="T22" s="0">
         <v>9.9130434782608692</v>
       </c>
       <c r="U22" s="0">
-        <v>0.14244461059570313</v>
+        <v>0.00362396240234375</v>
       </c>
       <c r="V22" s="0">
         <v>10.913043478260869</v>
       </c>
       <c r="W22" s="0">
-        <v>0.14102935791015625</v>
+        <v>0.00356292724609375</v>
       </c>
       <c r="X22" s="0">
         <v>11.913043478260869</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.14382553100585938</v>
+        <v>0.003826141357421875</v>
       </c>
       <c r="Z22" s="0">
         <v>12.913043478260869</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.14702987670898438</v>
+        <v>0.003795623779296875</v>
       </c>
       <c r="AB22" s="0">
         <v>13.913043478260869</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.14568710327148438</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="AD22" s="0">
         <v>14.913043478260869</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.14377593994140625</v>
+        <v>0.00391387939453125</v>
       </c>
       <c r="AF22" s="0">
         <v>15.913043478260869</v>
       </c>
       <c r="AG22" s="0">
-        <v>0.1442718505859375</v>
+        <v>0.003910064697265625</v>
       </c>
       <c r="AH22" s="0">
         <v>16.913043478260871</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.14345932006835938</v>
+        <v>0.0036468505859375</v>
       </c>
       <c r="AJ22" s="0">
         <v>17.913043478260871</v>
       </c>
       <c r="AK22" s="0">
-        <v>0.14214324951171875</v>
+        <v>0.003978729248046875</v>
       </c>
       <c r="AL22" s="0">
         <v>18.913043478260871</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.14545059204101563</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="AN22" s="0">
         <v>19.913043478260871</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.1449737548828125</v>
+        <v>0.00384521484375</v>
       </c>
       <c r="AP22" s="0">
         <v>20.913043478260871</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.14480972290039063</v>
+        <v>0.0038604736328125</v>
       </c>
       <c r="AR22" s="0">
         <v>21.913043478260871</v>
       </c>
       <c r="AS22" s="0">
-        <v>0.14257049560546875</v>
+        <v>0.003765106201171875</v>
       </c>
       <c r="AT22" s="0">
         <v>22.913043478260871</v>
       </c>
       <c r="AU22" s="0">
-        <v>0.14434814453125</v>
+        <v>0.003948211669921875</v>
       </c>
       <c r="AV22" s="0">
         <v>23.913043478260871</v>
       </c>
       <c r="AW22" s="0">
-        <v>0.15987777709960938</v>
+        <v>0.00394439697265625</v>
       </c>
       <c r="AX22" s="0">
         <v>24.913043478260871</v>
       </c>
       <c r="AY22" s="0">
-        <v>0.15801239013671875</v>
+        <v>0.004146575927734375</v>
       </c>
       <c r="AZ22" s="0">
         <v>25.913043478260871</v>
       </c>
       <c r="BA22" s="0">
-        <v>0.15590667724609375</v>
+        <v>0.00399017333984375</v>
       </c>
       <c r="BB22" s="0">
         <v>26.913043478260871</v>
       </c>
       <c r="BC22" s="0">
-        <v>0.16109085083007813</v>
+        <v>0.003986358642578125</v>
       </c>
       <c r="BD22" s="0">
         <v>27.913043478260871</v>
       </c>
       <c r="BE22" s="0">
-        <v>0.15748214721679688</v>
+        <v>0.00395965576171875</v>
       </c>
       <c r="BF22" s="0">
         <v>28.913043478260871</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.15882110595703125</v>
+        <v>0.003932952880859375</v>
       </c>
       <c r="BH22" s="0">
         <v>29.913043478260871</v>
@@ -12469,181 +15169,181 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.15795516967773438</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="B23" s="0">
         <v>0.95652173913043481</v>
       </c>
       <c r="C23" s="0">
-        <v>0.15705490112304688</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="D23" s="0">
         <v>1.9565217391304348</v>
       </c>
       <c r="E23" s="0">
-        <v>0.15760040283203125</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="F23" s="0">
         <v>2.9565217391304346</v>
       </c>
       <c r="G23" s="0">
-        <v>0.15558242797851563</v>
+        <v>0.003734588623046875</v>
       </c>
       <c r="H23" s="0">
         <v>3.9565217391304346</v>
       </c>
       <c r="I23" s="0">
-        <v>0.15577316284179688</v>
+        <v>0.00366973876953125</v>
       </c>
       <c r="J23" s="0">
         <v>4.9565217391304346</v>
       </c>
       <c r="K23" s="0">
-        <v>0.15546035766601563</v>
+        <v>0.003570556640625</v>
       </c>
       <c r="L23" s="0">
         <v>5.9565217391304346</v>
       </c>
       <c r="M23" s="0">
-        <v>0.15135955810546875</v>
+        <v>0.00373077392578125</v>
       </c>
       <c r="N23" s="0">
         <v>6.9565217391304346</v>
       </c>
       <c r="O23" s="0">
-        <v>0.15340042114257813</v>
+        <v>0.00377655029296875</v>
       </c>
       <c r="P23" s="0">
         <v>7.9565217391304346</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.15087127685546875</v>
+        <v>0.00330352783203125</v>
       </c>
       <c r="R23" s="0">
         <v>8.9565217391304355</v>
       </c>
       <c r="S23" s="0">
-        <v>0.14839935302734375</v>
+        <v>0.003597259521484375</v>
       </c>
       <c r="T23" s="0">
         <v>9.9565217391304355</v>
       </c>
       <c r="U23" s="0">
-        <v>0.1512908935546875</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="V23" s="0">
         <v>10.956521739130435</v>
       </c>
       <c r="W23" s="0">
-        <v>0.15589141845703125</v>
+        <v>0.00371551513671875</v>
       </c>
       <c r="X23" s="0">
         <v>11.956521739130435</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.15490341186523438</v>
+        <v>0.003749847412109375</v>
       </c>
       <c r="Z23" s="0">
         <v>12.956521739130435</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.15684127807617188</v>
+        <v>0.00385284423828125</v>
       </c>
       <c r="AB23" s="0">
         <v>13.956521739130435</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.15749740600585938</v>
+        <v>0.003749847412109375</v>
       </c>
       <c r="AD23" s="0">
         <v>14.956521739130435</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.15669631958007813</v>
+        <v>0.003734588623046875</v>
       </c>
       <c r="AF23" s="0">
         <v>15.956521739130435</v>
       </c>
       <c r="AG23" s="0">
-        <v>0.15796661376953125</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="AH23" s="0">
         <v>16.956521739130434</v>
       </c>
       <c r="AI23" s="0">
-        <v>0.15692520141601563</v>
+        <v>0.003772735595703125</v>
       </c>
       <c r="AJ23" s="0">
         <v>17.956521739130434</v>
       </c>
       <c r="AK23" s="0">
-        <v>0.15451812744140625</v>
+        <v>0.003856658935546875</v>
       </c>
       <c r="AL23" s="0">
         <v>18.956521739130434</v>
       </c>
       <c r="AM23" s="0">
-        <v>0.15675735473632813</v>
+        <v>0.00376129150390625</v>
       </c>
       <c r="AN23" s="0">
         <v>19.956521739130434</v>
       </c>
       <c r="AO23" s="0">
-        <v>0.15645217895507813</v>
+        <v>0.00376129150390625</v>
       </c>
       <c r="AP23" s="0">
         <v>20.956521739130434</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0.15580368041992188</v>
+        <v>0.003795623779296875</v>
       </c>
       <c r="AR23" s="0">
         <v>21.956521739130434</v>
       </c>
       <c r="AS23" s="0">
-        <v>0.156646728515625</v>
+        <v>0.003627777099609375</v>
       </c>
       <c r="AT23" s="0">
         <v>22.956521739130434</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.15497970581054688</v>
+        <v>0.00374603271484375</v>
       </c>
       <c r="AV23" s="0">
         <v>23.956521739130434</v>
       </c>
       <c r="AW23" s="0">
-        <v>0.17098236083984375</v>
+        <v>0.00383758544921875</v>
       </c>
       <c r="AX23" s="0">
         <v>24.956521739130434</v>
       </c>
       <c r="AY23" s="0">
-        <v>0.16880416870117188</v>
+        <v>0.004119873046875</v>
       </c>
       <c r="AZ23" s="0">
         <v>25.956521739130434</v>
       </c>
       <c r="BA23" s="0">
-        <v>0.16977310180664063</v>
+        <v>0.00386810302734375</v>
       </c>
       <c r="BB23" s="0">
         <v>26.956521739130434</v>
       </c>
       <c r="BC23" s="0">
-        <v>0.17113494873046875</v>
+        <v>0.003948211669921875</v>
       </c>
       <c r="BD23" s="0">
         <v>27.956521739130434</v>
       </c>
       <c r="BE23" s="0">
-        <v>0.16931533813476563</v>
+        <v>0.004055023193359375</v>
       </c>
       <c r="BF23" s="0">
         <v>28.956521739130434</v>
       </c>
       <c r="BG23" s="0">
-        <v>0.17039871215820313</v>
+        <v>0.004001617431640625</v>
       </c>
       <c r="BH23" s="0">
         <v>29.956521739130434</v>
@@ -12831,181 +15531,181 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.16199874877929688</v>
+        <v>0.00370025634765625</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>0.15993499755859375</v>
+        <v>0.00380706787109375</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0">
-        <v>0.16050338745117188</v>
+        <v>0.003780364990234375</v>
       </c>
       <c r="F24" s="0">
         <v>3</v>
       </c>
       <c r="G24" s="0">
-        <v>0.15901565551757813</v>
+        <v>0.003833770751953125</v>
       </c>
       <c r="H24" s="0">
         <v>4</v>
       </c>
       <c r="I24" s="0">
-        <v>0.1606597900390625</v>
+        <v>0.003681182861328125</v>
       </c>
       <c r="J24" s="0">
         <v>5</v>
       </c>
       <c r="K24" s="0">
-        <v>0.16080093383789063</v>
+        <v>0.003719329833984375</v>
       </c>
       <c r="L24" s="0">
         <v>6</v>
       </c>
       <c r="M24" s="0">
-        <v>0.15807342529296875</v>
+        <v>0.003696441650390625</v>
       </c>
       <c r="N24" s="0">
         <v>7</v>
       </c>
       <c r="O24" s="0">
-        <v>0.15814971923828125</v>
+        <v>0.00360870361328125</v>
       </c>
       <c r="P24" s="0">
         <v>8</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.15349578857421875</v>
+        <v>0.003482818603515625</v>
       </c>
       <c r="R24" s="0">
         <v>9</v>
       </c>
       <c r="S24" s="0">
-        <v>0.15213775634765625</v>
+        <v>0.00335693359375</v>
       </c>
       <c r="T24" s="0">
         <v>10</v>
       </c>
       <c r="U24" s="0">
-        <v>0.15718460083007813</v>
+        <v>0.003570556640625</v>
       </c>
       <c r="V24" s="0">
         <v>11</v>
       </c>
       <c r="W24" s="0">
-        <v>0.15863037109375</v>
+        <v>0.003643035888671875</v>
       </c>
       <c r="X24" s="0">
         <v>12</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.16192626953125</v>
+        <v>0.003665924072265625</v>
       </c>
       <c r="Z24" s="0">
         <v>13</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.16115188598632813</v>
+        <v>0.0036773681640625</v>
       </c>
       <c r="AB24" s="0">
         <v>14</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.161102294921875</v>
+        <v>0.0037384033203125</v>
       </c>
       <c r="AD24" s="0">
         <v>15</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.16252899169921875</v>
+        <v>0.00347900390625</v>
       </c>
       <c r="AF24" s="0">
         <v>16</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.16042709350585938</v>
+        <v>0.003696441650390625</v>
       </c>
       <c r="AH24" s="0">
         <v>17</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.16260910034179688</v>
+        <v>0.00363922119140625</v>
       </c>
       <c r="AJ24" s="0">
         <v>18</v>
       </c>
       <c r="AK24" s="0">
-        <v>0.16249847412109375</v>
+        <v>0.0037841796875</v>
       </c>
       <c r="AL24" s="0">
         <v>19</v>
       </c>
       <c r="AM24" s="0">
-        <v>0.162261962890625</v>
+        <v>0.0037384033203125</v>
       </c>
       <c r="AN24" s="0">
         <v>20</v>
       </c>
       <c r="AO24" s="0">
-        <v>0.16075897216796875</v>
+        <v>0.003887176513671875</v>
       </c>
       <c r="AP24" s="0">
         <v>21</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.1620330810546875</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="AR24" s="0">
         <v>22</v>
       </c>
       <c r="AS24" s="0">
-        <v>0.160003662109375</v>
+        <v>0.003902435302734375</v>
       </c>
       <c r="AT24" s="0">
         <v>23</v>
       </c>
       <c r="AU24" s="0">
-        <v>0.16220474243164063</v>
+        <v>0.003925323486328125</v>
       </c>
       <c r="AV24" s="0">
         <v>24</v>
       </c>
       <c r="AW24" s="0">
-        <v>0.17559051513671875</v>
+        <v>0.00409698486328125</v>
       </c>
       <c r="AX24" s="0">
         <v>25</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.17542266845703125</v>
+        <v>0.0041656494140625</v>
       </c>
       <c r="AZ24" s="0">
         <v>26</v>
       </c>
       <c r="BA24" s="0">
-        <v>0.17818069458007813</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="BB24" s="0">
         <v>27</v>
       </c>
       <c r="BC24" s="0">
-        <v>0.17526626586914063</v>
+        <v>0.003963470458984375</v>
       </c>
       <c r="BD24" s="0">
         <v>28</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.1763916015625</v>
+        <v>0.004100799560546875</v>
       </c>
       <c r="BF24" s="0">
         <v>29</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.17913818359375</v>
+        <v>0.003936767578125</v>
       </c>
       <c r="BH24" s="0">
         <v>30</v>

--- a/Matlab_Main/Perfusion_data_XL.xlsx
+++ b/Matlab_Main/Perfusion_data_XL.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3360" uniqueCount="2340">
   <si>
     <t>set1_1</t>
   </si>
@@ -7038,7 +7038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -7077,70 +7077,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="14.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="14.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="14.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="14.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="14.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="14.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="14.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="14.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="14.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="14.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="14.7109375" customWidth="true"/>
-    <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="14.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
-    <col min="37" max="37" width="14.7109375" customWidth="true"/>
-    <col min="38" max="38" width="11.7109375" customWidth="true"/>
-    <col min="39" max="39" width="14.7109375" customWidth="true"/>
-    <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="14.7109375" customWidth="true"/>
-    <col min="42" max="42" width="11.7109375" customWidth="true"/>
-    <col min="43" max="43" width="14.7109375" customWidth="true"/>
-    <col min="44" max="44" width="11.7109375" customWidth="true"/>
-    <col min="45" max="45" width="14.7109375" customWidth="true"/>
-    <col min="46" max="46" width="11.7109375" customWidth="true"/>
-    <col min="47" max="47" width="14.7109375" customWidth="true"/>
-    <col min="48" max="48" width="11.7109375" customWidth="true"/>
-    <col min="49" max="49" width="14.7109375" customWidth="true"/>
-    <col min="50" max="50" width="11.7109375" customWidth="true"/>
-    <col min="51" max="51" width="14.7109375" customWidth="true"/>
-    <col min="52" max="52" width="11.7109375" customWidth="true"/>
-    <col min="53" max="53" width="14.7109375" customWidth="true"/>
-    <col min="54" max="54" width="11.7109375" customWidth="true"/>
-    <col min="55" max="55" width="14.7109375" customWidth="true"/>
-    <col min="56" max="56" width="11.7109375" customWidth="true"/>
-    <col min="57" max="57" width="14.7109375" customWidth="true"/>
-    <col min="58" max="58" width="11.7109375" customWidth="true"/>
-    <col min="59" max="59" width="14.7109375" customWidth="true"/>
-    <col min="60" max="60" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.5546875" customWidth="true"/>
+    <col min="2" max="2" width="13.5546875" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
+    <col min="6" max="6" width="11.5546875" customWidth="true"/>
+    <col min="7" max="7" width="11.5546875" customWidth="true"/>
+    <col min="8" max="8" width="11.5546875" customWidth="true"/>
+    <col min="9" max="9" width="11.5546875" customWidth="true"/>
+    <col min="10" max="10" width="11.5546875" customWidth="true"/>
+    <col min="11" max="11" width="11.5546875" customWidth="true"/>
+    <col min="12" max="12" width="11.5546875" customWidth="true"/>
+    <col min="13" max="13" width="11.5546875" customWidth="true"/>
+    <col min="14" max="14" width="11.5546875" customWidth="true"/>
+    <col min="15" max="15" width="11.5546875" customWidth="true"/>
+    <col min="16" max="16" width="11.5546875" customWidth="true"/>
+    <col min="17" max="17" width="11.5546875" customWidth="true"/>
+    <col min="18" max="18" width="11.5546875" customWidth="true"/>
+    <col min="19" max="19" width="11.5546875" customWidth="true"/>
+    <col min="20" max="20" width="11.5546875" customWidth="true"/>
+    <col min="21" max="21" width="11.5546875" customWidth="true"/>
+    <col min="22" max="22" width="11.5546875" customWidth="true"/>
+    <col min="23" max="23" width="11.5546875" customWidth="true"/>
+    <col min="24" max="24" width="11.5546875" customWidth="true"/>
+    <col min="25" max="25" width="11.5546875" customWidth="true"/>
+    <col min="26" max="26" width="11.5546875" customWidth="true"/>
+    <col min="27" max="27" width="11.5546875" customWidth="true"/>
+    <col min="28" max="28" width="11.5546875" customWidth="true"/>
+    <col min="29" max="29" width="11.5546875" customWidth="true"/>
+    <col min="30" max="30" width="11.5546875" customWidth="true"/>
+    <col min="31" max="31" width="11.5546875" customWidth="true"/>
+    <col min="32" max="32" width="11.5546875" customWidth="true"/>
+    <col min="33" max="33" width="11.5546875" customWidth="true"/>
+    <col min="34" max="34" width="11.5546875" customWidth="true"/>
+    <col min="35" max="35" width="11.5546875" customWidth="true"/>
+    <col min="36" max="36" width="11.5546875" customWidth="true"/>
+    <col min="37" max="37" width="11.5546875" customWidth="true"/>
+    <col min="38" max="38" width="11.5546875" customWidth="true"/>
+    <col min="39" max="39" width="11.5546875" customWidth="true"/>
+    <col min="40" max="40" width="11.5546875" customWidth="true"/>
+    <col min="41" max="41" width="11.5546875" customWidth="true"/>
+    <col min="42" max="42" width="11.5546875" customWidth="true"/>
+    <col min="43" max="43" width="11.5546875" customWidth="true"/>
+    <col min="44" max="44" width="11.5546875" customWidth="true"/>
+    <col min="45" max="45" width="11.5546875" customWidth="true"/>
+    <col min="46" max="46" width="11.5546875" customWidth="true"/>
+    <col min="47" max="47" width="11.5546875" customWidth="true"/>
+    <col min="48" max="48" width="11.5546875" customWidth="true"/>
+    <col min="49" max="49" width="11.5546875" customWidth="true"/>
+    <col min="50" max="50" width="11.5546875" customWidth="true"/>
+    <col min="51" max="51" width="11.5546875" customWidth="true"/>
+    <col min="52" max="52" width="11.5546875" customWidth="true"/>
+    <col min="53" max="53" width="11.5546875" customWidth="true"/>
+    <col min="54" max="54" width="11.5546875" customWidth="true"/>
+    <col min="55" max="55" width="11.5546875" customWidth="true"/>
+    <col min="56" max="56" width="11.5546875" customWidth="true"/>
+    <col min="57" max="57" width="11.5546875" customWidth="true"/>
+    <col min="58" max="58" width="11.5546875" customWidth="true"/>
+    <col min="59" max="59" width="11.5546875" customWidth="true"/>
+    <col min="60" max="60" width="11.5546875" customWidth="true"/>
     <col min="61" max="61" width="13.7109375" customWidth="true"/>
     <col min="62" max="62" width="11.7109375" customWidth="true"/>
     <col min="63" max="63" width="13.7109375" customWidth="true"/>
@@ -7567,181 +7570,181 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0028533935546875</v>
+        <v>2.3064117431640625</v>
       </c>
       <c r="B2" s="0">
         <v>0.043478260869565216</v>
       </c>
       <c r="C2" s="0">
-        <v>0.00286865234375</v>
+        <v>2.289520263671875</v>
       </c>
       <c r="D2" s="0">
         <v>1.0434782608695652</v>
       </c>
       <c r="E2" s="0">
-        <v>0.00281524658203125</v>
+        <v>2.2896003723144531</v>
       </c>
       <c r="F2" s="0">
         <v>2.0434782608695654</v>
       </c>
       <c r="G2" s="0">
-        <v>0.002910614013671875</v>
+        <v>2.2705116271972656</v>
       </c>
       <c r="H2" s="0">
         <v>3.0434782608695654</v>
       </c>
       <c r="I2" s="0">
-        <v>0.00292205810546875</v>
+        <v>2.2736701965332031</v>
       </c>
       <c r="J2" s="0">
         <v>4.0434782608695654</v>
       </c>
       <c r="K2" s="0">
-        <v>0.0028533935546875</v>
+        <v>2.2744674682617188</v>
       </c>
       <c r="L2" s="0">
         <v>5.0434782608695654</v>
       </c>
       <c r="M2" s="0">
-        <v>0.00283050537109375</v>
+        <v>2.2802047729492188</v>
       </c>
       <c r="N2" s="0">
         <v>6.0434782608695654</v>
       </c>
       <c r="O2" s="0">
-        <v>0.002838134765625</v>
+        <v>2.2943191528320312</v>
       </c>
       <c r="P2" s="0">
         <v>7.0434782608695654</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.00286865234375</v>
+        <v>2.3004035949707031</v>
       </c>
       <c r="R2" s="0">
         <v>8.0434782608695645</v>
       </c>
       <c r="S2" s="0">
-        <v>0.00287628173828125</v>
+        <v>2.3190803527832031</v>
       </c>
       <c r="T2" s="0">
         <v>9.0434782608695645</v>
       </c>
       <c r="U2" s="0">
-        <v>0.00284576416015625</v>
+        <v>2.3230018615722656</v>
       </c>
       <c r="V2" s="0">
         <v>10.043478260869565</v>
       </c>
       <c r="W2" s="0">
-        <v>0.002849578857421875</v>
+        <v>2.3124618530273438</v>
       </c>
       <c r="X2" s="0">
         <v>11.043478260869565</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.00284576416015625</v>
+        <v>2.3177490234375</v>
       </c>
       <c r="Z2" s="0">
         <v>12.043478260869565</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.0028839111328125</v>
+        <v>2.2986984252929688</v>
       </c>
       <c r="AB2" s="0">
         <v>13.043478260869565</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.002887725830078125</v>
+        <v>2.3032722473144531</v>
       </c>
       <c r="AD2" s="0">
         <v>14.043478260869565</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.002899169921875</v>
+        <v>2.3009262084960938</v>
       </c>
       <c r="AF2" s="0">
         <v>15.043478260869565</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.00292205810546875</v>
+        <v>2.3018722534179688</v>
       </c>
       <c r="AH2" s="0">
         <v>16.043478260869566</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.002895355224609375</v>
+        <v>2.2907638549804688</v>
       </c>
       <c r="AJ2" s="0">
         <v>17.043478260869566</v>
       </c>
       <c r="AK2" s="0">
-        <v>0.00286865234375</v>
+        <v>2.2856941223144531</v>
       </c>
       <c r="AL2" s="0">
         <v>18.043478260869566</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.002838134765625</v>
+        <v>2.29083251953125</v>
       </c>
       <c r="AN2" s="0">
         <v>19.043478260869566</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.002880096435546875</v>
+        <v>2.3012161254882812</v>
       </c>
       <c r="AP2" s="0">
         <v>20.043478260869566</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0.0029296875</v>
+        <v>2.2968330383300781</v>
       </c>
       <c r="AR2" s="0">
         <v>21.043478260869566</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.002902984619140625</v>
+        <v>2.3006820678710938</v>
       </c>
       <c r="AT2" s="0">
         <v>22.043478260869566</v>
       </c>
       <c r="AU2" s="0">
-        <v>0.0028839111328125</v>
+        <v>2.2830734252929688</v>
       </c>
       <c r="AV2" s="0">
         <v>23.043478260869566</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.0029144287109375</v>
+        <v>2.2746391296386719</v>
       </c>
       <c r="AX2" s="0">
         <v>24.043478260869566</v>
       </c>
       <c r="AY2" s="0">
-        <v>0.00293731689453125</v>
+        <v>2.2985343933105469</v>
       </c>
       <c r="AZ2" s="0">
         <v>25.043478260869566</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.00286102294921875</v>
+        <v>2.2643280029296875</v>
       </c>
       <c r="BB2" s="0">
         <v>26.043478260869566</v>
       </c>
       <c r="BC2" s="0">
-        <v>0.002902984619140625</v>
+        <v>2.251434326171875</v>
       </c>
       <c r="BD2" s="0">
         <v>27.043478260869566</v>
       </c>
       <c r="BE2" s="0">
-        <v>0.00290679931640625</v>
+        <v>2.2968368530273438</v>
       </c>
       <c r="BF2" s="0">
         <v>28.043478260869566</v>
       </c>
       <c r="BG2" s="0">
-        <v>0.002948760986328125</v>
+        <v>2.259033203125</v>
       </c>
       <c r="BH2" s="0">
         <v>29.043478260869566</v>
@@ -7929,181 +7932,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.002964019775390625</v>
+        <v>2.1679573059082031</v>
       </c>
       <c r="B3" s="0">
         <v>0.086956521739130432</v>
       </c>
       <c r="C3" s="0">
-        <v>0.002986907958984375</v>
+        <v>2.1445655822753906</v>
       </c>
       <c r="D3" s="0">
         <v>1.0869565217391304</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00295257568359375</v>
+        <v>2.1475601196289062</v>
       </c>
       <c r="F3" s="0">
         <v>2.0869565217391304</v>
       </c>
       <c r="G3" s="0">
-        <v>0.002971649169921875</v>
+        <v>2.1097869873046875</v>
       </c>
       <c r="H3" s="0">
         <v>3.0869565217391304</v>
       </c>
       <c r="I3" s="0">
-        <v>0.002941131591796875</v>
+        <v>2.1182785034179688</v>
       </c>
       <c r="J3" s="0">
         <v>4.0869565217391308</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0029754638671875</v>
+        <v>2.1210708618164062</v>
       </c>
       <c r="L3" s="0">
         <v>5.0869565217391308</v>
       </c>
       <c r="M3" s="0">
-        <v>0.00295257568359375</v>
+        <v>2.1273765563964844</v>
       </c>
       <c r="N3" s="0">
         <v>6.0869565217391308</v>
       </c>
       <c r="O3" s="0">
-        <v>0.002941131591796875</v>
+        <v>2.1576728820800781</v>
       </c>
       <c r="P3" s="0">
         <v>7.0869565217391308</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.002941131591796875</v>
+        <v>2.1673851013183594</v>
       </c>
       <c r="R3" s="0">
         <v>8.0869565217391308</v>
       </c>
       <c r="S3" s="0">
-        <v>0.002887725830078125</v>
+        <v>2.1684188842773438</v>
       </c>
       <c r="T3" s="0">
         <v>9.0869565217391308</v>
       </c>
       <c r="U3" s="0">
-        <v>0.002887725830078125</v>
+        <v>2.1788864135742188</v>
       </c>
       <c r="V3" s="0">
         <v>10.086956521739131</v>
       </c>
       <c r="W3" s="0">
-        <v>0.00290679931640625</v>
+        <v>2.1495170593261719</v>
       </c>
       <c r="X3" s="0">
         <v>11.086956521739131</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.00292205810546875</v>
+        <v>2.1588859558105469</v>
       </c>
       <c r="Z3" s="0">
         <v>12.086956521739131</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.0029754638671875</v>
+        <v>2.1465721130371094</v>
       </c>
       <c r="AB3" s="0">
         <v>13.086956521739131</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.002964019775390625</v>
+        <v>2.1523399353027344</v>
       </c>
       <c r="AD3" s="0">
         <v>14.086956521739131</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.0029296875</v>
+        <v>2.1452102661132812</v>
       </c>
       <c r="AF3" s="0">
         <v>15.086956521739131</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.0029296875</v>
+        <v>2.1494636535644531</v>
       </c>
       <c r="AH3" s="0">
         <v>16.086956521739129</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.002933502197265625</v>
+        <v>2.1389999389648438</v>
       </c>
       <c r="AJ3" s="0">
         <v>17.086956521739129</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.002918243408203125</v>
+        <v>2.1377944946289062</v>
       </c>
       <c r="AL3" s="0">
         <v>18.086956521739129</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.002948760986328125</v>
+        <v>2.1422576904296875</v>
       </c>
       <c r="AN3" s="0">
         <v>19.086956521739129</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.00295257568359375</v>
+        <v>2.15814208984375</v>
       </c>
       <c r="AP3" s="0">
         <v>20.086956521739129</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0.002933502197265625</v>
+        <v>2.1328659057617188</v>
       </c>
       <c r="AR3" s="0">
         <v>21.086956521739129</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.002910614013671875</v>
+        <v>2.142608642578125</v>
       </c>
       <c r="AT3" s="0">
         <v>22.086956521739129</v>
       </c>
       <c r="AU3" s="0">
-        <v>0.00298309326171875</v>
+        <v>2.1439971923828125</v>
       </c>
       <c r="AV3" s="0">
         <v>23.086956521739129</v>
       </c>
       <c r="AW3" s="0">
-        <v>0.00295257568359375</v>
+        <v>2.1299362182617188</v>
       </c>
       <c r="AX3" s="0">
         <v>24.086956521739129</v>
       </c>
       <c r="AY3" s="0">
-        <v>0.002971649169921875</v>
+        <v>2.1432151794433594</v>
       </c>
       <c r="AZ3" s="0">
         <v>25.086956521739129</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.0029144287109375</v>
+        <v>2.1338577270507812</v>
       </c>
       <c r="BB3" s="0">
         <v>26.086956521739129</v>
       </c>
       <c r="BC3" s="0">
-        <v>0.002933502197265625</v>
+        <v>2.1095008850097656</v>
       </c>
       <c r="BD3" s="0">
         <v>27.086956521739129</v>
       </c>
       <c r="BE3" s="0">
-        <v>0.002956390380859375</v>
+        <v>2.1344413757324219</v>
       </c>
       <c r="BF3" s="0">
         <v>28.086956521739129</v>
       </c>
       <c r="BG3" s="0">
-        <v>0.00295257568359375</v>
+        <v>2.1183242797851562</v>
       </c>
       <c r="BH3" s="0">
         <v>29.086956521739129</v>
@@ -8291,181 +8294,181 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.002346038818359375</v>
+        <v>1.8250770568847656</v>
       </c>
       <c r="B4" s="0">
         <v>0.13043478260869565</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00229644775390625</v>
+        <v>1.8098945617675781</v>
       </c>
       <c r="D4" s="0">
         <v>1.1304347826086956</v>
       </c>
       <c r="E4" s="0">
-        <v>0.002300262451171875</v>
+        <v>1.8117790222167969</v>
       </c>
       <c r="F4" s="0">
         <v>2.1304347826086958</v>
       </c>
       <c r="G4" s="0">
-        <v>0.002288818359375</v>
+        <v>1.7910575866699219</v>
       </c>
       <c r="H4" s="0">
         <v>3.1304347826086958</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0023193359375</v>
+        <v>1.7979965209960938</v>
       </c>
       <c r="J4" s="0">
         <v>4.1304347826086953</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0022430419921875</v>
+        <v>1.7960243225097656</v>
       </c>
       <c r="L4" s="0">
         <v>5.1304347826086953</v>
       </c>
       <c r="M4" s="0">
-        <v>0.002227783203125</v>
+        <v>1.8059768676757812</v>
       </c>
       <c r="N4" s="0">
         <v>6.1304347826086953</v>
       </c>
       <c r="O4" s="0">
-        <v>0.00226593017578125</v>
+        <v>1.8246383666992188</v>
       </c>
       <c r="P4" s="0">
         <v>7.1304347826086953</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.002384185791015625</v>
+        <v>1.8307609558105469</v>
       </c>
       <c r="R4" s="0">
         <v>8.1304347826086953</v>
       </c>
       <c r="S4" s="0">
-        <v>0.002330780029296875</v>
+        <v>1.83282470703125</v>
       </c>
       <c r="T4" s="0">
         <v>9.1304347826086953</v>
       </c>
       <c r="U4" s="0">
-        <v>0.00235748291015625</v>
+        <v>1.8386001586914062</v>
       </c>
       <c r="V4" s="0">
         <v>10.130434782608695</v>
       </c>
       <c r="W4" s="0">
-        <v>0.002330780029296875</v>
+        <v>1.8084754943847656</v>
       </c>
       <c r="X4" s="0">
         <v>11.130434782608695</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.002300262451171875</v>
+        <v>1.8213958740234375</v>
       </c>
       <c r="Z4" s="0">
         <v>12.130434782608695</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.00228118896484375</v>
+        <v>1.8116912841796875</v>
       </c>
       <c r="AB4" s="0">
         <v>13.130434782608695</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.002277374267578125</v>
+        <v>1.8140830993652344</v>
       </c>
       <c r="AD4" s="0">
         <v>14.130434782608695</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.002285003662109375</v>
+        <v>1.8130874633789062</v>
       </c>
       <c r="AF4" s="0">
         <v>15.130434782608695</v>
       </c>
       <c r="AG4" s="0">
-        <v>0.002216339111328125</v>
+        <v>1.8139762878417969</v>
       </c>
       <c r="AH4" s="0">
         <v>16.130434782608695</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.002292633056640625</v>
+        <v>1.8076667785644531</v>
       </c>
       <c r="AJ4" s="0">
         <v>17.130434782608695</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.00232696533203125</v>
+        <v>1.8111381530761719</v>
       </c>
       <c r="AL4" s="0">
         <v>18.130434782608695</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.0023193359375</v>
+        <v>1.8117332458496094</v>
       </c>
       <c r="AN4" s="0">
         <v>19.130434782608695</v>
       </c>
       <c r="AO4" s="0">
-        <v>0.002300262451171875</v>
+        <v>1.8236579895019531</v>
       </c>
       <c r="AP4" s="0">
         <v>20.130434782608695</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0.002368927001953125</v>
+        <v>1.8062095642089844</v>
       </c>
       <c r="AR4" s="0">
         <v>21.130434782608695</v>
       </c>
       <c r="AS4" s="0">
-        <v>0.002285003662109375</v>
+        <v>1.8124465942382812</v>
       </c>
       <c r="AT4" s="0">
         <v>22.130434782608695</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.002399444580078125</v>
+        <v>1.8151969909667969</v>
       </c>
       <c r="AV4" s="0">
         <v>23.130434782608695</v>
       </c>
       <c r="AW4" s="0">
-        <v>0.002262115478515625</v>
+        <v>1.8112068176269531</v>
       </c>
       <c r="AX4" s="0">
         <v>24.130434782608695</v>
       </c>
       <c r="AY4" s="0">
-        <v>0.002338409423828125</v>
+        <v>1.8124275207519531</v>
       </c>
       <c r="AZ4" s="0">
         <v>25.130434782608695</v>
       </c>
       <c r="BA4" s="0">
-        <v>0.002384185791015625</v>
+        <v>1.8071708679199219</v>
       </c>
       <c r="BB4" s="0">
         <v>26.130434782608695</v>
       </c>
       <c r="BC4" s="0">
-        <v>0.002376556396484375</v>
+        <v>1.8016204833984375</v>
       </c>
       <c r="BD4" s="0">
         <v>27.130434782608695</v>
       </c>
       <c r="BE4" s="0">
-        <v>0.002262115478515625</v>
+        <v>1.806640625</v>
       </c>
       <c r="BF4" s="0">
         <v>28.130434782608695</v>
       </c>
       <c r="BG4" s="0">
-        <v>0.002410888671875</v>
+        <v>1.7992057800292969</v>
       </c>
       <c r="BH4" s="0">
         <v>29.130434782608695</v>
@@ -8653,181 +8656,181 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.00262451171875</v>
+        <v>1.5214996337890625</v>
       </c>
       <c r="B5" s="0">
         <v>0.17391304347826086</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00244903564453125</v>
+        <v>1.5213737487792969</v>
       </c>
       <c r="D5" s="0">
         <v>1.1739130434782608</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00237274169921875</v>
+        <v>1.5186920166015625</v>
       </c>
       <c r="F5" s="0">
         <v>2.1739130434782608</v>
       </c>
       <c r="G5" s="0">
-        <v>0.002460479736328125</v>
+        <v>1.5184822082519531</v>
       </c>
       <c r="H5" s="0">
         <v>3.1739130434782608</v>
       </c>
       <c r="I5" s="0">
-        <v>0.002391815185546875</v>
+        <v>1.5219993591308594</v>
       </c>
       <c r="J5" s="0">
         <v>4.1739130434782608</v>
       </c>
       <c r="K5" s="0">
-        <v>0.002391815185546875</v>
+        <v>1.5222434997558594</v>
       </c>
       <c r="L5" s="0">
         <v>5.1739130434782608</v>
       </c>
       <c r="M5" s="0">
-        <v>0.002384185791015625</v>
+        <v>1.529815673828125</v>
       </c>
       <c r="N5" s="0">
         <v>6.1739130434782608</v>
       </c>
       <c r="O5" s="0">
-        <v>0.00243377685546875</v>
+        <v>1.5342483520507812</v>
       </c>
       <c r="P5" s="0">
         <v>7.1739130434782608</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.002468109130859375</v>
+        <v>1.533599853515625</v>
       </c>
       <c r="R5" s="0">
         <v>8.1739130434782616</v>
       </c>
       <c r="S5" s="0">
-        <v>0.002452850341796875</v>
+        <v>1.54052734375</v>
       </c>
       <c r="T5" s="0">
         <v>9.1739130434782616</v>
       </c>
       <c r="U5" s="0">
-        <v>0.002353668212890625</v>
+        <v>1.54229736328125</v>
       </c>
       <c r="V5" s="0">
         <v>10.173913043478262</v>
       </c>
       <c r="W5" s="0">
-        <v>0.002567291259765625</v>
+        <v>1.5262794494628906</v>
       </c>
       <c r="X5" s="0">
         <v>11.173913043478262</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.0023651123046875</v>
+        <v>1.5364151000976562</v>
       </c>
       <c r="Z5" s="0">
         <v>12.173913043478262</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.002346038818359375</v>
+        <v>1.529327392578125</v>
       </c>
       <c r="AB5" s="0">
         <v>13.173913043478262</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.002361297607421875</v>
+        <v>1.5190925598144531</v>
       </c>
       <c r="AD5" s="0">
         <v>14.173913043478262</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.002178192138671875</v>
+        <v>1.5275306701660156</v>
       </c>
       <c r="AF5" s="0">
         <v>15.173913043478262</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.002452850341796875</v>
+        <v>1.5252227783203125</v>
       </c>
       <c r="AH5" s="0">
         <v>16.173913043478262</v>
       </c>
       <c r="AI5" s="0">
-        <v>0.00243377685546875</v>
+        <v>1.5251426696777344</v>
       </c>
       <c r="AJ5" s="0">
         <v>17.173913043478262</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.002353668212890625</v>
+        <v>1.5322341918945312</v>
       </c>
       <c r="AL5" s="0">
         <v>18.173913043478262</v>
       </c>
       <c r="AM5" s="0">
-        <v>0.002410888671875</v>
+        <v>1.5308303833007812</v>
       </c>
       <c r="AN5" s="0">
         <v>19.173913043478262</v>
       </c>
       <c r="AO5" s="0">
-        <v>0.00244903564453125</v>
+        <v>1.5242538452148438</v>
       </c>
       <c r="AP5" s="0">
         <v>20.173913043478262</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.00238037109375</v>
+        <v>1.5280418395996094</v>
       </c>
       <c r="AR5" s="0">
         <v>21.173913043478262</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.002246856689453125</v>
+        <v>1.5271072387695312</v>
       </c>
       <c r="AT5" s="0">
         <v>22.173913043478262</v>
       </c>
       <c r="AU5" s="0">
-        <v>0.002376556396484375</v>
+        <v>1.531402587890625</v>
       </c>
       <c r="AV5" s="0">
         <v>23.173913043478262</v>
       </c>
       <c r="AW5" s="0">
-        <v>0.002353668212890625</v>
+        <v>1.5272293090820312</v>
       </c>
       <c r="AX5" s="0">
         <v>24.173913043478262</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.00243377685546875</v>
+        <v>1.5257530212402344</v>
       </c>
       <c r="AZ5" s="0">
         <v>25.173913043478262</v>
       </c>
       <c r="BA5" s="0">
-        <v>0.002445220947265625</v>
+        <v>1.5247688293457031</v>
       </c>
       <c r="BB5" s="0">
         <v>26.173913043478262</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.00235748291015625</v>
+        <v>1.5236358642578125</v>
       </c>
       <c r="BD5" s="0">
         <v>27.173913043478262</v>
       </c>
       <c r="BE5" s="0">
-        <v>0.002483367919921875</v>
+        <v>1.5271072387695312</v>
       </c>
       <c r="BF5" s="0">
         <v>28.173913043478262</v>
       </c>
       <c r="BG5" s="0">
-        <v>0.0024566650390625</v>
+        <v>1.5219764709472656</v>
       </c>
       <c r="BH5" s="0">
         <v>29.173913043478262</v>
@@ -9015,181 +9018,181 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0025482177734375</v>
+        <v>1.4858665466308594</v>
       </c>
       <c r="B6" s="0">
         <v>0.21739130434782608</v>
       </c>
       <c r="C6" s="0">
-        <v>0.002544403076171875</v>
+        <v>1.4896163940429688</v>
       </c>
       <c r="D6" s="0">
         <v>1.2173913043478262</v>
       </c>
       <c r="E6" s="0">
-        <v>0.002552032470703125</v>
+        <v>1.4852333068847656</v>
       </c>
       <c r="F6" s="0">
         <v>2.2173913043478262</v>
       </c>
       <c r="G6" s="0">
-        <v>0.002597808837890625</v>
+        <v>1.4848785400390625</v>
       </c>
       <c r="H6" s="0">
         <v>3.2173913043478262</v>
       </c>
       <c r="I6" s="0">
-        <v>0.002429962158203125</v>
+        <v>1.4840660095214844</v>
       </c>
       <c r="J6" s="0">
         <v>4.2173913043478262</v>
       </c>
       <c r="K6" s="0">
-        <v>0.002349853515625</v>
+        <v>1.4902420043945312</v>
       </c>
       <c r="L6" s="0">
         <v>5.2173913043478262</v>
       </c>
       <c r="M6" s="0">
-        <v>0.002460479736328125</v>
+        <v>1.4951362609863281</v>
       </c>
       <c r="N6" s="0">
         <v>6.2173913043478262</v>
       </c>
       <c r="O6" s="0">
-        <v>0.002452850341796875</v>
+        <v>1.4950675964355469</v>
       </c>
       <c r="P6" s="0">
         <v>7.2173913043478262</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.002513885498046875</v>
+        <v>1.4932708740234375</v>
       </c>
       <c r="R6" s="0">
         <v>8.2173913043478262</v>
       </c>
       <c r="S6" s="0">
-        <v>0.00244903564453125</v>
+        <v>1.4967002868652344</v>
       </c>
       <c r="T6" s="0">
         <v>9.2173913043478262</v>
       </c>
       <c r="U6" s="0">
-        <v>0.00249481201171875</v>
+        <v>1.4924163818359375</v>
       </c>
       <c r="V6" s="0">
         <v>10.217391304347826</v>
       </c>
       <c r="W6" s="0">
-        <v>0.002452850341796875</v>
+        <v>1.4921875</v>
       </c>
       <c r="X6" s="0">
         <v>11.217391304347826</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.0025634765625</v>
+        <v>1.495941162109375</v>
       </c>
       <c r="Z6" s="0">
         <v>12.217391304347826</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.00252532958984375</v>
+        <v>1.4914169311523438</v>
       </c>
       <c r="AB6" s="0">
         <v>13.217391304347826</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.00255584716796875</v>
+        <v>1.481475830078125</v>
       </c>
       <c r="AD6" s="0">
         <v>14.217391304347826</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.0024566650390625</v>
+        <v>1.4859809875488281</v>
       </c>
       <c r="AF6" s="0">
         <v>15.217391304347826</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.00262451171875</v>
+        <v>1.48236083984375</v>
       </c>
       <c r="AH6" s="0">
         <v>16.217391304347824</v>
       </c>
       <c r="AI6" s="0">
-        <v>0.002483367919921875</v>
+        <v>1.4881744384765625</v>
       </c>
       <c r="AJ6" s="0">
         <v>17.217391304347824</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.002513885498046875</v>
+        <v>1.4930686950683594</v>
       </c>
       <c r="AL6" s="0">
         <v>18.217391304347824</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.00258636474609375</v>
+        <v>1.4923210144042969</v>
       </c>
       <c r="AN6" s="0">
         <v>19.217391304347824</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.00266265869140625</v>
+        <v>1.4858589172363281</v>
       </c>
       <c r="AP6" s="0">
         <v>20.217391304347824</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.00255584716796875</v>
+        <v>1.4896621704101562</v>
       </c>
       <c r="AR6" s="0">
         <v>21.217391304347824</v>
       </c>
       <c r="AS6" s="0">
-        <v>0.00254058837890625</v>
+        <v>1.4868011474609375</v>
       </c>
       <c r="AT6" s="0">
         <v>22.217391304347824</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.0024871826171875</v>
+        <v>1.4910011291503906</v>
       </c>
       <c r="AV6" s="0">
         <v>23.217391304347824</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.002422332763671875</v>
+        <v>1.4878120422363281</v>
       </c>
       <c r="AX6" s="0">
         <v>24.217391304347824</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.002422332763671875</v>
+        <v>1.4864692687988281</v>
       </c>
       <c r="AZ6" s="0">
         <v>25.217391304347824</v>
       </c>
       <c r="BA6" s="0">
-        <v>0.002532958984375</v>
+        <v>1.4888534545898438</v>
       </c>
       <c r="BB6" s="0">
         <v>26.217391304347824</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.0025177001953125</v>
+        <v>1.4852066040039062</v>
       </c>
       <c r="BD6" s="0">
         <v>27.217391304347824</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.0025177001953125</v>
+        <v>1.4869651794433594</v>
       </c>
       <c r="BF6" s="0">
         <v>28.217391304347824</v>
       </c>
       <c r="BG6" s="0">
-        <v>0.00246429443359375</v>
+        <v>1.4867515563964844</v>
       </c>
       <c r="BH6" s="0">
         <v>29.217391304347824</v>
@@ -9377,181 +9380,181 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.002490997314453125</v>
+        <v>1.4843406677246094</v>
       </c>
       <c r="B7" s="0">
         <v>0.2608695652173913</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00237274169921875</v>
+        <v>1.4894294738769531</v>
       </c>
       <c r="D7" s="0">
         <v>1.2608695652173914</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00244903564453125</v>
+        <v>1.487701416015625</v>
       </c>
       <c r="F7" s="0">
         <v>2.2608695652173911</v>
       </c>
       <c r="G7" s="0">
-        <v>0.002590179443359375</v>
+        <v>1.4780158996582031</v>
       </c>
       <c r="H7" s="0">
         <v>3.2608695652173911</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00250244140625</v>
+        <v>1.4839134216308594</v>
       </c>
       <c r="J7" s="0">
         <v>4.2608695652173916</v>
       </c>
       <c r="K7" s="0">
-        <v>0.002239227294921875</v>
+        <v>1.4931678771972656</v>
       </c>
       <c r="L7" s="0">
         <v>5.2608695652173916</v>
       </c>
       <c r="M7" s="0">
-        <v>0.002399444580078125</v>
+        <v>1.4888725280761719</v>
       </c>
       <c r="N7" s="0">
         <v>6.2608695652173916</v>
       </c>
       <c r="O7" s="0">
-        <v>0.002300262451171875</v>
+        <v>1.4925079345703125</v>
       </c>
       <c r="P7" s="0">
         <v>7.2608695652173916</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.0023956298828125</v>
+        <v>1.4927825927734375</v>
       </c>
       <c r="R7" s="0">
         <v>8.2608695652173907</v>
       </c>
       <c r="S7" s="0">
-        <v>0.0023956298828125</v>
+        <v>1.4912033081054688</v>
       </c>
       <c r="T7" s="0">
         <v>9.2608695652173907</v>
       </c>
       <c r="U7" s="0">
-        <v>0.00232696533203125</v>
+        <v>1.4885063171386719</v>
       </c>
       <c r="V7" s="0">
         <v>10.260869565217391</v>
       </c>
       <c r="W7" s="0">
-        <v>0.002529144287109375</v>
+        <v>1.4942131042480469</v>
       </c>
       <c r="X7" s="0">
         <v>11.260869565217391</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.0024261474609375</v>
+        <v>1.4886207580566406</v>
       </c>
       <c r="Z7" s="0">
         <v>12.260869565217391</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.002532958984375</v>
+        <v>1.4865684509277344</v>
       </c>
       <c r="AB7" s="0">
         <v>13.260869565217391</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.002475738525390625</v>
+        <v>1.485137939453125</v>
       </c>
       <c r="AD7" s="0">
         <v>14.260869565217391</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.002422332763671875</v>
+        <v>1.4828605651855469</v>
       </c>
       <c r="AF7" s="0">
         <v>15.260869565217391</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.0023956298828125</v>
+        <v>1.4789352416992188</v>
       </c>
       <c r="AH7" s="0">
         <v>16.260869565217391</v>
       </c>
       <c r="AI7" s="0">
-        <v>0.002410888671875</v>
+        <v>1.4895515441894531</v>
       </c>
       <c r="AJ7" s="0">
         <v>17.260869565217391</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.002597808837890625</v>
+        <v>1.4880485534667969</v>
       </c>
       <c r="AL7" s="0">
         <v>18.260869565217391</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.00249481201171875</v>
+        <v>1.4844932556152344</v>
       </c>
       <c r="AN7" s="0">
         <v>19.260869565217391</v>
       </c>
       <c r="AO7" s="0">
-        <v>0.002506256103515625</v>
+        <v>1.487823486328125</v>
       </c>
       <c r="AP7" s="0">
         <v>20.260869565217391</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.002593994140625</v>
+        <v>1.4905242919921875</v>
       </c>
       <c r="AR7" s="0">
         <v>21.260869565217391</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.0023345947265625</v>
+        <v>1.4795989990234375</v>
       </c>
       <c r="AT7" s="0">
         <v>22.260869565217391</v>
       </c>
       <c r="AU7" s="0">
-        <v>0.002292633056640625</v>
+        <v>1.4888153076171875</v>
       </c>
       <c r="AV7" s="0">
         <v>23.260869565217391</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.002422332763671875</v>
+        <v>1.4790534973144531</v>
       </c>
       <c r="AX7" s="0">
         <v>24.260869565217391</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.002422332763671875</v>
+        <v>1.4893722534179688</v>
       </c>
       <c r="AZ7" s="0">
         <v>25.260869565217391</v>
       </c>
       <c r="BA7" s="0">
-        <v>0.002529144287109375</v>
+        <v>1.4901084899902344</v>
       </c>
       <c r="BB7" s="0">
         <v>26.260869565217391</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.002574920654296875</v>
+        <v>1.478973388671875</v>
       </c>
       <c r="BD7" s="0">
         <v>27.260869565217391</v>
       </c>
       <c r="BE7" s="0">
-        <v>0.0023651123046875</v>
+        <v>1.4886474609375</v>
       </c>
       <c r="BF7" s="0">
         <v>28.260869565217391</v>
       </c>
       <c r="BG7" s="0">
-        <v>0.002506256103515625</v>
+        <v>1.4859619140625</v>
       </c>
       <c r="BH7" s="0">
         <v>29.260869565217391</v>
@@ -9739,181 +9742,181 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0027313232421875</v>
+        <v>1.4758224487304688</v>
       </c>
       <c r="B8" s="0">
         <v>0.30434782608695654</v>
       </c>
       <c r="C8" s="0">
-        <v>0.002704620361328125</v>
+        <v>1.4783096313476562</v>
       </c>
       <c r="D8" s="0">
         <v>1.3043478260869565</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00262451171875</v>
+        <v>1.4830169677734375</v>
       </c>
       <c r="F8" s="0">
         <v>2.3043478260869565</v>
       </c>
       <c r="G8" s="0">
-        <v>0.002704620361328125</v>
+        <v>1.4748878479003906</v>
       </c>
       <c r="H8" s="0">
         <v>3.3043478260869565</v>
       </c>
       <c r="I8" s="0">
-        <v>0.002750396728515625</v>
+        <v>1.4831275939941406</v>
       </c>
       <c r="J8" s="0">
         <v>4.304347826086957</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00286865234375</v>
+        <v>1.4872627258300781</v>
       </c>
       <c r="L8" s="0">
         <v>5.304347826086957</v>
       </c>
       <c r="M8" s="0">
-        <v>0.0026092529296875</v>
+        <v>1.4766502380371094</v>
       </c>
       <c r="N8" s="0">
         <v>6.304347826086957</v>
       </c>
       <c r="O8" s="0">
-        <v>0.002620697021484375</v>
+        <v>1.4829177856445312</v>
       </c>
       <c r="P8" s="0">
         <v>7.304347826086957</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.00267791748046875</v>
+        <v>1.4877738952636719</v>
       </c>
       <c r="R8" s="0">
         <v>8.304347826086957</v>
       </c>
       <c r="S8" s="0">
-        <v>0.002590179443359375</v>
+        <v>1.4889869689941406</v>
       </c>
       <c r="T8" s="0">
         <v>9.304347826086957</v>
       </c>
       <c r="U8" s="0">
-        <v>0.002521514892578125</v>
+        <v>1.4863510131835938</v>
       </c>
       <c r="V8" s="0">
         <v>10.304347826086957</v>
       </c>
       <c r="W8" s="0">
-        <v>0.00269317626953125</v>
+        <v>1.4877853393554688</v>
       </c>
       <c r="X8" s="0">
         <v>11.304347826086957</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.0026092529296875</v>
+        <v>1.4791717529296875</v>
       </c>
       <c r="Z8" s="0">
         <v>12.304347826086957</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.002593994140625</v>
+        <v>1.4766426086425781</v>
       </c>
       <c r="AB8" s="0">
         <v>13.304347826086957</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.00262451171875</v>
+        <v>1.4823455810546875</v>
       </c>
       <c r="AD8" s="0">
         <v>14.304347826086957</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.002635955810546875</v>
+        <v>1.4812583923339844</v>
       </c>
       <c r="AF8" s="0">
         <v>15.304347826086957</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.0027618408203125</v>
+        <v>1.4751739501953125</v>
       </c>
       <c r="AH8" s="0">
         <v>16.304347826086957</v>
       </c>
       <c r="AI8" s="0">
-        <v>0.002735137939453125</v>
+        <v>1.4835357666015625</v>
       </c>
       <c r="AJ8" s="0">
         <v>17.304347826086957</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.0026092529296875</v>
+        <v>1.4795761108398438</v>
       </c>
       <c r="AL8" s="0">
         <v>18.304347826086957</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.002658843994140625</v>
+        <v>1.4742393493652344</v>
       </c>
       <c r="AN8" s="0">
         <v>19.304347826086957</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.002727508544921875</v>
+        <v>1.4875526428222656</v>
       </c>
       <c r="AP8" s="0">
         <v>20.304347826086957</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.002643585205078125</v>
+        <v>1.4866752624511719</v>
       </c>
       <c r="AR8" s="0">
         <v>21.304347826086957</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.002696990966796875</v>
+        <v>1.4753913879394531</v>
       </c>
       <c r="AT8" s="0">
         <v>22.304347826086957</v>
       </c>
       <c r="AU8" s="0">
-        <v>0.0027618408203125</v>
+        <v>1.4804954528808594</v>
       </c>
       <c r="AV8" s="0">
         <v>23.304347826086957</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.002689361572265625</v>
+        <v>1.4729232788085938</v>
       </c>
       <c r="AX8" s="0">
         <v>24.304347826086957</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.002742767333984375</v>
+        <v>1.4852485656738281</v>
       </c>
       <c r="AZ8" s="0">
         <v>25.304347826086957</v>
       </c>
       <c r="BA8" s="0">
-        <v>0.00281524658203125</v>
+        <v>1.48284912109375</v>
       </c>
       <c r="BB8" s="0">
         <v>26.304347826086957</v>
       </c>
       <c r="BC8" s="0">
-        <v>0.002727508544921875</v>
+        <v>1.4752883911132812</v>
       </c>
       <c r="BD8" s="0">
         <v>27.304347826086957</v>
       </c>
       <c r="BE8" s="0">
-        <v>0.002613067626953125</v>
+        <v>1.4843330383300781</v>
       </c>
       <c r="BF8" s="0">
         <v>28.304347826086957</v>
       </c>
       <c r="BG8" s="0">
-        <v>0.0027008056640625</v>
+        <v>1.4778861999511719</v>
       </c>
       <c r="BH8" s="0">
         <v>29.304347826086957</v>
@@ -10101,181 +10104,181 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00286865234375</v>
+        <v>1.4702301025390625</v>
       </c>
       <c r="B9" s="0">
         <v>0.34782608695652173</v>
       </c>
       <c r="C9" s="0">
-        <v>0.00273895263671875</v>
+        <v>1.4715576171875</v>
       </c>
       <c r="D9" s="0">
         <v>1.3478260869565217</v>
       </c>
       <c r="E9" s="0">
-        <v>0.002819061279296875</v>
+        <v>1.4760475158691406</v>
       </c>
       <c r="F9" s="0">
         <v>2.3478260869565215</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00264739990234375</v>
+        <v>1.4716682434082031</v>
       </c>
       <c r="H9" s="0">
         <v>3.3478260869565215</v>
       </c>
       <c r="I9" s="0">
-        <v>0.002826690673828125</v>
+        <v>1.4795188903808594</v>
       </c>
       <c r="J9" s="0">
         <v>4.3478260869565215</v>
       </c>
       <c r="K9" s="0">
-        <v>0.002750396728515625</v>
+        <v>1.4787750244140625</v>
       </c>
       <c r="L9" s="0">
         <v>5.3478260869565215</v>
       </c>
       <c r="M9" s="0">
-        <v>0.002956390380859375</v>
+        <v>1.472137451171875</v>
       </c>
       <c r="N9" s="0">
         <v>6.3478260869565215</v>
       </c>
       <c r="O9" s="0">
-        <v>0.002979278564453125</v>
+        <v>1.4796257019042969</v>
       </c>
       <c r="P9" s="0">
         <v>7.3478260869565215</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.002986907958984375</v>
+        <v>1.4854621887207031</v>
       </c>
       <c r="R9" s="0">
         <v>8.3478260869565215</v>
       </c>
       <c r="S9" s="0">
-        <v>0.003002166748046875</v>
+        <v>1.4888076782226562</v>
       </c>
       <c r="T9" s="0">
         <v>9.3478260869565215</v>
       </c>
       <c r="U9" s="0">
-        <v>0.002635955810546875</v>
+        <v>1.4874954223632812</v>
       </c>
       <c r="V9" s="0">
         <v>10.347826086956522</v>
       </c>
       <c r="W9" s="0">
-        <v>0.002719879150390625</v>
+        <v>1.4813690185546875</v>
       </c>
       <c r="X9" s="0">
         <v>11.347826086956522</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.002651214599609375</v>
+        <v>1.4745521545410156</v>
       </c>
       <c r="Z9" s="0">
         <v>12.347826086956522</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.0027008056640625</v>
+        <v>1.473114013671875</v>
       </c>
       <c r="AB9" s="0">
         <v>13.347826086956522</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.002796173095703125</v>
+        <v>1.4780616760253906</v>
       </c>
       <c r="AD9" s="0">
         <v>14.347826086956522</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.002651214599609375</v>
+        <v>1.4780387878417969</v>
       </c>
       <c r="AF9" s="0">
         <v>15.347826086956522</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.002788543701171875</v>
+        <v>1.4742774963378906</v>
       </c>
       <c r="AH9" s="0">
         <v>16.347826086956523</v>
       </c>
       <c r="AI9" s="0">
-        <v>0.002826690673828125</v>
+        <v>1.4776535034179688</v>
       </c>
       <c r="AJ9" s="0">
         <v>17.347826086956523</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.00270843505859375</v>
+        <v>1.4722061157226562</v>
       </c>
       <c r="AL9" s="0">
         <v>18.347826086956523</v>
       </c>
       <c r="AM9" s="0">
-        <v>0.0028228759765625</v>
+        <v>1.4702949523925781</v>
       </c>
       <c r="AN9" s="0">
         <v>19.347826086956523</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.002704620361328125</v>
+        <v>1.4816780090332031</v>
       </c>
       <c r="AP9" s="0">
         <v>20.347826086956523</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.002994537353515625</v>
+        <v>1.4830322265625</v>
       </c>
       <c r="AR9" s="0">
         <v>21.347826086956523</v>
       </c>
       <c r="AS9" s="0">
-        <v>0.00269317626953125</v>
+        <v>1.4738731384277344</v>
       </c>
       <c r="AT9" s="0">
         <v>22.347826086956523</v>
       </c>
       <c r="AU9" s="0">
-        <v>0.002902984619140625</v>
+        <v>1.4765701293945312</v>
       </c>
       <c r="AV9" s="0">
         <v>23.347826086956523</v>
       </c>
       <c r="AW9" s="0">
-        <v>0.00269317626953125</v>
+        <v>1.4699249267578125</v>
       </c>
       <c r="AX9" s="0">
         <v>24.347826086956523</v>
       </c>
       <c r="AY9" s="0">
-        <v>0.0030364990234375</v>
+        <v>1.4796943664550781</v>
       </c>
       <c r="AZ9" s="0">
         <v>25.347826086956523</v>
       </c>
       <c r="BA9" s="0">
-        <v>0.00286102294921875</v>
+        <v>1.4781723022460938</v>
       </c>
       <c r="BB9" s="0">
         <v>26.347826086956523</v>
       </c>
       <c r="BC9" s="0">
-        <v>0.00269317626953125</v>
+        <v>1.4715614318847656</v>
       </c>
       <c r="BD9" s="0">
         <v>27.347826086956523</v>
       </c>
       <c r="BE9" s="0">
-        <v>0.0028076171875</v>
+        <v>1.479248046875</v>
       </c>
       <c r="BF9" s="0">
         <v>28.347826086956523</v>
       </c>
       <c r="BG9" s="0">
-        <v>0.002635955810546875</v>
+        <v>1.4751434326171875</v>
       </c>
       <c r="BH9" s="0">
         <v>29.347826086956523</v>
@@ -10463,181 +10466,181 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.002964019775390625</v>
+        <v>1.4757270812988281</v>
       </c>
       <c r="B10" s="0">
         <v>0.39130434782608692</v>
       </c>
       <c r="C10" s="0">
-        <v>0.003047943115234375</v>
+        <v>1.4750404357910156</v>
       </c>
       <c r="D10" s="0">
         <v>1.3913043478260869</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0030059814453125</v>
+        <v>1.4765510559082031</v>
       </c>
       <c r="F10" s="0">
         <v>2.3913043478260869</v>
       </c>
       <c r="G10" s="0">
-        <v>0.003131866455078125</v>
+        <v>1.4757614135742188</v>
       </c>
       <c r="H10" s="0">
         <v>3.3913043478260869</v>
       </c>
       <c r="I10" s="0">
-        <v>0.002925872802734375</v>
+        <v>1.4802322387695312</v>
       </c>
       <c r="J10" s="0">
         <v>4.3913043478260869</v>
       </c>
       <c r="K10" s="0">
-        <v>0.002964019775390625</v>
+        <v>1.4839019775390625</v>
       </c>
       <c r="L10" s="0">
         <v>5.3913043478260869</v>
       </c>
       <c r="M10" s="0">
-        <v>0.00292205810546875</v>
+        <v>1.4863243103027344</v>
       </c>
       <c r="N10" s="0">
         <v>6.3913043478260869</v>
       </c>
       <c r="O10" s="0">
-        <v>0.002910614013671875</v>
+        <v>1.4961395263671875</v>
       </c>
       <c r="P10" s="0">
         <v>7.3913043478260869</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.00299072265625</v>
+        <v>1.5001487731933594</v>
       </c>
       <c r="R10" s="0">
         <v>8.391304347826086</v>
       </c>
       <c r="S10" s="0">
-        <v>0.003002166748046875</v>
+        <v>1.500640869140625</v>
       </c>
       <c r="T10" s="0">
         <v>9.391304347826086</v>
       </c>
       <c r="U10" s="0">
-        <v>0.002979278564453125</v>
+        <v>1.4982109069824219</v>
       </c>
       <c r="V10" s="0">
         <v>10.391304347826086</v>
       </c>
       <c r="W10" s="0">
-        <v>0.00296783447265625</v>
+        <v>1.4916343688964844</v>
       </c>
       <c r="X10" s="0">
         <v>11.391304347826086</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.00319671630859375</v>
+        <v>1.4844818115234375</v>
       </c>
       <c r="Z10" s="0">
         <v>12.391304347826086</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.003208160400390625</v>
+        <v>1.4809379577636719</v>
       </c>
       <c r="AB10" s="0">
         <v>13.391304347826086</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.00307464599609375</v>
+        <v>1.4820175170898438</v>
       </c>
       <c r="AD10" s="0">
         <v>14.391304347826086</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.0029449462890625</v>
+        <v>1.4788246154785156</v>
       </c>
       <c r="AF10" s="0">
         <v>15.391304347826086</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.003139495849609375</v>
+        <v>1.4786453247070312</v>
       </c>
       <c r="AH10" s="0">
         <v>16.391304347826086</v>
       </c>
       <c r="AI10" s="0">
-        <v>0.003101348876953125</v>
+        <v>1.4820632934570312</v>
       </c>
       <c r="AJ10" s="0">
         <v>17.391304347826086</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.003101348876953125</v>
+        <v>1.4781074523925781</v>
       </c>
       <c r="AL10" s="0">
         <v>18.391304347826086</v>
       </c>
       <c r="AM10" s="0">
-        <v>0.00313568115234375</v>
+        <v>1.4805717468261719</v>
       </c>
       <c r="AN10" s="0">
         <v>19.391304347826086</v>
       </c>
       <c r="AO10" s="0">
-        <v>0.0029144287109375</v>
+        <v>1.4845695495605469</v>
       </c>
       <c r="AP10" s="0">
         <v>20.391304347826086</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.00302886962890625</v>
+        <v>1.4829216003417969</v>
       </c>
       <c r="AR10" s="0">
         <v>21.391304347826086</v>
       </c>
       <c r="AS10" s="0">
-        <v>0.003009796142578125</v>
+        <v>1.4800796508789062</v>
       </c>
       <c r="AT10" s="0">
         <v>22.391304347826086</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.00296783447265625</v>
+        <v>1.4816131591796875</v>
       </c>
       <c r="AV10" s="0">
         <v>23.391304347826086</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.003124237060546875</v>
+        <v>1.4783668518066406</v>
       </c>
       <c r="AX10" s="0">
         <v>24.391304347826086</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.002902984619140625</v>
+        <v>1.4804801940917969</v>
       </c>
       <c r="AZ10" s="0">
         <v>25.391304347826086</v>
       </c>
       <c r="BA10" s="0">
-        <v>0.0030670166015625</v>
+        <v>1.4813728332519531</v>
       </c>
       <c r="BB10" s="0">
         <v>26.391304347826086</v>
       </c>
       <c r="BC10" s="0">
-        <v>0.00312042236328125</v>
+        <v>1.4770545959472656</v>
       </c>
       <c r="BD10" s="0">
         <v>27.391304347826086</v>
       </c>
       <c r="BE10" s="0">
-        <v>0.00308990478515625</v>
+        <v>1.4797210693359375</v>
       </c>
       <c r="BF10" s="0">
         <v>28.391304347826086</v>
       </c>
       <c r="BG10" s="0">
-        <v>0.00299072265625</v>
+        <v>1.4812545776367188</v>
       </c>
       <c r="BH10" s="0">
         <v>29.391304347826086</v>
@@ -10825,181 +10828,181 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4808883666992188</v>
       </c>
       <c r="B11" s="0">
         <v>0.43478260869565216</v>
       </c>
       <c r="C11" s="0">
-        <v>0.003948211669921875</v>
+        <v>1.4783058166503906</v>
       </c>
       <c r="D11" s="0">
         <v>1.4347826086956521</v>
       </c>
       <c r="E11" s="0">
-        <v>0.003719329833984375</v>
+        <v>1.4790992736816406</v>
       </c>
       <c r="F11" s="0">
         <v>2.4347826086956523</v>
       </c>
       <c r="G11" s="0">
-        <v>0.003681182861328125</v>
+        <v>1.4821662902832031</v>
       </c>
       <c r="H11" s="0">
         <v>3.4347826086956523</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0035858154296875</v>
+        <v>1.4872322082519531</v>
       </c>
       <c r="J11" s="0">
         <v>4.4347826086956523</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0032501220703125</v>
+        <v>1.4929008483886719</v>
       </c>
       <c r="L11" s="0">
         <v>5.4347826086956523</v>
       </c>
       <c r="M11" s="0">
-        <v>0.003082275390625</v>
+        <v>1.4995307922363281</v>
       </c>
       <c r="N11" s="0">
         <v>6.4347826086956523</v>
       </c>
       <c r="O11" s="0">
-        <v>0.0030059814453125</v>
+        <v>1.508575439453125</v>
       </c>
       <c r="P11" s="0">
         <v>7.4347826086956523</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.0030059814453125</v>
+        <v>1.5125198364257812</v>
       </c>
       <c r="R11" s="0">
         <v>8.4347826086956523</v>
       </c>
       <c r="S11" s="0">
-        <v>0.003108978271484375</v>
+        <v>1.5166168212890625</v>
       </c>
       <c r="T11" s="0">
         <v>9.4347826086956523</v>
       </c>
       <c r="U11" s="0">
-        <v>0.003276824951171875</v>
+        <v>1.5104866027832031</v>
       </c>
       <c r="V11" s="0">
         <v>10.434782608695652</v>
       </c>
       <c r="W11" s="0">
-        <v>0.003513336181640625</v>
+        <v>1.5009651184082031</v>
       </c>
       <c r="X11" s="0">
         <v>11.434782608695652</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.00356292724609375</v>
+        <v>1.4923286437988281</v>
       </c>
       <c r="Z11" s="0">
         <v>12.434782608695652</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.003742218017578125</v>
+        <v>1.4859237670898438</v>
       </c>
       <c r="AB11" s="0">
         <v>13.434782608695652</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.4866485595703125</v>
       </c>
       <c r="AD11" s="0">
         <v>14.434782608695652</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.003711700439453125</v>
+        <v>1.4873733520507812</v>
       </c>
       <c r="AF11" s="0">
         <v>15.434782608695652</v>
       </c>
       <c r="AG11" s="0">
-        <v>0.0036468505859375</v>
+        <v>1.4862594604492188</v>
       </c>
       <c r="AH11" s="0">
         <v>16.434782608695652</v>
       </c>
       <c r="AI11" s="0">
-        <v>0.003734588623046875</v>
+        <v>1.4866981506347656</v>
       </c>
       <c r="AJ11" s="0">
         <v>17.434782608695652</v>
       </c>
       <c r="AK11" s="0">
-        <v>0.003688812255859375</v>
+        <v>1.4864425659179688</v>
       </c>
       <c r="AL11" s="0">
         <v>18.434782608695652</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.003635406494140625</v>
+        <v>1.4872512817382812</v>
       </c>
       <c r="AN11" s="0">
         <v>19.434782608695652</v>
       </c>
       <c r="AO11" s="0">
-        <v>0.003818511962890625</v>
+        <v>1.4883842468261719</v>
       </c>
       <c r="AP11" s="0">
         <v>20.434782608695652</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.003650665283203125</v>
+        <v>1.4897232055664062</v>
       </c>
       <c r="AR11" s="0">
         <v>21.434782608695652</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.003704071044921875</v>
+        <v>1.4874534606933594</v>
       </c>
       <c r="AT11" s="0">
         <v>22.434782608695652</v>
       </c>
       <c r="AU11" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.4869956970214844</v>
       </c>
       <c r="AV11" s="0">
         <v>23.434782608695652</v>
       </c>
       <c r="AW11" s="0">
-        <v>0.00374603271484375</v>
+        <v>1.4842414855957031</v>
       </c>
       <c r="AX11" s="0">
         <v>24.434782608695652</v>
       </c>
       <c r="AY11" s="0">
-        <v>0.003635406494140625</v>
+        <v>1.4873695373535156</v>
       </c>
       <c r="AZ11" s="0">
         <v>25.434782608695652</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.00374603271484375</v>
+        <v>1.48583984375</v>
       </c>
       <c r="BB11" s="0">
         <v>26.434782608695652</v>
       </c>
       <c r="BC11" s="0">
-        <v>0.003673553466796875</v>
+        <v>1.4841842651367188</v>
       </c>
       <c r="BD11" s="0">
         <v>27.434782608695652</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.003749847412109375</v>
+        <v>1.4861869812011719</v>
       </c>
       <c r="BF11" s="0">
         <v>28.434782608695652</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.4861869812011719</v>
       </c>
       <c r="BH11" s="0">
         <v>29.434782608695652</v>
@@ -11187,181 +11190,181 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.004009246826171875</v>
+        <v>1.4862022399902344</v>
       </c>
       <c r="B12" s="0">
         <v>0.47826086956521741</v>
       </c>
       <c r="C12" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4819793701171875</v>
       </c>
       <c r="D12" s="0">
         <v>1.4782608695652173</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00397491455078125</v>
+        <v>1.4829254150390625</v>
       </c>
       <c r="F12" s="0">
         <v>2.4782608695652173</v>
       </c>
       <c r="G12" s="0">
-        <v>0.003814697265625</v>
+        <v>1.4857673645019531</v>
       </c>
       <c r="H12" s="0">
         <v>3.4782608695652173</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4902915954589844</v>
       </c>
       <c r="J12" s="0">
         <v>4.4782608695652177</v>
       </c>
       <c r="K12" s="0">
-        <v>0.0039215087890625</v>
+        <v>1.4946784973144531</v>
       </c>
       <c r="L12" s="0">
         <v>5.4782608695652177</v>
       </c>
       <c r="M12" s="0">
-        <v>0.00347137451171875</v>
+        <v>1.5035934448242188</v>
       </c>
       <c r="N12" s="0">
         <v>6.4782608695652177</v>
       </c>
       <c r="O12" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.5115928649902344</v>
       </c>
       <c r="P12" s="0">
         <v>7.4782608695652177</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.00351715087890625</v>
+        <v>1.5144195556640625</v>
       </c>
       <c r="R12" s="0">
         <v>8.4782608695652169</v>
       </c>
       <c r="S12" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.5181198120117188</v>
       </c>
       <c r="T12" s="0">
         <v>9.4782608695652169</v>
       </c>
       <c r="U12" s="0">
-        <v>0.003665924072265625</v>
+        <v>1.5113372802734375</v>
       </c>
       <c r="V12" s="0">
         <v>10.478260869565217</v>
       </c>
       <c r="W12" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.501708984375</v>
       </c>
       <c r="X12" s="0">
         <v>11.478260869565217</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4944992065429688</v>
       </c>
       <c r="Z12" s="0">
         <v>12.478260869565217</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.00389862060546875</v>
+        <v>1.489715576171875</v>
       </c>
       <c r="AB12" s="0">
         <v>13.478260869565217</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.00382232666015625</v>
+        <v>1.4897613525390625</v>
       </c>
       <c r="AD12" s="0">
         <v>14.478260869565217</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.003936767578125</v>
+        <v>1.490509033203125</v>
       </c>
       <c r="AF12" s="0">
         <v>15.478260869565217</v>
       </c>
       <c r="AG12" s="0">
-        <v>0.003932952880859375</v>
+        <v>1.4895286560058594</v>
       </c>
       <c r="AH12" s="0">
         <v>16.478260869565219</v>
       </c>
       <c r="AI12" s="0">
-        <v>0.00389862060546875</v>
+        <v>1.4883842468261719</v>
       </c>
       <c r="AJ12" s="0">
         <v>17.478260869565219</v>
       </c>
       <c r="AK12" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4905357360839844</v>
       </c>
       <c r="AL12" s="0">
         <v>18.478260869565219</v>
       </c>
       <c r="AM12" s="0">
-        <v>0.003978729248046875</v>
+        <v>1.4893341064453125</v>
       </c>
       <c r="AN12" s="0">
         <v>19.478260869565219</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.00392913818359375</v>
+        <v>1.4905776977539062</v>
       </c>
       <c r="AP12" s="0">
         <v>20.478260869565219</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0.004093170166015625</v>
+        <v>1.4920730590820312</v>
       </c>
       <c r="AR12" s="0">
         <v>21.478260869565219</v>
       </c>
       <c r="AS12" s="0">
-        <v>0.003871917724609375</v>
+        <v>1.4914207458496094</v>
       </c>
       <c r="AT12" s="0">
         <v>22.478260869565219</v>
       </c>
       <c r="AU12" s="0">
-        <v>0.003879547119140625</v>
+        <v>1.4881324768066406</v>
       </c>
       <c r="AV12" s="0">
         <v>23.478260869565219</v>
       </c>
       <c r="AW12" s="0">
-        <v>0.003856658935546875</v>
+        <v>1.4896163940429688</v>
       </c>
       <c r="AX12" s="0">
         <v>24.478260869565219</v>
       </c>
       <c r="AY12" s="0">
-        <v>0.00386810302734375</v>
+        <v>1.4898414611816406</v>
       </c>
       <c r="AZ12" s="0">
         <v>25.478260869565219</v>
       </c>
       <c r="BA12" s="0">
-        <v>0.003902435302734375</v>
+        <v>1.4882049560546875</v>
       </c>
       <c r="BB12" s="0">
         <v>26.478260869565219</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.003932952880859375</v>
+        <v>1.4878616333007812</v>
       </c>
       <c r="BD12" s="0">
         <v>27.478260869565219</v>
       </c>
       <c r="BE12" s="0">
-        <v>0.00374603271484375</v>
+        <v>1.4895401000976562</v>
       </c>
       <c r="BF12" s="0">
         <v>28.478260869565219</v>
       </c>
       <c r="BG12" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4889564514160156</v>
       </c>
       <c r="BH12" s="0">
         <v>29.478260869565219</v>
@@ -11549,181 +11552,181 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.004016876220703125</v>
+        <v>1.48724365234375</v>
       </c>
       <c r="B13" s="0">
         <v>0.52173913043478259</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0040283203125</v>
+        <v>1.4840850830078125</v>
       </c>
       <c r="D13" s="0">
         <v>1.5217391304347827</v>
       </c>
       <c r="E13" s="0">
-        <v>0.003963470458984375</v>
+        <v>1.4851608276367188</v>
       </c>
       <c r="F13" s="0">
         <v>2.5217391304347827</v>
       </c>
       <c r="G13" s="0">
-        <v>0.00402069091796875</v>
+        <v>1.4867515563964844</v>
       </c>
       <c r="H13" s="0">
         <v>3.5217391304347827</v>
       </c>
       <c r="I13" s="0">
-        <v>0.00395965576171875</v>
+        <v>1.4896125793457031</v>
       </c>
       <c r="J13" s="0">
         <v>4.5217391304347823</v>
       </c>
       <c r="K13" s="0">
-        <v>0.0037689208984375</v>
+        <v>1.4920196533203125</v>
       </c>
       <c r="L13" s="0">
         <v>5.5217391304347823</v>
       </c>
       <c r="M13" s="0">
-        <v>0.003650665283203125</v>
+        <v>1.5013236999511719</v>
       </c>
       <c r="N13" s="0">
         <v>6.5217391304347823</v>
       </c>
       <c r="O13" s="0">
-        <v>0.003692626953125</v>
+        <v>1.505706787109375</v>
       </c>
       <c r="P13" s="0">
         <v>7.5217391304347823</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.5074996948242188</v>
       </c>
       <c r="R13" s="0">
         <v>8.5217391304347831</v>
       </c>
       <c r="S13" s="0">
-        <v>0.00362396240234375</v>
+        <v>1.510223388671875</v>
       </c>
       <c r="T13" s="0">
         <v>9.5217391304347831</v>
       </c>
       <c r="U13" s="0">
-        <v>0.003650665283203125</v>
+        <v>1.5046539306640625</v>
       </c>
       <c r="V13" s="0">
         <v>10.521739130434783</v>
       </c>
       <c r="W13" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4977912902832031</v>
       </c>
       <c r="X13" s="0">
         <v>11.521739130434783</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.003753662109375</v>
+        <v>1.4929580688476562</v>
       </c>
       <c r="Z13" s="0">
         <v>12.521739130434783</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.00397491455078125</v>
+        <v>1.4903564453125</v>
       </c>
       <c r="AB13" s="0">
         <v>13.521739130434783</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.004001617431640625</v>
+        <v>1.4896965026855469</v>
       </c>
       <c r="AD13" s="0">
         <v>14.521739130434783</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.004001617431640625</v>
+        <v>1.4907150268554688</v>
       </c>
       <c r="AF13" s="0">
         <v>15.521739130434783</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.00384521484375</v>
+        <v>1.4887771606445312</v>
       </c>
       <c r="AH13" s="0">
         <v>16.521739130434781</v>
       </c>
       <c r="AI13" s="0">
-        <v>0.00399017333984375</v>
+        <v>1.4887123107910156</v>
       </c>
       <c r="AJ13" s="0">
         <v>17.521739130434781</v>
       </c>
       <c r="AK13" s="0">
-        <v>0.003814697265625</v>
+        <v>1.4893989562988281</v>
       </c>
       <c r="AL13" s="0">
         <v>18.521739130434781</v>
       </c>
       <c r="AM13" s="0">
-        <v>0.00405120849609375</v>
+        <v>1.4895553588867188</v>
       </c>
       <c r="AN13" s="0">
         <v>19.521739130434781</v>
       </c>
       <c r="AO13" s="0">
-        <v>0.00395965576171875</v>
+        <v>1.4897079467773438</v>
       </c>
       <c r="AP13" s="0">
         <v>20.521739130434781</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0.003986358642578125</v>
+        <v>1.4907760620117188</v>
       </c>
       <c r="AR13" s="0">
         <v>21.521739130434781</v>
       </c>
       <c r="AS13" s="0">
-        <v>0.0040740966796875</v>
+        <v>1.4906082153320312</v>
       </c>
       <c r="AT13" s="0">
         <v>22.521739130434781</v>
       </c>
       <c r="AU13" s="0">
-        <v>0.003810882568359375</v>
+        <v>1.4887886047363281</v>
       </c>
       <c r="AV13" s="0">
         <v>23.521739130434781</v>
       </c>
       <c r="AW13" s="0">
-        <v>0.004009246826171875</v>
+        <v>1.4898109436035156</v>
       </c>
       <c r="AX13" s="0">
         <v>24.521739130434781</v>
       </c>
       <c r="AY13" s="0">
-        <v>0.00394439697265625</v>
+        <v>1.4886131286621094</v>
       </c>
       <c r="AZ13" s="0">
         <v>25.521739130434781</v>
       </c>
       <c r="BA13" s="0">
-        <v>0.003833770751953125</v>
+        <v>1.4879341125488281</v>
       </c>
       <c r="BB13" s="0">
         <v>26.521739130434781</v>
       </c>
       <c r="BC13" s="0">
-        <v>0.00408172607421875</v>
+        <v>1.4888763427734375</v>
       </c>
       <c r="BD13" s="0">
         <v>27.521739130434781</v>
       </c>
       <c r="BE13" s="0">
-        <v>0.003955841064453125</v>
+        <v>1.4890251159667969</v>
       </c>
       <c r="BF13" s="0">
         <v>28.521739130434781</v>
       </c>
       <c r="BG13" s="0">
-        <v>0.004024505615234375</v>
+        <v>1.4885025024414062</v>
       </c>
       <c r="BH13" s="0">
         <v>29.521739130434781</v>
@@ -11911,181 +11914,181 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.003997802734375</v>
+        <v>1.4872207641601562</v>
       </c>
       <c r="B14" s="0">
         <v>0.56521739130434778</v>
       </c>
       <c r="C14" s="0">
-        <v>0.003986358642578125</v>
+        <v>1.4864349365234375</v>
       </c>
       <c r="D14" s="0">
         <v>1.5652173913043477</v>
       </c>
       <c r="E14" s="0">
-        <v>0.003910064697265625</v>
+        <v>1.4867324829101562</v>
       </c>
       <c r="F14" s="0">
         <v>2.5652173913043477</v>
       </c>
       <c r="G14" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4867935180664062</v>
       </c>
       <c r="H14" s="0">
         <v>3.5652173913043477</v>
       </c>
       <c r="I14" s="0">
-        <v>0.003688812255859375</v>
+        <v>1.4896621704101562</v>
       </c>
       <c r="J14" s="0">
         <v>4.5652173913043477</v>
       </c>
       <c r="K14" s="0">
-        <v>0.003814697265625</v>
+        <v>1.4923820495605469</v>
       </c>
       <c r="L14" s="0">
         <v>5.5652173913043477</v>
       </c>
       <c r="M14" s="0">
-        <v>0.003692626953125</v>
+        <v>1.4988441467285156</v>
       </c>
       <c r="N14" s="0">
         <v>6.5652173913043477</v>
       </c>
       <c r="O14" s="0">
-        <v>0.00360870361328125</v>
+        <v>1.5040168762207031</v>
       </c>
       <c r="P14" s="0">
         <v>7.5652173913043477</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.003459930419921875</v>
+        <v>1.5057563781738281</v>
       </c>
       <c r="R14" s="0">
         <v>8.5652173913043477</v>
       </c>
       <c r="S14" s="0">
-        <v>0.00351715087890625</v>
+        <v>1.5064849853515625</v>
       </c>
       <c r="T14" s="0">
         <v>9.5652173913043477</v>
       </c>
       <c r="U14" s="0">
-        <v>0.00342559814453125</v>
+        <v>1.5024795532226562</v>
       </c>
       <c r="V14" s="0">
         <v>10.565217391304348</v>
       </c>
       <c r="W14" s="0">
-        <v>0.0035400390625</v>
+        <v>1.497650146484375</v>
       </c>
       <c r="X14" s="0">
         <v>11.565217391304348</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.0035858154296875</v>
+        <v>1.4934730529785156</v>
       </c>
       <c r="Z14" s="0">
         <v>12.565217391304348</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4906082153320312</v>
       </c>
       <c r="AB14" s="0">
         <v>13.565217391304348</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.4904212951660156</v>
       </c>
       <c r="AD14" s="0">
         <v>14.565217391304348</v>
       </c>
       <c r="AE14" s="0">
-        <v>0.003719329833984375</v>
+        <v>1.4902381896972656</v>
       </c>
       <c r="AF14" s="0">
         <v>15.565217391304348</v>
       </c>
       <c r="AG14" s="0">
-        <v>0.003726959228515625</v>
+        <v>1.4885711669921875</v>
       </c>
       <c r="AH14" s="0">
         <v>16.565217391304348</v>
       </c>
       <c r="AI14" s="0">
-        <v>0.003726959228515625</v>
+        <v>1.4890365600585938</v>
       </c>
       <c r="AJ14" s="0">
         <v>17.565217391304348</v>
       </c>
       <c r="AK14" s="0">
-        <v>0.0038909912109375</v>
+        <v>1.4881973266601562</v>
       </c>
       <c r="AL14" s="0">
         <v>18.565217391304348</v>
       </c>
       <c r="AM14" s="0">
-        <v>0.0039825439453125</v>
+        <v>1.4910049438476562</v>
       </c>
       <c r="AN14" s="0">
         <v>19.565217391304348</v>
       </c>
       <c r="AO14" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4907684326171875</v>
       </c>
       <c r="AP14" s="0">
         <v>20.565217391304348</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.4911155700683594</v>
       </c>
       <c r="AR14" s="0">
         <v>21.565217391304348</v>
       </c>
       <c r="AS14" s="0">
-        <v>0.003841400146484375</v>
+        <v>1.4909095764160156</v>
       </c>
       <c r="AT14" s="0">
         <v>22.565217391304348</v>
       </c>
       <c r="AU14" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.4902114868164062</v>
       </c>
       <c r="AV14" s="0">
         <v>23.565217391304348</v>
       </c>
       <c r="AW14" s="0">
-        <v>0.00386810302734375</v>
+        <v>1.4887619018554688</v>
       </c>
       <c r="AX14" s="0">
         <v>24.565217391304348</v>
       </c>
       <c r="AY14" s="0">
-        <v>0.003787994384765625</v>
+        <v>1.4890022277832031</v>
       </c>
       <c r="AZ14" s="0">
         <v>25.565217391304348</v>
       </c>
       <c r="BA14" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.488067626953125</v>
       </c>
       <c r="BB14" s="0">
         <v>26.565217391304348</v>
       </c>
       <c r="BC14" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.4894981384277344</v>
       </c>
       <c r="BD14" s="0">
         <v>27.565217391304348</v>
       </c>
       <c r="BE14" s="0">
-        <v>0.003871917724609375</v>
+        <v>1.4889984130859375</v>
       </c>
       <c r="BF14" s="0">
         <v>28.565217391304348</v>
       </c>
       <c r="BG14" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4890174865722656</v>
       </c>
       <c r="BH14" s="0">
         <v>29.565217391304348</v>
@@ -12273,181 +12276,181 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.48712158203125</v>
       </c>
       <c r="B15" s="0">
         <v>0.60869565217391308</v>
       </c>
       <c r="C15" s="0">
-        <v>0.003818511962890625</v>
+        <v>1.4863510131835938</v>
       </c>
       <c r="D15" s="0">
         <v>1.6086956521739131</v>
       </c>
       <c r="E15" s="0">
-        <v>0.003742218017578125</v>
+        <v>1.4856033325195312</v>
       </c>
       <c r="F15" s="0">
         <v>2.6086956521739131</v>
       </c>
       <c r="G15" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.4872703552246094</v>
       </c>
       <c r="H15" s="0">
         <v>3.6086956521739131</v>
       </c>
       <c r="I15" s="0">
-        <v>0.003635406494140625</v>
+        <v>1.4876785278320312</v>
       </c>
       <c r="J15" s="0">
         <v>4.6086956521739131</v>
       </c>
       <c r="K15" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.4908599853515625</v>
       </c>
       <c r="L15" s="0">
         <v>5.6086956521739131</v>
       </c>
       <c r="M15" s="0">
-        <v>0.003787994384765625</v>
+        <v>1.4961700439453125</v>
       </c>
       <c r="N15" s="0">
         <v>6.6086956521739131</v>
       </c>
       <c r="O15" s="0">
-        <v>0.00351715087890625</v>
+        <v>1.5022315979003906</v>
       </c>
       <c r="P15" s="0">
         <v>7.6086956521739131</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.003543853759765625</v>
+        <v>1.5045585632324219</v>
       </c>
       <c r="R15" s="0">
         <v>8.608695652173914</v>
       </c>
       <c r="S15" s="0">
-        <v>0.0033721923828125</v>
+        <v>1.506561279296875</v>
       </c>
       <c r="T15" s="0">
         <v>9.608695652173914</v>
       </c>
       <c r="U15" s="0">
-        <v>0.003299713134765625</v>
+        <v>1.5010833740234375</v>
       </c>
       <c r="V15" s="0">
         <v>10.608695652173914</v>
       </c>
       <c r="W15" s="0">
-        <v>0.003406524658203125</v>
+        <v>1.4969635009765625</v>
       </c>
       <c r="X15" s="0">
         <v>11.608695652173914</v>
       </c>
       <c r="Y15" s="0">
-        <v>0.003448486328125</v>
+        <v>1.4917182922363281</v>
       </c>
       <c r="Z15" s="0">
         <v>12.608695652173914</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.0034332275390625</v>
+        <v>1.4886741638183594</v>
       </c>
       <c r="AB15" s="0">
         <v>13.608695652173914</v>
       </c>
       <c r="AC15" s="0">
-        <v>0.0036468505859375</v>
+        <v>1.4892005920410156</v>
       </c>
       <c r="AD15" s="0">
         <v>14.608695652173914</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.4881553649902344</v>
       </c>
       <c r="AF15" s="0">
         <v>15.608695652173914</v>
       </c>
       <c r="AG15" s="0">
-        <v>0.00354766845703125</v>
+        <v>1.4875602722167969</v>
       </c>
       <c r="AH15" s="0">
         <v>16.608695652173914</v>
       </c>
       <c r="AI15" s="0">
-        <v>0.0036773681640625</v>
+        <v>1.4884757995605469</v>
       </c>
       <c r="AJ15" s="0">
         <v>17.608695652173914</v>
       </c>
       <c r="AK15" s="0">
-        <v>0.003757476806640625</v>
+        <v>1.4881629943847656</v>
       </c>
       <c r="AL15" s="0">
         <v>18.608695652173914</v>
       </c>
       <c r="AM15" s="0">
-        <v>0.003704071044921875</v>
+        <v>1.4901504516601562</v>
       </c>
       <c r="AN15" s="0">
         <v>19.608695652173914</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.003551483154296875</v>
+        <v>1.4907150268554688</v>
       </c>
       <c r="AP15" s="0">
         <v>20.608695652173914</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0.003589630126953125</v>
+        <v>1.4885826110839844</v>
       </c>
       <c r="AR15" s="0">
         <v>21.608695652173914</v>
       </c>
       <c r="AS15" s="0">
-        <v>0.003650665283203125</v>
+        <v>1.4915122985839844</v>
       </c>
       <c r="AT15" s="0">
         <v>22.608695652173914</v>
       </c>
       <c r="AU15" s="0">
-        <v>0.003696441650390625</v>
+        <v>1.4911079406738281</v>
       </c>
       <c r="AV15" s="0">
         <v>23.608695652173914</v>
       </c>
       <c r="AW15" s="0">
-        <v>0.00380706787109375</v>
+        <v>1.4878578186035156</v>
       </c>
       <c r="AX15" s="0">
         <v>24.608695652173914</v>
       </c>
       <c r="AY15" s="0">
-        <v>0.0037841796875</v>
+        <v>1.4878387451171875</v>
       </c>
       <c r="AZ15" s="0">
         <v>25.608695652173914</v>
       </c>
       <c r="BA15" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.487091064453125</v>
       </c>
       <c r="BB15" s="0">
         <v>26.608695652173914</v>
       </c>
       <c r="BC15" s="0">
-        <v>0.00374603271484375</v>
+        <v>1.4888420104980469</v>
       </c>
       <c r="BD15" s="0">
         <v>27.608695652173914</v>
       </c>
       <c r="BE15" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.4874954223632812</v>
       </c>
       <c r="BF15" s="0">
         <v>28.608695652173914</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.003787994384765625</v>
+        <v>1.48834228515625</v>
       </c>
       <c r="BH15" s="0">
         <v>29.608695652173914</v>
@@ -12635,181 +12638,181 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.003662109375</v>
+        <v>1.4842987060546875</v>
       </c>
       <c r="B16" s="0">
         <v>0.65217391304347827</v>
       </c>
       <c r="C16" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.482818603515625</v>
       </c>
       <c r="D16" s="0">
         <v>1.6521739130434783</v>
       </c>
       <c r="E16" s="0">
-        <v>0.00380706787109375</v>
+        <v>1.4819221496582031</v>
       </c>
       <c r="F16" s="0">
         <v>2.6521739130434785</v>
       </c>
       <c r="G16" s="0">
-        <v>0.00359344482421875</v>
+        <v>1.4840164184570312</v>
       </c>
       <c r="H16" s="0">
         <v>3.6521739130434785</v>
       </c>
       <c r="I16" s="0">
-        <v>0.0037689208984375</v>
+        <v>1.48382568359375</v>
       </c>
       <c r="J16" s="0">
         <v>4.6521739130434785</v>
       </c>
       <c r="K16" s="0">
-        <v>0.003726959228515625</v>
+        <v>1.4875221252441406</v>
       </c>
       <c r="L16" s="0">
         <v>5.6521739130434785</v>
       </c>
       <c r="M16" s="0">
-        <v>0.003658294677734375</v>
+        <v>1.4908409118652344</v>
       </c>
       <c r="N16" s="0">
         <v>6.6521739130434785</v>
       </c>
       <c r="O16" s="0">
-        <v>0.0034637451171875</v>
+        <v>1.4966545104980469</v>
       </c>
       <c r="P16" s="0">
         <v>7.6521739130434785</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.003475189208984375</v>
+        <v>1.4995079040527344</v>
       </c>
       <c r="R16" s="0">
         <v>8.6521739130434785</v>
       </c>
       <c r="S16" s="0">
-        <v>0.00341033935546875</v>
+        <v>1.5007133483886719</v>
       </c>
       <c r="T16" s="0">
         <v>9.6521739130434785</v>
       </c>
       <c r="U16" s="0">
-        <v>0.0034332275390625</v>
+        <v>1.4962387084960938</v>
       </c>
       <c r="V16" s="0">
         <v>10.652173913043478</v>
       </c>
       <c r="W16" s="0">
-        <v>0.003452301025390625</v>
+        <v>1.4933624267578125</v>
       </c>
       <c r="X16" s="0">
         <v>11.652173913043478</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.003459930419921875</v>
+        <v>1.4885444641113281</v>
       </c>
       <c r="Z16" s="0">
         <v>12.652173913043478</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.00344085693359375</v>
+        <v>1.4857749938964844</v>
       </c>
       <c r="AB16" s="0">
         <v>13.652173913043478</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.00360107421875</v>
+        <v>1.4863166809082031</v>
       </c>
       <c r="AD16" s="0">
         <v>14.652173913043478</v>
       </c>
       <c r="AE16" s="0">
-        <v>0.0036773681640625</v>
+        <v>1.4841575622558594</v>
       </c>
       <c r="AF16" s="0">
         <v>15.652173913043478</v>
       </c>
       <c r="AG16" s="0">
-        <v>0.003692626953125</v>
+        <v>1.483551025390625</v>
       </c>
       <c r="AH16" s="0">
         <v>16.652173913043477</v>
       </c>
       <c r="AI16" s="0">
-        <v>0.003658294677734375</v>
+        <v>1.4858322143554688</v>
       </c>
       <c r="AJ16" s="0">
         <v>17.652173913043477</v>
       </c>
       <c r="AK16" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4854545593261719</v>
       </c>
       <c r="AL16" s="0">
         <v>18.652173913043477</v>
       </c>
       <c r="AM16" s="0">
-        <v>0.003627777099609375</v>
+        <v>1.4856643676757812</v>
       </c>
       <c r="AN16" s="0">
         <v>19.652173913043477</v>
       </c>
       <c r="AO16" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4868392944335938</v>
       </c>
       <c r="AP16" s="0">
         <v>20.652173913043477</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0.0036468505859375</v>
+        <v>1.4846458435058594</v>
       </c>
       <c r="AR16" s="0">
         <v>21.652173913043477</v>
       </c>
       <c r="AS16" s="0">
-        <v>0.0036163330078125</v>
+        <v>1.487518310546875</v>
       </c>
       <c r="AT16" s="0">
         <v>22.652173913043477</v>
       </c>
       <c r="AU16" s="0">
-        <v>0.00388336181640625</v>
+        <v>1.4884567260742188</v>
       </c>
       <c r="AV16" s="0">
         <v>23.652173913043477</v>
       </c>
       <c r="AW16" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4853668212890625</v>
       </c>
       <c r="AX16" s="0">
         <v>24.652173913043477</v>
       </c>
       <c r="AY16" s="0">
-        <v>0.003963470458984375</v>
+        <v>1.4850425720214844</v>
       </c>
       <c r="AZ16" s="0">
         <v>25.652173913043477</v>
       </c>
       <c r="BA16" s="0">
-        <v>0.003772735595703125</v>
+        <v>1.4847030639648438</v>
       </c>
       <c r="BB16" s="0">
         <v>26.652173913043477</v>
       </c>
       <c r="BC16" s="0">
-        <v>0.00372314453125</v>
+        <v>1.4859504699707031</v>
       </c>
       <c r="BD16" s="0">
         <v>27.652173913043477</v>
       </c>
       <c r="BE16" s="0">
-        <v>0.00377655029296875</v>
+        <v>1.4845466613769531</v>
       </c>
       <c r="BF16" s="0">
         <v>28.652173913043477</v>
       </c>
       <c r="BG16" s="0">
-        <v>0.00359344482421875</v>
+        <v>1.4848098754882812</v>
       </c>
       <c r="BH16" s="0">
         <v>29.652173913043477</v>
@@ -12997,181 +13000,181 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0038909912109375</v>
+        <v>1.4797744750976562</v>
       </c>
       <c r="B17" s="0">
         <v>0.69565217391304346</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0037994384765625</v>
+        <v>1.4777412414550781</v>
       </c>
       <c r="D17" s="0">
         <v>1.6956521739130435</v>
       </c>
       <c r="E17" s="0">
-        <v>0.003772735595703125</v>
+        <v>1.4793739318847656</v>
       </c>
       <c r="F17" s="0">
         <v>2.6956521739130435</v>
       </c>
       <c r="G17" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.4808769226074219</v>
       </c>
       <c r="H17" s="0">
         <v>3.6956521739130435</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.4799232482910156</v>
       </c>
       <c r="J17" s="0">
         <v>4.695652173913043</v>
       </c>
       <c r="K17" s="0">
-        <v>0.0035552978515625</v>
+        <v>1.4820899963378906</v>
       </c>
       <c r="L17" s="0">
         <v>5.695652173913043</v>
       </c>
       <c r="M17" s="0">
-        <v>0.003597259521484375</v>
+        <v>1.4863967895507812</v>
       </c>
       <c r="N17" s="0">
         <v>6.695652173913043</v>
       </c>
       <c r="O17" s="0">
-        <v>0.00365447998046875</v>
+        <v>1.4900627136230469</v>
       </c>
       <c r="P17" s="0">
         <v>7.695652173913043</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.003650665283203125</v>
+        <v>1.4942970275878906</v>
       </c>
       <c r="R17" s="0">
         <v>8.695652173913043</v>
       </c>
       <c r="S17" s="0">
-        <v>0.003448486328125</v>
+        <v>1.4945869445800781</v>
       </c>
       <c r="T17" s="0">
         <v>9.695652173913043</v>
       </c>
       <c r="U17" s="0">
-        <v>0.003360748291015625</v>
+        <v>1.4922409057617188</v>
       </c>
       <c r="V17" s="0">
         <v>10.695652173913043</v>
       </c>
       <c r="W17" s="0">
-        <v>0.003330230712890625</v>
+        <v>1.4897308349609375</v>
       </c>
       <c r="X17" s="0">
         <v>11.695652173913043</v>
       </c>
       <c r="Y17" s="0">
-        <v>0.003490447998046875</v>
+        <v>1.4852409362792969</v>
       </c>
       <c r="Z17" s="0">
         <v>12.695652173913043</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.003692626953125</v>
+        <v>1.4828643798828125</v>
       </c>
       <c r="AB17" s="0">
         <v>13.695652173913043</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.003757476806640625</v>
+        <v>1.4815101623535156</v>
       </c>
       <c r="AD17" s="0">
         <v>14.695652173913043</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.003841400146484375</v>
+        <v>1.4811782836914062</v>
       </c>
       <c r="AF17" s="0">
         <v>15.695652173913043</v>
       </c>
       <c r="AG17" s="0">
-        <v>0.0037689208984375</v>
+        <v>1.4810104370117188</v>
       </c>
       <c r="AH17" s="0">
         <v>16.695652173913043</v>
       </c>
       <c r="AI17" s="0">
-        <v>0.0035552978515625</v>
+        <v>1.4821014404296875</v>
       </c>
       <c r="AJ17" s="0">
         <v>17.695652173913043</v>
       </c>
       <c r="AK17" s="0">
-        <v>0.003753662109375</v>
+        <v>1.4814796447753906</v>
       </c>
       <c r="AL17" s="0">
         <v>18.695652173913043</v>
       </c>
       <c r="AM17" s="0">
-        <v>0.0037841796875</v>
+        <v>1.4817047119140625</v>
       </c>
       <c r="AN17" s="0">
         <v>19.695652173913043</v>
       </c>
       <c r="AO17" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4829673767089844</v>
       </c>
       <c r="AP17" s="0">
         <v>20.695652173913043</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.0037994384765625</v>
+        <v>1.4815483093261719</v>
       </c>
       <c r="AR17" s="0">
         <v>21.695652173913043</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.0037384033203125</v>
+        <v>1.4828567504882812</v>
       </c>
       <c r="AT17" s="0">
         <v>22.695652173913043</v>
       </c>
       <c r="AU17" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4837760925292969</v>
       </c>
       <c r="AV17" s="0">
         <v>23.695652173913043</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.0037841796875</v>
+        <v>1.4822998046875</v>
       </c>
       <c r="AX17" s="0">
         <v>24.695652173913043</v>
       </c>
       <c r="AY17" s="0">
-        <v>0.0037841796875</v>
+        <v>1.4820709228515625</v>
       </c>
       <c r="AZ17" s="0">
         <v>25.695652173913043</v>
       </c>
       <c r="BA17" s="0">
-        <v>0.00379180908203125</v>
+        <v>1.4819145202636719</v>
       </c>
       <c r="BB17" s="0">
         <v>26.695652173913043</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.00383758544921875</v>
+        <v>1.4823112487792969</v>
       </c>
       <c r="BD17" s="0">
         <v>27.695652173913043</v>
       </c>
       <c r="BE17" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.480438232421875</v>
       </c>
       <c r="BF17" s="0">
         <v>28.695652173913043</v>
       </c>
       <c r="BG17" s="0">
-        <v>0.003749847412109375</v>
+        <v>1.4809761047363281</v>
       </c>
       <c r="BH17" s="0">
         <v>29.695652173913043</v>
@@ -13359,181 +13362,181 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.00399017333984375</v>
+        <v>1.4761238098144531</v>
       </c>
       <c r="B18" s="0">
         <v>0.73913043478260865</v>
       </c>
       <c r="C18" s="0">
-        <v>0.003833770751953125</v>
+        <v>1.4757194519042969</v>
       </c>
       <c r="D18" s="0">
         <v>1.7391304347826086</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00377655029296875</v>
+        <v>1.4777984619140625</v>
       </c>
       <c r="F18" s="0">
         <v>2.7391304347826084</v>
       </c>
       <c r="G18" s="0">
-        <v>0.0037994384765625</v>
+        <v>1.4776878356933594</v>
       </c>
       <c r="H18" s="0">
         <v>3.7391304347826084</v>
       </c>
       <c r="I18" s="0">
-        <v>0.003871917724609375</v>
+        <v>1.47802734375</v>
       </c>
       <c r="J18" s="0">
         <v>4.7391304347826084</v>
       </c>
       <c r="K18" s="0">
-        <v>0.003742218017578125</v>
+        <v>1.4788246154785156</v>
       </c>
       <c r="L18" s="0">
         <v>5.7391304347826084</v>
       </c>
       <c r="M18" s="0">
-        <v>0.003711700439453125</v>
+        <v>1.482574462890625</v>
       </c>
       <c r="N18" s="0">
         <v>6.7391304347826084</v>
       </c>
       <c r="O18" s="0">
-        <v>0.003597259521484375</v>
+        <v>1.4856338500976562</v>
       </c>
       <c r="P18" s="0">
         <v>7.7391304347826084</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.00334930419921875</v>
+        <v>1.4914970397949219</v>
       </c>
       <c r="R18" s="0">
         <v>8.7391304347826093</v>
       </c>
       <c r="S18" s="0">
-        <v>0.003582000732421875</v>
+        <v>1.4903106689453125</v>
       </c>
       <c r="T18" s="0">
         <v>9.7391304347826093</v>
       </c>
       <c r="U18" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.4915008544921875</v>
       </c>
       <c r="V18" s="0">
         <v>10.739130434782609</v>
       </c>
       <c r="W18" s="0">
-        <v>0.003543853759765625</v>
+        <v>1.48980712890625</v>
       </c>
       <c r="X18" s="0">
         <v>11.739130434782609</v>
       </c>
       <c r="Y18" s="0">
-        <v>0.003570556640625</v>
+        <v>1.4843406677246094</v>
       </c>
       <c r="Z18" s="0">
         <v>12.739130434782609</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.0037078857421875</v>
+        <v>1.4827308654785156</v>
       </c>
       <c r="AB18" s="0">
         <v>13.739130434782609</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.00392913818359375</v>
+        <v>1.4787178039550781</v>
       </c>
       <c r="AD18" s="0">
         <v>14.739130434782609</v>
       </c>
       <c r="AE18" s="0">
-        <v>0.003753662109375</v>
+        <v>1.4794998168945312</v>
       </c>
       <c r="AF18" s="0">
         <v>15.739130434782609</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.003871917724609375</v>
+        <v>1.4786911010742188</v>
       </c>
       <c r="AH18" s="0">
         <v>16.739130434782609</v>
       </c>
       <c r="AI18" s="0">
-        <v>0.00376129150390625</v>
+        <v>1.479156494140625</v>
       </c>
       <c r="AJ18" s="0">
         <v>17.739130434782609</v>
       </c>
       <c r="AK18" s="0">
-        <v>0.003787994384765625</v>
+        <v>1.4799537658691406</v>
       </c>
       <c r="AL18" s="0">
         <v>18.739130434782609</v>
       </c>
       <c r="AM18" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4810600280761719</v>
       </c>
       <c r="AN18" s="0">
         <v>19.739130434782609</v>
       </c>
       <c r="AO18" s="0">
-        <v>0.00376129150390625</v>
+        <v>1.4817085266113281</v>
       </c>
       <c r="AP18" s="0">
         <v>20.739130434782609</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0.003879547119140625</v>
+        <v>1.4798393249511719</v>
       </c>
       <c r="AR18" s="0">
         <v>21.739130434782609</v>
       </c>
       <c r="AS18" s="0">
-        <v>0.003658294677734375</v>
+        <v>1.4805374145507812</v>
       </c>
       <c r="AT18" s="0">
         <v>22.739130434782609</v>
       </c>
       <c r="AU18" s="0">
-        <v>0.003833770751953125</v>
+        <v>1.4817581176757812</v>
       </c>
       <c r="AV18" s="0">
         <v>23.739130434782609</v>
       </c>
       <c r="AW18" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4805564880371094</v>
       </c>
       <c r="AX18" s="0">
         <v>24.739130434782609</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4797439575195312</v>
       </c>
       <c r="AZ18" s="0">
         <v>25.739130434782609</v>
       </c>
       <c r="BA18" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.4802322387695312</v>
       </c>
       <c r="BB18" s="0">
         <v>26.739130434782609</v>
       </c>
       <c r="BC18" s="0">
-        <v>0.00406646728515625</v>
+        <v>1.4789237976074219</v>
       </c>
       <c r="BD18" s="0">
         <v>27.739130434782609</v>
       </c>
       <c r="BE18" s="0">
-        <v>0.00380706787109375</v>
+        <v>1.4775848388671875</v>
       </c>
       <c r="BF18" s="0">
         <v>28.739130434782609</v>
       </c>
       <c r="BG18" s="0">
-        <v>0.00376129150390625</v>
+        <v>1.4787712097167969</v>
       </c>
       <c r="BH18" s="0">
         <v>29.739130434782609</v>
@@ -13721,181 +13724,181 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.003986358642578125</v>
+        <v>1.4756202697753906</v>
       </c>
       <c r="B19" s="0">
         <v>0.78260869565217384</v>
       </c>
       <c r="C19" s="0">
-        <v>0.003955841064453125</v>
+        <v>1.4745407104492188</v>
       </c>
       <c r="D19" s="0">
         <v>1.7826086956521738</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00382232666015625</v>
+        <v>1.4769668579101562</v>
       </c>
       <c r="F19" s="0">
         <v>2.7826086956521738</v>
       </c>
       <c r="G19" s="0">
-        <v>0.004016876220703125</v>
+        <v>1.4775276184082031</v>
       </c>
       <c r="H19" s="0">
         <v>3.7826086956521738</v>
       </c>
       <c r="I19" s="0">
-        <v>0.003841400146484375</v>
+        <v>1.477935791015625</v>
       </c>
       <c r="J19" s="0">
         <v>4.7826086956521738</v>
       </c>
       <c r="K19" s="0">
-        <v>0.00360107421875</v>
+        <v>1.4784355163574219</v>
       </c>
       <c r="L19" s="0">
         <v>5.7826086956521738</v>
       </c>
       <c r="M19" s="0">
-        <v>0.00380706787109375</v>
+        <v>1.48114013671875</v>
       </c>
       <c r="N19" s="0">
         <v>6.7826086956521738</v>
       </c>
       <c r="O19" s="0">
-        <v>0.0037689208984375</v>
+        <v>1.4850273132324219</v>
       </c>
       <c r="P19" s="0">
         <v>7.7826086956521738</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.003528594970703125</v>
+        <v>1.4906005859375</v>
       </c>
       <c r="R19" s="0">
         <v>8.7826086956521738</v>
       </c>
       <c r="S19" s="0">
-        <v>0.00347137451171875</v>
+        <v>1.4906196594238281</v>
       </c>
       <c r="T19" s="0">
         <v>9.7826086956521738</v>
       </c>
       <c r="U19" s="0">
-        <v>0.00360870361328125</v>
+        <v>1.4926033020019531</v>
       </c>
       <c r="V19" s="0">
         <v>10.782608695652174</v>
       </c>
       <c r="W19" s="0">
-        <v>0.00359344482421875</v>
+        <v>1.4909019470214844</v>
       </c>
       <c r="X19" s="0">
         <v>11.782608695652174</v>
       </c>
       <c r="Y19" s="0">
-        <v>0.003662109375</v>
+        <v>1.4850425720214844</v>
       </c>
       <c r="Z19" s="0">
         <v>12.782608695652174</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.003749847412109375</v>
+        <v>1.4843406677246094</v>
       </c>
       <c r="AB19" s="0">
         <v>13.782608695652174</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.003875732421875</v>
+        <v>1.4793777465820312</v>
       </c>
       <c r="AD19" s="0">
         <v>14.782608695652174</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.00394439697265625</v>
+        <v>1.4799308776855469</v>
       </c>
       <c r="AF19" s="0">
         <v>15.782608695652174</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4794273376464844</v>
       </c>
       <c r="AH19" s="0">
         <v>16.782608695652172</v>
       </c>
       <c r="AI19" s="0">
-        <v>0.003963470458984375</v>
+        <v>1.4780921936035156</v>
       </c>
       <c r="AJ19" s="0">
         <v>17.782608695652172</v>
       </c>
       <c r="AK19" s="0">
-        <v>0.003696441650390625</v>
+        <v>1.48046875</v>
       </c>
       <c r="AL19" s="0">
         <v>18.782608695652172</v>
       </c>
       <c r="AM19" s="0">
-        <v>0.003833770751953125</v>
+        <v>1.4806289672851562</v>
       </c>
       <c r="AN19" s="0">
         <v>19.782608695652172</v>
       </c>
       <c r="AO19" s="0">
-        <v>0.003879547119140625</v>
+        <v>1.4826164245605469</v>
       </c>
       <c r="AP19" s="0">
         <v>20.782608695652172</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0.003932952880859375</v>
+        <v>1.479827880859375</v>
       </c>
       <c r="AR19" s="0">
         <v>21.782608695652172</v>
       </c>
       <c r="AS19" s="0">
-        <v>0.0036468505859375</v>
+        <v>1.4804649353027344</v>
       </c>
       <c r="AT19" s="0">
         <v>22.782608695652172</v>
       </c>
       <c r="AU19" s="0">
-        <v>0.0038604736328125</v>
+        <v>1.4819793701171875</v>
       </c>
       <c r="AV19" s="0">
         <v>23.782608695652172</v>
       </c>
       <c r="AW19" s="0">
-        <v>0.004077911376953125</v>
+        <v>1.4812583923339844</v>
       </c>
       <c r="AX19" s="0">
         <v>24.782608695652172</v>
       </c>
       <c r="AY19" s="0">
-        <v>0.00396728515625</v>
+        <v>1.4796524047851562</v>
       </c>
       <c r="AZ19" s="0">
         <v>25.782608695652172</v>
       </c>
       <c r="BA19" s="0">
-        <v>0.004032135009765625</v>
+        <v>1.4806327819824219</v>
       </c>
       <c r="BB19" s="0">
         <v>26.782608695652172</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.0039520263671875</v>
+        <v>1.4778175354003906</v>
       </c>
       <c r="BD19" s="0">
         <v>27.782608695652172</v>
       </c>
       <c r="BE19" s="0">
-        <v>0.00392913818359375</v>
+        <v>1.4785308837890625</v>
       </c>
       <c r="BF19" s="0">
         <v>28.782608695652172</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4786949157714844</v>
       </c>
       <c r="BH19" s="0">
         <v>29.782608695652172</v>
@@ -14083,181 +14086,181 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.004116058349609375</v>
+        <v>1.476959228515625</v>
       </c>
       <c r="B20" s="0">
         <v>0.82608695652173914</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00409698486328125</v>
+        <v>1.4746017456054688</v>
       </c>
       <c r="D20" s="0">
         <v>1.8260869565217392</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00390625</v>
+        <v>1.4760208129882812</v>
       </c>
       <c r="F20" s="0">
         <v>2.8260869565217392</v>
       </c>
       <c r="G20" s="0">
-        <v>0.003803253173828125</v>
+        <v>1.4770355224609375</v>
       </c>
       <c r="H20" s="0">
         <v>3.8260869565217392</v>
       </c>
       <c r="I20" s="0">
-        <v>0.003787994384765625</v>
+        <v>1.4779586791992188</v>
       </c>
       <c r="J20" s="0">
         <v>4.8260869565217392</v>
       </c>
       <c r="K20" s="0">
-        <v>0.003803253173828125</v>
+        <v>1.4776611328125</v>
       </c>
       <c r="L20" s="0">
         <v>5.8260869565217392</v>
       </c>
       <c r="M20" s="0">
-        <v>0.003612518310546875</v>
+        <v>1.4796257019042969</v>
       </c>
       <c r="N20" s="0">
         <v>6.8260869565217392</v>
       </c>
       <c r="O20" s="0">
-        <v>0.00354766845703125</v>
+        <v>1.4829330444335938</v>
       </c>
       <c r="P20" s="0">
         <v>7.8260869565217392</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.003429412841796875</v>
+        <v>1.4869270324707031</v>
       </c>
       <c r="R20" s="0">
         <v>8.8260869565217384</v>
       </c>
       <c r="S20" s="0">
-        <v>0.003383636474609375</v>
+        <v>1.4891204833984375</v>
       </c>
       <c r="T20" s="0">
         <v>9.8260869565217384</v>
       </c>
       <c r="U20" s="0">
-        <v>0.003574371337890625</v>
+        <v>1.4918098449707031</v>
       </c>
       <c r="V20" s="0">
         <v>10.826086956521738</v>
       </c>
       <c r="W20" s="0">
-        <v>0.003574371337890625</v>
+        <v>1.4906997680664062</v>
       </c>
       <c r="X20" s="0">
         <v>11.826086956521738</v>
       </c>
       <c r="Y20" s="0">
-        <v>0.00388336181640625</v>
+        <v>1.4859428405761719</v>
       </c>
       <c r="Z20" s="0">
         <v>12.826086956521738</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.0038909912109375</v>
+        <v>1.48468017578125</v>
       </c>
       <c r="AB20" s="0">
         <v>13.826086956521738</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.4805335998535156</v>
       </c>
       <c r="AD20" s="0">
         <v>14.826086956521738</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.003856658935546875</v>
+        <v>1.4797248840332031</v>
       </c>
       <c r="AF20" s="0">
         <v>15.826086956521738</v>
       </c>
       <c r="AG20" s="0">
-        <v>0.003757476806640625</v>
+        <v>1.479095458984375</v>
       </c>
       <c r="AH20" s="0">
         <v>16.826086956521738</v>
       </c>
       <c r="AI20" s="0">
-        <v>0.0038299560546875</v>
+        <v>1.4774169921875</v>
       </c>
       <c r="AJ20" s="0">
         <v>17.826086956521738</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.003875732421875</v>
+        <v>1.4798698425292969</v>
       </c>
       <c r="AL20" s="0">
         <v>18.826086956521738</v>
       </c>
       <c r="AM20" s="0">
-        <v>0.003570556640625</v>
+        <v>1.4788284301757812</v>
       </c>
       <c r="AN20" s="0">
         <v>19.826086956521738</v>
       </c>
       <c r="AO20" s="0">
-        <v>0.003704071044921875</v>
+        <v>1.4798011779785156</v>
       </c>
       <c r="AP20" s="0">
         <v>20.826086956521738</v>
       </c>
       <c r="AQ20" s="0">
-        <v>0.00395965576171875</v>
+        <v>1.4802207946777344</v>
       </c>
       <c r="AR20" s="0">
         <v>21.826086956521738</v>
       </c>
       <c r="AS20" s="0">
-        <v>0.003875732421875</v>
+        <v>1.4797744750976562</v>
       </c>
       <c r="AT20" s="0">
         <v>22.826086956521738</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.003936767578125</v>
+        <v>1.4815101623535156</v>
       </c>
       <c r="AV20" s="0">
         <v>23.826086956521738</v>
       </c>
       <c r="AW20" s="0">
-        <v>0.00397491455078125</v>
+        <v>1.4800949096679688</v>
       </c>
       <c r="AX20" s="0">
         <v>24.826086956521738</v>
       </c>
       <c r="AY20" s="0">
-        <v>0.003814697265625</v>
+        <v>1.4791679382324219</v>
       </c>
       <c r="AZ20" s="0">
         <v>25.826086956521738</v>
       </c>
       <c r="BA20" s="0">
-        <v>0.004161834716796875</v>
+        <v>1.480072021484375</v>
       </c>
       <c r="BB20" s="0">
         <v>26.826086956521738</v>
       </c>
       <c r="BC20" s="0">
-        <v>0.00383758544921875</v>
+        <v>1.4775505065917969</v>
       </c>
       <c r="BD20" s="0">
         <v>27.826086956521738</v>
       </c>
       <c r="BE20" s="0">
-        <v>0.003986358642578125</v>
+        <v>1.4787750244140625</v>
       </c>
       <c r="BF20" s="0">
         <v>28.826086956521738</v>
       </c>
       <c r="BG20" s="0">
-        <v>0.00400543212890625</v>
+        <v>1.4783515930175781</v>
       </c>
       <c r="BH20" s="0">
         <v>29.826086956521738</v>
@@ -14445,181 +14448,181 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0037689208984375</v>
+        <v>1.4784202575683594</v>
       </c>
       <c r="B21" s="0">
         <v>0.86956521739130432</v>
       </c>
       <c r="C21" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4754524230957031</v>
       </c>
       <c r="D21" s="0">
         <v>1.8695652173913042</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0038299560546875</v>
+        <v>1.4757843017578125</v>
       </c>
       <c r="F21" s="0">
         <v>2.8695652173913042</v>
       </c>
       <c r="G21" s="0">
-        <v>0.0037994384765625</v>
+        <v>1.4767799377441406</v>
       </c>
       <c r="H21" s="0">
         <v>3.8695652173913042</v>
       </c>
       <c r="I21" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4769821166992188</v>
       </c>
       <c r="J21" s="0">
         <v>4.8695652173913047</v>
       </c>
       <c r="K21" s="0">
-        <v>0.003665924072265625</v>
+        <v>1.4768753051757812</v>
       </c>
       <c r="L21" s="0">
         <v>5.8695652173913047</v>
       </c>
       <c r="M21" s="0">
-        <v>0.00360107421875</v>
+        <v>1.4795303344726562</v>
       </c>
       <c r="N21" s="0">
         <v>6.8695652173913047</v>
       </c>
       <c r="O21" s="0">
-        <v>0.003566741943359375</v>
+        <v>1.4798507690429688</v>
       </c>
       <c r="P21" s="0">
         <v>7.8695652173913047</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.003604888916015625</v>
+        <v>1.4843215942382812</v>
       </c>
       <c r="R21" s="0">
         <v>8.8695652173913047</v>
       </c>
       <c r="S21" s="0">
-        <v>0.0034332275390625</v>
+        <v>1.4857559204101562</v>
       </c>
       <c r="T21" s="0">
         <v>9.8695652173913047</v>
       </c>
       <c r="U21" s="0">
-        <v>0.003704071044921875</v>
+        <v>1.4881248474121094</v>
       </c>
       <c r="V21" s="0">
         <v>10.869565217391305</v>
       </c>
       <c r="W21" s="0">
-        <v>0.003635406494140625</v>
+        <v>1.4868583679199219</v>
       </c>
       <c r="X21" s="0">
         <v>11.869565217391305</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.483673095703125</v>
       </c>
       <c r="Z21" s="0">
         <v>12.869565217391305</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.0038299560546875</v>
+        <v>1.4828338623046875</v>
       </c>
       <c r="AB21" s="0">
         <v>13.869565217391305</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.003803253173828125</v>
+        <v>1.4792633056640625</v>
       </c>
       <c r="AD21" s="0">
         <v>14.869565217391305</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.003936767578125</v>
+        <v>1.4782333374023438</v>
       </c>
       <c r="AF21" s="0">
         <v>15.869565217391305</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.00383758544921875</v>
+        <v>1.4786376953125</v>
       </c>
       <c r="AH21" s="0">
         <v>16.869565217391305</v>
       </c>
       <c r="AI21" s="0">
-        <v>0.003894805908203125</v>
+        <v>1.4776573181152344</v>
       </c>
       <c r="AJ21" s="0">
         <v>17.869565217391305</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.003875732421875</v>
+        <v>1.4790077209472656</v>
       </c>
       <c r="AL21" s="0">
         <v>18.869565217391305</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.00372314453125</v>
+        <v>1.47723388671875</v>
       </c>
       <c r="AN21" s="0">
         <v>19.869565217391305</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4769706726074219</v>
       </c>
       <c r="AP21" s="0">
         <v>20.869565217391305</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0.003948211669921875</v>
+        <v>1.4790687561035156</v>
       </c>
       <c r="AR21" s="0">
         <v>21.869565217391305</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4791412353515625</v>
       </c>
       <c r="AT21" s="0">
         <v>22.869565217391305</v>
       </c>
       <c r="AU21" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4797782897949219</v>
       </c>
       <c r="AV21" s="0">
         <v>23.869565217391305</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.003955841064453125</v>
+        <v>1.479400634765625</v>
       </c>
       <c r="AX21" s="0">
         <v>24.869565217391305</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.478851318359375</v>
       </c>
       <c r="AZ21" s="0">
         <v>25.869565217391305</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.003997802734375</v>
+        <v>1.4792366027832031</v>
       </c>
       <c r="BB21" s="0">
         <v>26.869565217391305</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.00395965576171875</v>
+        <v>1.4777984619140625</v>
       </c>
       <c r="BD21" s="0">
         <v>27.869565217391305</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.00383758544921875</v>
+        <v>1.4789543151855469</v>
       </c>
       <c r="BF21" s="0">
         <v>28.869565217391305</v>
       </c>
       <c r="BG21" s="0">
-        <v>0.00391387939453125</v>
+        <v>1.4780120849609375</v>
       </c>
       <c r="BH21" s="0">
         <v>29.869565217391305</v>
@@ -14807,181 +14810,181 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.003772735595703125</v>
+        <v>1.4796714782714844</v>
       </c>
       <c r="B22" s="0">
         <v>0.91304347826086951</v>
       </c>
       <c r="C22" s="0">
-        <v>0.003753662109375</v>
+        <v>1.4776268005371094</v>
       </c>
       <c r="D22" s="0">
         <v>1.9130434782608696</v>
       </c>
       <c r="E22" s="0">
-        <v>0.00389862060546875</v>
+        <v>1.4779129028320312</v>
       </c>
       <c r="F22" s="0">
         <v>2.9130434782608696</v>
       </c>
       <c r="G22" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4776458740234375</v>
       </c>
       <c r="H22" s="0">
         <v>3.9130434782608696</v>
       </c>
       <c r="I22" s="0">
-        <v>0.003814697265625</v>
+        <v>1.4780235290527344</v>
       </c>
       <c r="J22" s="0">
         <v>4.9130434782608692</v>
       </c>
       <c r="K22" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4784431457519531</v>
       </c>
       <c r="L22" s="0">
         <v>5.9130434782608692</v>
       </c>
       <c r="M22" s="0">
-        <v>0.0035858154296875</v>
+        <v>1.4829063415527344</v>
       </c>
       <c r="N22" s="0">
         <v>6.9130434782608692</v>
       </c>
       <c r="O22" s="0">
-        <v>0.00342559814453125</v>
+        <v>1.4821243286132812</v>
       </c>
       <c r="P22" s="0">
         <v>7.9130434782608692</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.003387451171875</v>
+        <v>1.4853172302246094</v>
       </c>
       <c r="R22" s="0">
         <v>8.9130434782608692</v>
       </c>
       <c r="S22" s="0">
-        <v>0.0035247802734375</v>
+        <v>1.4864578247070312</v>
       </c>
       <c r="T22" s="0">
         <v>9.9130434782608692</v>
       </c>
       <c r="U22" s="0">
-        <v>0.00362396240234375</v>
+        <v>1.4878349304199219</v>
       </c>
       <c r="V22" s="0">
         <v>10.913043478260869</v>
       </c>
       <c r="W22" s="0">
-        <v>0.00356292724609375</v>
+        <v>1.4859466552734375</v>
       </c>
       <c r="X22" s="0">
         <v>11.913043478260869</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.003826141357421875</v>
+        <v>1.4837684631347656</v>
       </c>
       <c r="Z22" s="0">
         <v>12.913043478260869</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.003795623779296875</v>
+        <v>1.4828109741210938</v>
       </c>
       <c r="AB22" s="0">
         <v>13.913043478260869</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4793663024902344</v>
       </c>
       <c r="AD22" s="0">
         <v>14.913043478260869</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.00391387939453125</v>
+        <v>1.4795417785644531</v>
       </c>
       <c r="AF22" s="0">
         <v>15.913043478260869</v>
       </c>
       <c r="AG22" s="0">
-        <v>0.003910064697265625</v>
+        <v>1.4798545837402344</v>
       </c>
       <c r="AH22" s="0">
         <v>16.913043478260871</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.0036468505859375</v>
+        <v>1.4797935485839844</v>
       </c>
       <c r="AJ22" s="0">
         <v>17.913043478260871</v>
       </c>
       <c r="AK22" s="0">
-        <v>0.003978729248046875</v>
+        <v>1.4799880981445312</v>
       </c>
       <c r="AL22" s="0">
         <v>18.913043478260871</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4795989990234375</v>
       </c>
       <c r="AN22" s="0">
         <v>19.913043478260871</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.00384521484375</v>
+        <v>1.4778518676757812</v>
       </c>
       <c r="AP22" s="0">
         <v>20.913043478260871</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.0038604736328125</v>
+        <v>1.4800033569335938</v>
       </c>
       <c r="AR22" s="0">
         <v>21.913043478260871</v>
       </c>
       <c r="AS22" s="0">
-        <v>0.003765106201171875</v>
+        <v>1.4800148010253906</v>
       </c>
       <c r="AT22" s="0">
         <v>22.913043478260871</v>
       </c>
       <c r="AU22" s="0">
-        <v>0.003948211669921875</v>
+        <v>1.4803619384765625</v>
       </c>
       <c r="AV22" s="0">
         <v>23.913043478260871</v>
       </c>
       <c r="AW22" s="0">
-        <v>0.00394439697265625</v>
+        <v>1.4799575805664062</v>
       </c>
       <c r="AX22" s="0">
         <v>24.913043478260871</v>
       </c>
       <c r="AY22" s="0">
-        <v>0.004146575927734375</v>
+        <v>1.4799232482910156</v>
       </c>
       <c r="AZ22" s="0">
         <v>25.913043478260871</v>
       </c>
       <c r="BA22" s="0">
-        <v>0.00399017333984375</v>
+        <v>1.4808769226074219</v>
       </c>
       <c r="BB22" s="0">
         <v>26.913043478260871</v>
       </c>
       <c r="BC22" s="0">
-        <v>0.003986358642578125</v>
+        <v>1.4789199829101562</v>
       </c>
       <c r="BD22" s="0">
         <v>27.913043478260871</v>
       </c>
       <c r="BE22" s="0">
-        <v>0.00395965576171875</v>
+        <v>1.4794158935546875</v>
       </c>
       <c r="BF22" s="0">
         <v>28.913043478260871</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.003932952880859375</v>
+        <v>1.4794235229492188</v>
       </c>
       <c r="BH22" s="0">
         <v>29.913043478260871</v>
@@ -15169,181 +15172,181 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.003753662109375</v>
+        <v>1.4827766418457031</v>
       </c>
       <c r="B23" s="0">
         <v>0.95652173913043481</v>
       </c>
       <c r="C23" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.4818153381347656</v>
       </c>
       <c r="D23" s="0">
         <v>1.9565217391304348</v>
       </c>
       <c r="E23" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.4818916320800781</v>
       </c>
       <c r="F23" s="0">
         <v>2.9565217391304346</v>
       </c>
       <c r="G23" s="0">
-        <v>0.003734588623046875</v>
+        <v>1.4812393188476562</v>
       </c>
       <c r="H23" s="0">
         <v>3.9565217391304346</v>
       </c>
       <c r="I23" s="0">
-        <v>0.00366973876953125</v>
+        <v>1.48321533203125</v>
       </c>
       <c r="J23" s="0">
         <v>4.9565217391304346</v>
       </c>
       <c r="K23" s="0">
-        <v>0.003570556640625</v>
+        <v>1.4835052490234375</v>
       </c>
       <c r="L23" s="0">
         <v>5.9565217391304346</v>
       </c>
       <c r="M23" s="0">
-        <v>0.00373077392578125</v>
+        <v>1.4884490966796875</v>
       </c>
       <c r="N23" s="0">
         <v>6.9565217391304346</v>
       </c>
       <c r="O23" s="0">
-        <v>0.00377655029296875</v>
+        <v>1.48797607421875</v>
       </c>
       <c r="P23" s="0">
         <v>7.9565217391304346</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.00330352783203125</v>
+        <v>1.491302490234375</v>
       </c>
       <c r="R23" s="0">
         <v>8.9565217391304355</v>
       </c>
       <c r="S23" s="0">
-        <v>0.003597259521484375</v>
+        <v>1.4921417236328125</v>
       </c>
       <c r="T23" s="0">
         <v>9.9565217391304355</v>
       </c>
       <c r="U23" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.491455078125</v>
       </c>
       <c r="V23" s="0">
         <v>10.956521739130435</v>
       </c>
       <c r="W23" s="0">
-        <v>0.00371551513671875</v>
+        <v>1.4908714294433594</v>
       </c>
       <c r="X23" s="0">
         <v>11.956521739130435</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.003749847412109375</v>
+        <v>1.4869232177734375</v>
       </c>
       <c r="Z23" s="0">
         <v>12.956521739130435</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.00385284423828125</v>
+        <v>1.4863471984863281</v>
       </c>
       <c r="AB23" s="0">
         <v>13.956521739130435</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.003749847412109375</v>
+        <v>1.4834251403808594</v>
       </c>
       <c r="AD23" s="0">
         <v>14.956521739130435</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.003734588623046875</v>
+        <v>1.4831161499023438</v>
       </c>
       <c r="AF23" s="0">
         <v>15.956521739130435</v>
       </c>
       <c r="AG23" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4847908020019531</v>
       </c>
       <c r="AH23" s="0">
         <v>16.956521739130434</v>
       </c>
       <c r="AI23" s="0">
-        <v>0.003772735595703125</v>
+        <v>1.4844856262207031</v>
       </c>
       <c r="AJ23" s="0">
         <v>17.956521739130434</v>
       </c>
       <c r="AK23" s="0">
-        <v>0.003856658935546875</v>
+        <v>1.4838180541992188</v>
       </c>
       <c r="AL23" s="0">
         <v>18.956521739130434</v>
       </c>
       <c r="AM23" s="0">
-        <v>0.00376129150390625</v>
+        <v>1.4839630126953125</v>
       </c>
       <c r="AN23" s="0">
         <v>19.956521739130434</v>
       </c>
       <c r="AO23" s="0">
-        <v>0.00376129150390625</v>
+        <v>1.4833450317382812</v>
       </c>
       <c r="AP23" s="0">
         <v>20.956521739130434</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0.003795623779296875</v>
+        <v>1.48333740234375</v>
       </c>
       <c r="AR23" s="0">
         <v>21.956521739130434</v>
       </c>
       <c r="AS23" s="0">
-        <v>0.003627777099609375</v>
+        <v>1.4834022521972656</v>
       </c>
       <c r="AT23" s="0">
         <v>22.956521739130434</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.00374603271484375</v>
+        <v>1.4840126037597656</v>
       </c>
       <c r="AV23" s="0">
         <v>23.956521739130434</v>
       </c>
       <c r="AW23" s="0">
-        <v>0.00383758544921875</v>
+        <v>1.4835052490234375</v>
       </c>
       <c r="AX23" s="0">
         <v>24.956521739130434</v>
       </c>
       <c r="AY23" s="0">
-        <v>0.004119873046875</v>
+        <v>1.4827003479003906</v>
       </c>
       <c r="AZ23" s="0">
         <v>25.956521739130434</v>
       </c>
       <c r="BA23" s="0">
-        <v>0.00386810302734375</v>
+        <v>1.4850006103515625</v>
       </c>
       <c r="BB23" s="0">
         <v>26.956521739130434</v>
       </c>
       <c r="BC23" s="0">
-        <v>0.003948211669921875</v>
+        <v>1.4822807312011719</v>
       </c>
       <c r="BD23" s="0">
         <v>27.956521739130434</v>
       </c>
       <c r="BE23" s="0">
-        <v>0.004055023193359375</v>
+        <v>1.4838333129882812</v>
       </c>
       <c r="BF23" s="0">
         <v>28.956521739130434</v>
       </c>
       <c r="BG23" s="0">
-        <v>0.004001617431640625</v>
+        <v>1.4833526611328125</v>
       </c>
       <c r="BH23" s="0">
         <v>29.956521739130434</v>
@@ -15531,181 +15534,181 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.00370025634765625</v>
+        <v>1.4873771667480469</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>0.00380706787109375</v>
+        <v>1.4860649108886719</v>
       </c>
       <c r="D24" s="0">
         <v>2</v>
       </c>
       <c r="E24" s="0">
-        <v>0.003780364990234375</v>
+        <v>1.4867286682128906</v>
       </c>
       <c r="F24" s="0">
         <v>3</v>
       </c>
       <c r="G24" s="0">
-        <v>0.003833770751953125</v>
+        <v>1.4862327575683594</v>
       </c>
       <c r="H24" s="0">
         <v>4</v>
       </c>
       <c r="I24" s="0">
-        <v>0.003681182861328125</v>
+        <v>1.4881324768066406</v>
       </c>
       <c r="J24" s="0">
         <v>5</v>
       </c>
       <c r="K24" s="0">
-        <v>0.003719329833984375</v>
+        <v>1.4880905151367188</v>
       </c>
       <c r="L24" s="0">
         <v>6</v>
       </c>
       <c r="M24" s="0">
-        <v>0.003696441650390625</v>
+        <v>1.494873046875</v>
       </c>
       <c r="N24" s="0">
         <v>7</v>
       </c>
       <c r="O24" s="0">
-        <v>0.00360870361328125</v>
+        <v>1.4947929382324219</v>
       </c>
       <c r="P24" s="0">
         <v>8</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.003482818603515625</v>
+        <v>1.4991302490234375</v>
       </c>
       <c r="R24" s="0">
         <v>9</v>
       </c>
       <c r="S24" s="0">
-        <v>0.00335693359375</v>
+        <v>1.5001907348632812</v>
       </c>
       <c r="T24" s="0">
         <v>10</v>
       </c>
       <c r="U24" s="0">
-        <v>0.003570556640625</v>
+        <v>1.4969100952148438</v>
       </c>
       <c r="V24" s="0">
         <v>11</v>
       </c>
       <c r="W24" s="0">
-        <v>0.003643035888671875</v>
+        <v>1.4975776672363281</v>
       </c>
       <c r="X24" s="0">
         <v>12</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.003665924072265625</v>
+        <v>1.4913101196289062</v>
       </c>
       <c r="Z24" s="0">
         <v>13</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.0036773681640625</v>
+        <v>1.4908065795898438</v>
       </c>
       <c r="AB24" s="0">
         <v>14</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.0037384033203125</v>
+        <v>1.488861083984375</v>
       </c>
       <c r="AD24" s="0">
         <v>15</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.00347900390625</v>
+        <v>1.4889488220214844</v>
       </c>
       <c r="AF24" s="0">
         <v>16</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.003696441650390625</v>
+        <v>1.4895668029785156</v>
       </c>
       <c r="AH24" s="0">
         <v>17</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.00363922119140625</v>
+        <v>1.4887008666992188</v>
       </c>
       <c r="AJ24" s="0">
         <v>18</v>
       </c>
       <c r="AK24" s="0">
-        <v>0.0037841796875</v>
+        <v>1.4889068603515625</v>
       </c>
       <c r="AL24" s="0">
         <v>19</v>
       </c>
       <c r="AM24" s="0">
-        <v>0.0037384033203125</v>
+        <v>1.4898223876953125</v>
       </c>
       <c r="AN24" s="0">
         <v>20</v>
       </c>
       <c r="AO24" s="0">
-        <v>0.003887176513671875</v>
+        <v>1.4883384704589844</v>
       </c>
       <c r="AP24" s="0">
         <v>21</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.003955841064453125</v>
+        <v>1.4878387451171875</v>
       </c>
       <c r="AR24" s="0">
         <v>22</v>
       </c>
       <c r="AS24" s="0">
-        <v>0.003902435302734375</v>
+        <v>1.4880714416503906</v>
       </c>
       <c r="AT24" s="0">
         <v>23</v>
       </c>
       <c r="AU24" s="0">
-        <v>0.003925323486328125</v>
+        <v>1.4890708923339844</v>
       </c>
       <c r="AV24" s="0">
         <v>24</v>
       </c>
       <c r="AW24" s="0">
-        <v>0.00409698486328125</v>
+        <v>1.4868431091308594</v>
       </c>
       <c r="AX24" s="0">
         <v>25</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.0041656494140625</v>
+        <v>1.4869842529296875</v>
       </c>
       <c r="AZ24" s="0">
         <v>26</v>
       </c>
       <c r="BA24" s="0">
-        <v>0.003997802734375</v>
+        <v>1.4895439147949219</v>
       </c>
       <c r="BB24" s="0">
         <v>27</v>
       </c>
       <c r="BC24" s="0">
-        <v>0.003963470458984375</v>
+        <v>1.4875602722167969</v>
       </c>
       <c r="BD24" s="0">
         <v>28</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.004100799560546875</v>
+        <v>1.4876327514648438</v>
       </c>
       <c r="BF24" s="0">
         <v>29</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.003936767578125</v>
+        <v>1.4880790710449219</v>
       </c>
       <c r="BH24" s="0">
         <v>30</v>
